--- a/2.詳細設計/2-1_詳細設計_ログイン画面.xlsx
+++ b/2.詳細設計/2-1_詳細設計_ログイン画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81806\Desktop\仕事\2回目課題\2.詳細設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25450EEE-5016-4E46-8C52-EF40F9B145AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52881719-CE87-4607-9C7C-E3294F14E8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="780" windowWidth="16875" windowHeight="15420" tabRatio="747" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10710" yWindow="120" windowWidth="16875" windowHeight="15420" tabRatio="747" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.表紙" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'1.更新履歴'!$A$3:$AX$23</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'2.画面レイアウト'!$A$3:$AY$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'3.入出力定義'!$A$3:$BH$40</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'4.処理詳細'!$A$3:$AX$53</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'4.処理詳細'!$A$3:$AX$56</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="113">
   <si>
     <t>ログイン画面</t>
   </si>
@@ -707,8 +707,82 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>3)ログインボタンの押下</t>
+    <rPh sb="10" eb="12">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2)会員情報登録画面ボタンの押下</t>
+    <rPh sb="2" eb="6">
+      <t>カイインジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・会員情報登録ボタンを押下した時に、『会員情報登録画面』を表示する。</t>
+    <rPh sb="1" eb="5">
+      <t>カイインジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>カイインジョウホウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>顧客情報マスタ - 苗字</t>
+    <rPh sb="0" eb="2">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ミョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>顧客情報マスタ - 名前</t>
+    <rPh sb="0" eb="2">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <r>
-      <t>　①</t>
+      <t>　3-1-1)</t>
     </r>
     <r>
       <rPr>
@@ -731,29 +805,29 @@
       </rPr>
       <t xml:space="preserve"> → 『3-2)顧客データ取得』の処理を行う。</t>
     </r>
-    <rPh sb="2" eb="4">
+    <rPh sb="7" eb="9">
       <t>キジュツ</t>
     </rPh>
-    <rPh sb="10" eb="12">
+    <rPh sb="15" eb="17">
       <t>バアイ</t>
     </rPh>
-    <rPh sb="20" eb="22">
+    <rPh sb="25" eb="27">
       <t>コキャク</t>
     </rPh>
-    <rPh sb="25" eb="27">
+    <rPh sb="30" eb="32">
       <t>シュトク</t>
     </rPh>
-    <rPh sb="29" eb="31">
+    <rPh sb="34" eb="36">
       <t>ショリ</t>
     </rPh>
-    <rPh sb="32" eb="33">
+    <rPh sb="37" eb="38">
       <t>オコナ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
-      <t>　②</t>
+      <t>　3-1-2)</t>
     </r>
     <r>
       <rPr>
@@ -776,29 +850,40 @@
       </rPr>
       <t xml:space="preserve"> → ここで処理を終了し、必須項目エラーメッセージを表示する。</t>
     </r>
-    <rPh sb="2" eb="4">
+    <rPh sb="7" eb="9">
       <t>キジュツ</t>
     </rPh>
-    <rPh sb="11" eb="13">
+    <rPh sb="16" eb="18">
       <t>バアイ</t>
     </rPh>
-    <rPh sb="19" eb="21">
+    <rPh sb="24" eb="26">
       <t>ショリ</t>
     </rPh>
-    <rPh sb="22" eb="24">
+    <rPh sb="27" eb="29">
       <t>シュウリョウ</t>
     </rPh>
-    <rPh sb="26" eb="30">
+    <rPh sb="31" eb="35">
       <t>ヒッスコウモク</t>
     </rPh>
-    <rPh sb="39" eb="41">
+    <rPh sb="44" eb="46">
       <t>ヒョウジ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>【前提】</t>
+    <rPh sb="1" eb="3">
+      <t>ゼンテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>なし</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
-      <t>　②</t>
+      <t>　3-2-2)</t>
     </r>
     <r>
       <rPr>
@@ -821,171 +906,64 @@
       </rPr>
       <t>→ ここで処理を終了し、エラー内容に沿ったエラーメッセージの表示を行う。</t>
     </r>
-    <rPh sb="5" eb="7">
+    <rPh sb="10" eb="12">
       <t>シュトク</t>
     </rPh>
-    <rPh sb="11" eb="13">
+    <rPh sb="16" eb="18">
       <t>バアイ</t>
     </rPh>
-    <rPh sb="19" eb="21">
+    <rPh sb="24" eb="26">
       <t>ショリ</t>
     </rPh>
-    <rPh sb="22" eb="24">
+    <rPh sb="27" eb="29">
       <t>シュウリョウ</t>
     </rPh>
-    <rPh sb="29" eb="31">
+    <rPh sb="34" eb="36">
       <t>ナイヨウ</t>
     </rPh>
-    <rPh sb="32" eb="33">
+    <rPh sb="37" eb="38">
       <t>ソ</t>
     </rPh>
-    <rPh sb="44" eb="46">
+    <rPh sb="49" eb="51">
       <t>ヒョウジ</t>
     </rPh>
-    <rPh sb="47" eb="48">
+    <rPh sb="52" eb="53">
       <t>オコナ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>3)ログインボタンの押下</t>
-    <rPh sb="10" eb="12">
-      <t>オウカ</t>
+    <t>登録者はログインをしてメインメニューに移行する、未登録者は『会員ではない方はこちら』ボタンから会員情報登録画面に移行する。</t>
+    <rPh sb="0" eb="3">
+      <t>トウロクシャ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="24" eb="28">
+      <t>ミトウロクシャ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="47" eb="55">
+      <t>カイインジョウホウトウロクガメン</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>イコウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>2)会員情報登録画面ボタンの押下</t>
-    <rPh sb="2" eb="6">
-      <t>カイインジョウホウ</t>
-    </rPh>
-    <rPh sb="6" eb="10">
-      <t>トウロクガメン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>・会員情報登録ボタンを押下した時に、『会員情報登録画面』を表示する。</t>
-    <rPh sb="1" eb="5">
-      <t>カイインジョウホウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="19" eb="23">
-      <t>カイインジョウホウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>②会員情報を登録していない人は、『会員ではない方はこちら』と書かれたボタンを押下し、会員情報登録画面に移行する。</t>
-    <rPh sb="6" eb="8">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>カイイン</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="42" eb="50">
-      <t>カイインジョウホウトウロクガメン</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>イコウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>①会員情報を登録している人は、登録したIDとPassを記述した後『ログイン』と書かれたボタンを押下し、メインメニューに移行する。</t>
-    <rPh sb="1" eb="3">
-      <t>カイイン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>キジュツ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ノチ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>イコウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>顧客情報マスタ - 苗字</t>
-    <rPh sb="0" eb="2">
-      <t>コキャク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ミョウジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>顧客情報マスタ - 名前</t>
-    <rPh sb="0" eb="2">
-      <t>コキャク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ナマエ</t>
-    </rPh>
+    <t>　『3-3)メインメニューを表示』の処理を行う。</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
-      <t>　①</t>
+      <t>　3-2-1)</t>
     </r>
     <r>
       <rPr>
@@ -1006,34 +984,31 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve"> → 取得された顧客データと、顧客IDを共通変数に保持し、『3-3)メインメニューを表示』の処理を行う。</t>
+      <t xml:space="preserve"> → 取得された顧客データと、画面に記述された顧客IDを共通変数に保持し、</t>
     </r>
-    <rPh sb="10" eb="12">
+    <rPh sb="15" eb="17">
       <t>バアイ</t>
     </rPh>
-    <rPh sb="15" eb="17">
+    <rPh sb="20" eb="22">
       <t>シュトク</t>
     </rPh>
-    <rPh sb="20" eb="22">
+    <rPh sb="25" eb="27">
       <t>コキャク</t>
     </rPh>
-    <rPh sb="27" eb="29">
+    <rPh sb="32" eb="34">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
       <t>コキャク</t>
     </rPh>
-    <rPh sb="32" eb="36">
+    <rPh sb="45" eb="49">
       <t>キョウツウヘンスウ</t>
     </rPh>
-    <rPh sb="37" eb="39">
+    <rPh sb="50" eb="52">
       <t>ホジ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>オコナ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1713,6 +1688,27 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1740,42 +1736,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1792,26 +1775,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1819,13 +1794,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1833,6 +1805,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1843,7 +1818,19 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1852,11 +1839,8 @@
     <xf numFmtId="56" fontId="9" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1873,23 +1857,32 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1903,28 +1896,10 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2743,7 +2718,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA34"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3019,28 +2996,28 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="70" t="s">
+      <c r="H10" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="71"/>
-      <c r="N10" s="71"/>
-      <c r="O10" s="71"/>
-      <c r="P10" s="71"/>
-      <c r="Q10" s="71"/>
-      <c r="R10" s="71"/>
-      <c r="S10" s="71"/>
-      <c r="T10" s="71"/>
-      <c r="U10" s="71"/>
-      <c r="V10" s="71"/>
-      <c r="W10" s="71"/>
-      <c r="X10" s="71"/>
-      <c r="Y10" s="71"/>
-      <c r="Z10" s="71"/>
-      <c r="AA10" s="72"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="78"/>
+      <c r="O10" s="78"/>
+      <c r="P10" s="78"/>
+      <c r="Q10" s="78"/>
+      <c r="R10" s="78"/>
+      <c r="S10" s="78"/>
+      <c r="T10" s="78"/>
+      <c r="U10" s="78"/>
+      <c r="V10" s="78"/>
+      <c r="W10" s="78"/>
+      <c r="X10" s="78"/>
+      <c r="Y10" s="78"/>
+      <c r="Z10" s="78"/>
+      <c r="AA10" s="79"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
@@ -3050,26 +3027,26 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="74"/>
-      <c r="M11" s="74"/>
-      <c r="N11" s="74"/>
-      <c r="O11" s="74"/>
-      <c r="P11" s="74"/>
-      <c r="Q11" s="74"/>
-      <c r="R11" s="74"/>
-      <c r="S11" s="74"/>
-      <c r="T11" s="74"/>
-      <c r="U11" s="74"/>
-      <c r="V11" s="74"/>
-      <c r="W11" s="74"/>
-      <c r="X11" s="74"/>
-      <c r="Y11" s="74"/>
-      <c r="Z11" s="74"/>
-      <c r="AA11" s="75"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="81"/>
+      <c r="O11" s="81"/>
+      <c r="P11" s="81"/>
+      <c r="Q11" s="81"/>
+      <c r="R11" s="81"/>
+      <c r="S11" s="81"/>
+      <c r="T11" s="81"/>
+      <c r="U11" s="81"/>
+      <c r="V11" s="81"/>
+      <c r="W11" s="81"/>
+      <c r="X11" s="81"/>
+      <c r="Y11" s="81"/>
+      <c r="Z11" s="81"/>
+      <c r="AA11" s="82"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
@@ -3079,26 +3056,26 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="74"/>
-      <c r="N12" s="74"/>
-      <c r="O12" s="74"/>
-      <c r="P12" s="74"/>
-      <c r="Q12" s="74"/>
-      <c r="R12" s="74"/>
-      <c r="S12" s="74"/>
-      <c r="T12" s="74"/>
-      <c r="U12" s="74"/>
-      <c r="V12" s="74"/>
-      <c r="W12" s="74"/>
-      <c r="X12" s="74"/>
-      <c r="Y12" s="74"/>
-      <c r="Z12" s="74"/>
-      <c r="AA12" s="75"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="81"/>
+      <c r="L12" s="81"/>
+      <c r="M12" s="81"/>
+      <c r="N12" s="81"/>
+      <c r="O12" s="81"/>
+      <c r="P12" s="81"/>
+      <c r="Q12" s="81"/>
+      <c r="R12" s="81"/>
+      <c r="S12" s="81"/>
+      <c r="T12" s="81"/>
+      <c r="U12" s="81"/>
+      <c r="V12" s="81"/>
+      <c r="W12" s="81"/>
+      <c r="X12" s="81"/>
+      <c r="Y12" s="81"/>
+      <c r="Z12" s="81"/>
+      <c r="AA12" s="82"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
@@ -3108,28 +3085,28 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="73" t="s">
+      <c r="H13" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="I13" s="74"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="74"/>
-      <c r="M13" s="74"/>
-      <c r="N13" s="74"/>
-      <c r="O13" s="74"/>
-      <c r="P13" s="74"/>
-      <c r="Q13" s="74"/>
-      <c r="R13" s="74"/>
-      <c r="S13" s="74"/>
-      <c r="T13" s="74"/>
-      <c r="U13" s="74"/>
-      <c r="V13" s="74"/>
-      <c r="W13" s="74"/>
-      <c r="X13" s="74"/>
-      <c r="Y13" s="74"/>
-      <c r="Z13" s="74"/>
-      <c r="AA13" s="75"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="81"/>
+      <c r="M13" s="81"/>
+      <c r="N13" s="81"/>
+      <c r="O13" s="81"/>
+      <c r="P13" s="81"/>
+      <c r="Q13" s="81"/>
+      <c r="R13" s="81"/>
+      <c r="S13" s="81"/>
+      <c r="T13" s="81"/>
+      <c r="U13" s="81"/>
+      <c r="V13" s="81"/>
+      <c r="W13" s="81"/>
+      <c r="X13" s="81"/>
+      <c r="Y13" s="81"/>
+      <c r="Z13" s="81"/>
+      <c r="AA13" s="82"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
@@ -3139,26 +3116,26 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="74"/>
-      <c r="M14" s="74"/>
-      <c r="N14" s="74"/>
-      <c r="O14" s="74"/>
-      <c r="P14" s="74"/>
-      <c r="Q14" s="74"/>
-      <c r="R14" s="74"/>
-      <c r="S14" s="74"/>
-      <c r="T14" s="74"/>
-      <c r="U14" s="74"/>
-      <c r="V14" s="74"/>
-      <c r="W14" s="74"/>
-      <c r="X14" s="74"/>
-      <c r="Y14" s="74"/>
-      <c r="Z14" s="74"/>
-      <c r="AA14" s="75"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="81"/>
+      <c r="M14" s="81"/>
+      <c r="N14" s="81"/>
+      <c r="O14" s="81"/>
+      <c r="P14" s="81"/>
+      <c r="Q14" s="81"/>
+      <c r="R14" s="81"/>
+      <c r="S14" s="81"/>
+      <c r="T14" s="81"/>
+      <c r="U14" s="81"/>
+      <c r="V14" s="81"/>
+      <c r="W14" s="81"/>
+      <c r="X14" s="81"/>
+      <c r="Y14" s="81"/>
+      <c r="Z14" s="81"/>
+      <c r="AA14" s="82"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
@@ -3168,26 +3145,26 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="77"/>
-      <c r="M15" s="77"/>
-      <c r="N15" s="77"/>
-      <c r="O15" s="77"/>
-      <c r="P15" s="77"/>
-      <c r="Q15" s="77"/>
-      <c r="R15" s="77"/>
-      <c r="S15" s="77"/>
-      <c r="T15" s="77"/>
-      <c r="U15" s="77"/>
-      <c r="V15" s="77"/>
-      <c r="W15" s="77"/>
-      <c r="X15" s="77"/>
-      <c r="Y15" s="77"/>
-      <c r="Z15" s="77"/>
-      <c r="AA15" s="78"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="84"/>
+      <c r="M15" s="84"/>
+      <c r="N15" s="84"/>
+      <c r="O15" s="84"/>
+      <c r="P15" s="84"/>
+      <c r="Q15" s="84"/>
+      <c r="R15" s="84"/>
+      <c r="S15" s="84"/>
+      <c r="T15" s="84"/>
+      <c r="U15" s="84"/>
+      <c r="V15" s="84"/>
+      <c r="W15" s="84"/>
+      <c r="X15" s="84"/>
+      <c r="Y15" s="84"/>
+      <c r="Z15" s="84"/>
+      <c r="AA15" s="85"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
@@ -3401,28 +3378,28 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="79" t="s">
+      <c r="I23" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="J23" s="80"/>
-      <c r="K23" s="80"/>
-      <c r="L23" s="80"/>
-      <c r="M23" s="80"/>
-      <c r="N23" s="81"/>
-      <c r="O23" s="79" t="s">
+      <c r="J23" s="71"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="71"/>
+      <c r="M23" s="71"/>
+      <c r="N23" s="72"/>
+      <c r="O23" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="P23" s="80"/>
-      <c r="Q23" s="80"/>
-      <c r="R23" s="80"/>
-      <c r="S23" s="80"/>
-      <c r="T23" s="80"/>
-      <c r="U23" s="80"/>
-      <c r="V23" s="80"/>
-      <c r="W23" s="80"/>
-      <c r="X23" s="80"/>
-      <c r="Y23" s="80"/>
-      <c r="Z23" s="81"/>
+      <c r="P23" s="71"/>
+      <c r="Q23" s="71"/>
+      <c r="R23" s="71"/>
+      <c r="S23" s="71"/>
+      <c r="T23" s="71"/>
+      <c r="U23" s="71"/>
+      <c r="V23" s="71"/>
+      <c r="W23" s="71"/>
+      <c r="X23" s="71"/>
+      <c r="Y23" s="71"/>
+      <c r="Z23" s="72"/>
       <c r="AA23" s="1"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.15">
@@ -3434,24 +3411,24 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="83"/>
-      <c r="K24" s="83"/>
-      <c r="L24" s="83"/>
-      <c r="M24" s="83"/>
-      <c r="N24" s="84"/>
-      <c r="O24" s="82"/>
-      <c r="P24" s="83"/>
-      <c r="Q24" s="83"/>
-      <c r="R24" s="83"/>
-      <c r="S24" s="83"/>
-      <c r="T24" s="83"/>
-      <c r="U24" s="83"/>
-      <c r="V24" s="83"/>
-      <c r="W24" s="83"/>
-      <c r="X24" s="83"/>
-      <c r="Y24" s="83"/>
-      <c r="Z24" s="84"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="74"/>
+      <c r="K24" s="74"/>
+      <c r="L24" s="74"/>
+      <c r="M24" s="74"/>
+      <c r="N24" s="75"/>
+      <c r="O24" s="73"/>
+      <c r="P24" s="74"/>
+      <c r="Q24" s="74"/>
+      <c r="R24" s="74"/>
+      <c r="S24" s="74"/>
+      <c r="T24" s="74"/>
+      <c r="U24" s="74"/>
+      <c r="V24" s="74"/>
+      <c r="W24" s="74"/>
+      <c r="X24" s="74"/>
+      <c r="Y24" s="74"/>
+      <c r="Z24" s="75"/>
       <c r="AA24" s="1"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.15">
@@ -3463,28 +3440,28 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="79" t="s">
+      <c r="I25" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="J25" s="80"/>
-      <c r="K25" s="80"/>
-      <c r="L25" s="80"/>
-      <c r="M25" s="80"/>
-      <c r="N25" s="81"/>
-      <c r="O25" s="79" t="s">
+      <c r="J25" s="71"/>
+      <c r="K25" s="71"/>
+      <c r="L25" s="71"/>
+      <c r="M25" s="71"/>
+      <c r="N25" s="72"/>
+      <c r="O25" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="P25" s="80"/>
-      <c r="Q25" s="80"/>
-      <c r="R25" s="80"/>
-      <c r="S25" s="80"/>
-      <c r="T25" s="80"/>
-      <c r="U25" s="80"/>
-      <c r="V25" s="80"/>
-      <c r="W25" s="80"/>
-      <c r="X25" s="80"/>
-      <c r="Y25" s="80"/>
-      <c r="Z25" s="81"/>
+      <c r="P25" s="71"/>
+      <c r="Q25" s="71"/>
+      <c r="R25" s="71"/>
+      <c r="S25" s="71"/>
+      <c r="T25" s="71"/>
+      <c r="U25" s="71"/>
+      <c r="V25" s="71"/>
+      <c r="W25" s="71"/>
+      <c r="X25" s="71"/>
+      <c r="Y25" s="71"/>
+      <c r="Z25" s="72"/>
       <c r="AA25" s="1"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.15">
@@ -3496,24 +3473,24 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="83"/>
-      <c r="K26" s="83"/>
-      <c r="L26" s="83"/>
-      <c r="M26" s="83"/>
-      <c r="N26" s="84"/>
-      <c r="O26" s="82"/>
-      <c r="P26" s="83"/>
-      <c r="Q26" s="83"/>
-      <c r="R26" s="83"/>
-      <c r="S26" s="83"/>
-      <c r="T26" s="83"/>
-      <c r="U26" s="83"/>
-      <c r="V26" s="83"/>
-      <c r="W26" s="83"/>
-      <c r="X26" s="83"/>
-      <c r="Y26" s="83"/>
-      <c r="Z26" s="84"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="74"/>
+      <c r="L26" s="74"/>
+      <c r="M26" s="74"/>
+      <c r="N26" s="75"/>
+      <c r="O26" s="73"/>
+      <c r="P26" s="74"/>
+      <c r="Q26" s="74"/>
+      <c r="R26" s="74"/>
+      <c r="S26" s="74"/>
+      <c r="T26" s="74"/>
+      <c r="U26" s="74"/>
+      <c r="V26" s="74"/>
+      <c r="W26" s="74"/>
+      <c r="X26" s="74"/>
+      <c r="Y26" s="74"/>
+      <c r="Z26" s="75"/>
       <c r="AA26" s="1"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.15">
@@ -3525,28 +3502,28 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="79" t="s">
+      <c r="I27" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="J27" s="80"/>
-      <c r="K27" s="80"/>
-      <c r="L27" s="80"/>
-      <c r="M27" s="80"/>
-      <c r="N27" s="81"/>
-      <c r="O27" s="79" t="s">
+      <c r="J27" s="71"/>
+      <c r="K27" s="71"/>
+      <c r="L27" s="71"/>
+      <c r="M27" s="71"/>
+      <c r="N27" s="72"/>
+      <c r="O27" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="P27" s="80"/>
-      <c r="Q27" s="80"/>
-      <c r="R27" s="80"/>
-      <c r="S27" s="80"/>
-      <c r="T27" s="80"/>
-      <c r="U27" s="80"/>
-      <c r="V27" s="80"/>
-      <c r="W27" s="80"/>
-      <c r="X27" s="80"/>
-      <c r="Y27" s="80"/>
-      <c r="Z27" s="81"/>
+      <c r="P27" s="71"/>
+      <c r="Q27" s="71"/>
+      <c r="R27" s="71"/>
+      <c r="S27" s="71"/>
+      <c r="T27" s="71"/>
+      <c r="U27" s="71"/>
+      <c r="V27" s="71"/>
+      <c r="W27" s="71"/>
+      <c r="X27" s="71"/>
+      <c r="Y27" s="71"/>
+      <c r="Z27" s="72"/>
       <c r="AA27" s="1"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.15">
@@ -3558,24 +3535,24 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="82"/>
-      <c r="J28" s="83"/>
-      <c r="K28" s="83"/>
-      <c r="L28" s="83"/>
-      <c r="M28" s="83"/>
-      <c r="N28" s="84"/>
-      <c r="O28" s="82"/>
-      <c r="P28" s="83"/>
-      <c r="Q28" s="83"/>
-      <c r="R28" s="83"/>
-      <c r="S28" s="83"/>
-      <c r="T28" s="83"/>
-      <c r="U28" s="83"/>
-      <c r="V28" s="83"/>
-      <c r="W28" s="83"/>
-      <c r="X28" s="83"/>
-      <c r="Y28" s="83"/>
-      <c r="Z28" s="84"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="74"/>
+      <c r="K28" s="74"/>
+      <c r="L28" s="74"/>
+      <c r="M28" s="74"/>
+      <c r="N28" s="75"/>
+      <c r="O28" s="73"/>
+      <c r="P28" s="74"/>
+      <c r="Q28" s="74"/>
+      <c r="R28" s="74"/>
+      <c r="S28" s="74"/>
+      <c r="T28" s="74"/>
+      <c r="U28" s="74"/>
+      <c r="V28" s="74"/>
+      <c r="W28" s="74"/>
+      <c r="X28" s="74"/>
+      <c r="Y28" s="74"/>
+      <c r="Z28" s="75"/>
       <c r="AA28" s="1"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.15">
@@ -3587,28 +3564,28 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="79" t="s">
+      <c r="I29" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="J29" s="80"/>
-      <c r="K29" s="80"/>
-      <c r="L29" s="80"/>
-      <c r="M29" s="80"/>
-      <c r="N29" s="81"/>
-      <c r="O29" s="85">
+      <c r="J29" s="71"/>
+      <c r="K29" s="71"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="71"/>
+      <c r="N29" s="72"/>
+      <c r="O29" s="76">
         <v>44533</v>
       </c>
-      <c r="P29" s="80"/>
-      <c r="Q29" s="80"/>
-      <c r="R29" s="80"/>
-      <c r="S29" s="80"/>
-      <c r="T29" s="80"/>
-      <c r="U29" s="80"/>
-      <c r="V29" s="80"/>
-      <c r="W29" s="80"/>
-      <c r="X29" s="80"/>
-      <c r="Y29" s="80"/>
-      <c r="Z29" s="81"/>
+      <c r="P29" s="71"/>
+      <c r="Q29" s="71"/>
+      <c r="R29" s="71"/>
+      <c r="S29" s="71"/>
+      <c r="T29" s="71"/>
+      <c r="U29" s="71"/>
+      <c r="V29" s="71"/>
+      <c r="W29" s="71"/>
+      <c r="X29" s="71"/>
+      <c r="Y29" s="71"/>
+      <c r="Z29" s="72"/>
       <c r="AA29" s="1"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.15">
@@ -3620,24 +3597,24 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="82"/>
-      <c r="J30" s="83"/>
-      <c r="K30" s="83"/>
-      <c r="L30" s="83"/>
-      <c r="M30" s="83"/>
-      <c r="N30" s="84"/>
-      <c r="O30" s="82"/>
-      <c r="P30" s="83"/>
-      <c r="Q30" s="83"/>
-      <c r="R30" s="83"/>
-      <c r="S30" s="83"/>
-      <c r="T30" s="83"/>
-      <c r="U30" s="83"/>
-      <c r="V30" s="83"/>
-      <c r="W30" s="83"/>
-      <c r="X30" s="83"/>
-      <c r="Y30" s="83"/>
-      <c r="Z30" s="84"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="74"/>
+      <c r="L30" s="74"/>
+      <c r="M30" s="74"/>
+      <c r="N30" s="75"/>
+      <c r="O30" s="73"/>
+      <c r="P30" s="74"/>
+      <c r="Q30" s="74"/>
+      <c r="R30" s="74"/>
+      <c r="S30" s="74"/>
+      <c r="T30" s="74"/>
+      <c r="U30" s="74"/>
+      <c r="V30" s="74"/>
+      <c r="W30" s="74"/>
+      <c r="X30" s="74"/>
+      <c r="Y30" s="74"/>
+      <c r="Z30" s="75"/>
       <c r="AA30" s="1"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.15">
@@ -3649,28 +3626,28 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="79" t="s">
+      <c r="I31" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="J31" s="80"/>
-      <c r="K31" s="80"/>
-      <c r="L31" s="80"/>
-      <c r="M31" s="80"/>
-      <c r="N31" s="81"/>
-      <c r="O31" s="79" t="s">
+      <c r="J31" s="71"/>
+      <c r="K31" s="71"/>
+      <c r="L31" s="71"/>
+      <c r="M31" s="71"/>
+      <c r="N31" s="72"/>
+      <c r="O31" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="P31" s="80"/>
-      <c r="Q31" s="80"/>
-      <c r="R31" s="80"/>
-      <c r="S31" s="80"/>
-      <c r="T31" s="80"/>
-      <c r="U31" s="80"/>
-      <c r="V31" s="80"/>
-      <c r="W31" s="80"/>
-      <c r="X31" s="80"/>
-      <c r="Y31" s="80"/>
-      <c r="Z31" s="81"/>
+      <c r="P31" s="71"/>
+      <c r="Q31" s="71"/>
+      <c r="R31" s="71"/>
+      <c r="S31" s="71"/>
+      <c r="T31" s="71"/>
+      <c r="U31" s="71"/>
+      <c r="V31" s="71"/>
+      <c r="W31" s="71"/>
+      <c r="X31" s="71"/>
+      <c r="Y31" s="71"/>
+      <c r="Z31" s="72"/>
       <c r="AA31" s="1"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.15">
@@ -3682,24 +3659,24 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="82"/>
-      <c r="J32" s="83"/>
-      <c r="K32" s="83"/>
-      <c r="L32" s="83"/>
-      <c r="M32" s="83"/>
-      <c r="N32" s="84"/>
-      <c r="O32" s="82"/>
-      <c r="P32" s="83"/>
-      <c r="Q32" s="83"/>
-      <c r="R32" s="83"/>
-      <c r="S32" s="83"/>
-      <c r="T32" s="83"/>
-      <c r="U32" s="83"/>
-      <c r="V32" s="83"/>
-      <c r="W32" s="83"/>
-      <c r="X32" s="83"/>
-      <c r="Y32" s="83"/>
-      <c r="Z32" s="84"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="74"/>
+      <c r="K32" s="74"/>
+      <c r="L32" s="74"/>
+      <c r="M32" s="74"/>
+      <c r="N32" s="75"/>
+      <c r="O32" s="73"/>
+      <c r="P32" s="74"/>
+      <c r="Q32" s="74"/>
+      <c r="R32" s="74"/>
+      <c r="S32" s="74"/>
+      <c r="T32" s="74"/>
+      <c r="U32" s="74"/>
+      <c r="V32" s="74"/>
+      <c r="W32" s="74"/>
+      <c r="X32" s="74"/>
+      <c r="Y32" s="74"/>
+      <c r="Z32" s="75"/>
       <c r="AA32" s="1"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.15">
@@ -3711,28 +3688,28 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="79" t="s">
+      <c r="I33" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="J33" s="80"/>
-      <c r="K33" s="80"/>
-      <c r="L33" s="80"/>
-      <c r="M33" s="80"/>
-      <c r="N33" s="81"/>
-      <c r="O33" s="85">
+      <c r="J33" s="71"/>
+      <c r="K33" s="71"/>
+      <c r="L33" s="71"/>
+      <c r="M33" s="71"/>
+      <c r="N33" s="72"/>
+      <c r="O33" s="76">
         <v>44510</v>
       </c>
-      <c r="P33" s="80"/>
-      <c r="Q33" s="80"/>
-      <c r="R33" s="80"/>
-      <c r="S33" s="80"/>
-      <c r="T33" s="80"/>
-      <c r="U33" s="80"/>
-      <c r="V33" s="80"/>
-      <c r="W33" s="80"/>
-      <c r="X33" s="80"/>
-      <c r="Y33" s="80"/>
-      <c r="Z33" s="81"/>
+      <c r="P33" s="71"/>
+      <c r="Q33" s="71"/>
+      <c r="R33" s="71"/>
+      <c r="S33" s="71"/>
+      <c r="T33" s="71"/>
+      <c r="U33" s="71"/>
+      <c r="V33" s="71"/>
+      <c r="W33" s="71"/>
+      <c r="X33" s="71"/>
+      <c r="Y33" s="71"/>
+      <c r="Z33" s="72"/>
       <c r="AA33" s="1"/>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.15">
@@ -3744,28 +3721,34 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="82"/>
-      <c r="J34" s="83"/>
-      <c r="K34" s="83"/>
-      <c r="L34" s="83"/>
-      <c r="M34" s="83"/>
-      <c r="N34" s="84"/>
-      <c r="O34" s="82"/>
-      <c r="P34" s="83"/>
-      <c r="Q34" s="83"/>
-      <c r="R34" s="83"/>
-      <c r="S34" s="83"/>
-      <c r="T34" s="83"/>
-      <c r="U34" s="83"/>
-      <c r="V34" s="83"/>
-      <c r="W34" s="83"/>
-      <c r="X34" s="83"/>
-      <c r="Y34" s="83"/>
-      <c r="Z34" s="84"/>
+      <c r="I34" s="73"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="74"/>
+      <c r="L34" s="74"/>
+      <c r="M34" s="74"/>
+      <c r="N34" s="75"/>
+      <c r="O34" s="73"/>
+      <c r="P34" s="74"/>
+      <c r="Q34" s="74"/>
+      <c r="R34" s="74"/>
+      <c r="S34" s="74"/>
+      <c r="T34" s="74"/>
+      <c r="U34" s="74"/>
+      <c r="V34" s="74"/>
+      <c r="W34" s="74"/>
+      <c r="X34" s="74"/>
+      <c r="Y34" s="74"/>
+      <c r="Z34" s="75"/>
       <c r="AA34" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="H10:AA12"/>
+    <mergeCell ref="H13:AA15"/>
+    <mergeCell ref="I23:N24"/>
+    <mergeCell ref="O23:Z24"/>
+    <mergeCell ref="I25:N26"/>
+    <mergeCell ref="O25:Z26"/>
     <mergeCell ref="I33:N34"/>
     <mergeCell ref="O33:Z34"/>
     <mergeCell ref="I27:N28"/>
@@ -3774,12 +3757,6 @@
     <mergeCell ref="O29:Z30"/>
     <mergeCell ref="I31:N32"/>
     <mergeCell ref="O31:Z32"/>
-    <mergeCell ref="H10:AA12"/>
-    <mergeCell ref="H13:AA15"/>
-    <mergeCell ref="I23:N24"/>
-    <mergeCell ref="O23:Z24"/>
-    <mergeCell ref="I25:N26"/>
-    <mergeCell ref="O25:Z26"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3803,127 +3780,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="90" t="s">
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="95" t="str">
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="97" t="str">
         <f>'0.表紙'!O25</f>
         <v>ログイン画面</v>
       </c>
-      <c r="T1" s="95"/>
-      <c r="U1" s="95"/>
-      <c r="V1" s="95"/>
-      <c r="W1" s="95"/>
-      <c r="X1" s="95"/>
-      <c r="Y1" s="95"/>
-      <c r="Z1" s="95"/>
-      <c r="AA1" s="95"/>
-      <c r="AB1" s="95"/>
-      <c r="AC1" s="95"/>
-      <c r="AD1" s="95"/>
-      <c r="AE1" s="95"/>
-      <c r="AF1" s="95"/>
-      <c r="AG1" s="95"/>
-      <c r="AH1" s="95"/>
-      <c r="AI1" s="95"/>
-      <c r="AJ1" s="95"/>
-      <c r="AK1" s="93" t="s">
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
+      <c r="W1" s="97"/>
+      <c r="X1" s="97"/>
+      <c r="Y1" s="97"/>
+      <c r="Z1" s="97"/>
+      <c r="AA1" s="97"/>
+      <c r="AB1" s="97"/>
+      <c r="AC1" s="97"/>
+      <c r="AD1" s="97"/>
+      <c r="AE1" s="97"/>
+      <c r="AF1" s="97"/>
+      <c r="AG1" s="97"/>
+      <c r="AH1" s="97"/>
+      <c r="AI1" s="97"/>
+      <c r="AJ1" s="97"/>
+      <c r="AK1" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="AL1" s="93"/>
-      <c r="AM1" s="93"/>
-      <c r="AN1" s="93"/>
-      <c r="AO1" s="93"/>
-      <c r="AP1" s="93"/>
-      <c r="AQ1" s="93"/>
-      <c r="AR1" s="92" t="str">
+      <c r="AL1" s="95"/>
+      <c r="AM1" s="95"/>
+      <c r="AN1" s="95"/>
+      <c r="AO1" s="95"/>
+      <c r="AP1" s="95"/>
+      <c r="AQ1" s="95"/>
+      <c r="AR1" s="94" t="str">
         <f>'0.表紙'!O31</f>
         <v>山城</v>
       </c>
-      <c r="AS1" s="92"/>
-      <c r="AT1" s="92"/>
-      <c r="AU1" s="92"/>
-      <c r="AV1" s="92"/>
-      <c r="AW1" s="92"/>
-      <c r="AX1" s="92"/>
+      <c r="AS1" s="94"/>
+      <c r="AT1" s="94"/>
+      <c r="AU1" s="94"/>
+      <c r="AV1" s="94"/>
+      <c r="AW1" s="94"/>
+      <c r="AX1" s="94"/>
     </row>
     <row r="2" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="90" t="s">
+      <c r="A2" s="102"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="90"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="92"/>
-      <c r="T2" s="92"/>
-      <c r="U2" s="92"/>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="92"/>
-      <c r="Z2" s="92"/>
-      <c r="AA2" s="92"/>
-      <c r="AB2" s="92"/>
-      <c r="AC2" s="92"/>
-      <c r="AD2" s="92"/>
-      <c r="AE2" s="92"/>
-      <c r="AF2" s="92"/>
-      <c r="AG2" s="92"/>
-      <c r="AH2" s="92"/>
-      <c r="AI2" s="92"/>
-      <c r="AJ2" s="92"/>
-      <c r="AK2" s="93" t="s">
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="93"/>
+      <c r="S2" s="94"/>
+      <c r="T2" s="94"/>
+      <c r="U2" s="94"/>
+      <c r="V2" s="94"/>
+      <c r="W2" s="94"/>
+      <c r="X2" s="94"/>
+      <c r="Y2" s="94"/>
+      <c r="Z2" s="94"/>
+      <c r="AA2" s="94"/>
+      <c r="AB2" s="94"/>
+      <c r="AC2" s="94"/>
+      <c r="AD2" s="94"/>
+      <c r="AE2" s="94"/>
+      <c r="AF2" s="94"/>
+      <c r="AG2" s="94"/>
+      <c r="AH2" s="94"/>
+      <c r="AI2" s="94"/>
+      <c r="AJ2" s="94"/>
+      <c r="AK2" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="AL2" s="93"/>
-      <c r="AM2" s="93"/>
-      <c r="AN2" s="93"/>
-      <c r="AO2" s="93"/>
-      <c r="AP2" s="93"/>
-      <c r="AQ2" s="93"/>
-      <c r="AR2" s="94">
+      <c r="AL2" s="95"/>
+      <c r="AM2" s="95"/>
+      <c r="AN2" s="95"/>
+      <c r="AO2" s="95"/>
+      <c r="AP2" s="95"/>
+      <c r="AQ2" s="95"/>
+      <c r="AR2" s="96">
         <f>'0.表紙'!O33</f>
         <v>44510</v>
       </c>
-      <c r="AS2" s="94"/>
-      <c r="AT2" s="94"/>
-      <c r="AU2" s="94"/>
-      <c r="AV2" s="94"/>
-      <c r="AW2" s="94"/>
-      <c r="AX2" s="94"/>
+      <c r="AS2" s="96"/>
+      <c r="AT2" s="96"/>
+      <c r="AU2" s="96"/>
+      <c r="AV2" s="96"/>
+      <c r="AW2" s="96"/>
+      <c r="AX2" s="96"/>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A3" s="64"/>
@@ -3946,77 +3923,77 @@
       <c r="R3" s="64"/>
     </row>
     <row r="4" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87" t="s">
+      <c r="B4" s="99"/>
+      <c r="C4" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87" t="s">
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87" t="s">
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="87"/>
-      <c r="R4" s="87"/>
-      <c r="S4" s="87"/>
-      <c r="T4" s="87"/>
-      <c r="U4" s="98" t="s">
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="99"/>
+      <c r="Q4" s="99"/>
+      <c r="R4" s="99"/>
+      <c r="S4" s="99"/>
+      <c r="T4" s="99"/>
+      <c r="U4" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="V4" s="98"/>
-      <c r="W4" s="98"/>
-      <c r="X4" s="98"/>
-      <c r="Y4" s="98"/>
-      <c r="Z4" s="98"/>
-      <c r="AA4" s="98"/>
-      <c r="AB4" s="98"/>
-      <c r="AC4" s="98"/>
-      <c r="AD4" s="98"/>
-      <c r="AE4" s="98"/>
-      <c r="AF4" s="98"/>
-      <c r="AG4" s="98"/>
-      <c r="AH4" s="98"/>
-      <c r="AI4" s="98"/>
-      <c r="AJ4" s="98"/>
-      <c r="AK4" s="98"/>
-      <c r="AL4" s="98"/>
-      <c r="AM4" s="98"/>
-      <c r="AN4" s="98"/>
-      <c r="AO4" s="98"/>
-      <c r="AP4" s="98"/>
-      <c r="AQ4" s="98"/>
-      <c r="AR4" s="98"/>
-      <c r="AS4" s="98"/>
-      <c r="AT4" s="98"/>
-      <c r="AU4" s="98"/>
-      <c r="AV4" s="98"/>
-      <c r="AW4" s="98"/>
-      <c r="AX4" s="98"/>
+      <c r="V4" s="100"/>
+      <c r="W4" s="100"/>
+      <c r="X4" s="100"/>
+      <c r="Y4" s="100"/>
+      <c r="Z4" s="100"/>
+      <c r="AA4" s="100"/>
+      <c r="AB4" s="100"/>
+      <c r="AC4" s="100"/>
+      <c r="AD4" s="100"/>
+      <c r="AE4" s="100"/>
+      <c r="AF4" s="100"/>
+      <c r="AG4" s="100"/>
+      <c r="AH4" s="100"/>
+      <c r="AI4" s="100"/>
+      <c r="AJ4" s="100"/>
+      <c r="AK4" s="100"/>
+      <c r="AL4" s="100"/>
+      <c r="AM4" s="100"/>
+      <c r="AN4" s="100"/>
+      <c r="AO4" s="100"/>
+      <c r="AP4" s="100"/>
+      <c r="AQ4" s="100"/>
+      <c r="AR4" s="100"/>
+      <c r="AS4" s="100"/>
+      <c r="AT4" s="100"/>
+      <c r="AU4" s="100"/>
+      <c r="AV4" s="100"/>
+      <c r="AW4" s="100"/>
+      <c r="AX4" s="100"/>
     </row>
     <row r="5" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="91">
+      <c r="A5" s="90">
         <v>1</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="97">
+      <c r="B5" s="90"/>
+      <c r="C5" s="92">
         <v>44510</v>
       </c>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
       <c r="F5" s="88" t="s">
         <v>6</v>
       </c>
@@ -4036,45 +4013,45 @@
       <c r="R5" s="88"/>
       <c r="S5" s="88"/>
       <c r="T5" s="88"/>
-      <c r="U5" s="99" t="s">
+      <c r="U5" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="V5" s="99"/>
-      <c r="W5" s="99"/>
-      <c r="X5" s="99"/>
-      <c r="Y5" s="99"/>
-      <c r="Z5" s="99"/>
-      <c r="AA5" s="99"/>
-      <c r="AB5" s="99"/>
-      <c r="AC5" s="99"/>
-      <c r="AD5" s="99"/>
-      <c r="AE5" s="99"/>
-      <c r="AF5" s="99"/>
-      <c r="AG5" s="99"/>
-      <c r="AH5" s="99"/>
-      <c r="AI5" s="99"/>
-      <c r="AJ5" s="99"/>
-      <c r="AK5" s="99"/>
-      <c r="AL5" s="99"/>
-      <c r="AM5" s="99"/>
-      <c r="AN5" s="99"/>
-      <c r="AO5" s="99"/>
-      <c r="AP5" s="99"/>
-      <c r="AQ5" s="99"/>
-      <c r="AR5" s="99"/>
-      <c r="AS5" s="99"/>
-      <c r="AT5" s="99"/>
-      <c r="AU5" s="99"/>
-      <c r="AV5" s="99"/>
-      <c r="AW5" s="99"/>
-      <c r="AX5" s="99"/>
+      <c r="V5" s="89"/>
+      <c r="W5" s="89"/>
+      <c r="X5" s="89"/>
+      <c r="Y5" s="89"/>
+      <c r="Z5" s="89"/>
+      <c r="AA5" s="89"/>
+      <c r="AB5" s="89"/>
+      <c r="AC5" s="89"/>
+      <c r="AD5" s="89"/>
+      <c r="AE5" s="89"/>
+      <c r="AF5" s="89"/>
+      <c r="AG5" s="89"/>
+      <c r="AH5" s="89"/>
+      <c r="AI5" s="89"/>
+      <c r="AJ5" s="89"/>
+      <c r="AK5" s="89"/>
+      <c r="AL5" s="89"/>
+      <c r="AM5" s="89"/>
+      <c r="AN5" s="89"/>
+      <c r="AO5" s="89"/>
+      <c r="AP5" s="89"/>
+      <c r="AQ5" s="89"/>
+      <c r="AR5" s="89"/>
+      <c r="AS5" s="89"/>
+      <c r="AT5" s="89"/>
+      <c r="AU5" s="89"/>
+      <c r="AV5" s="89"/>
+      <c r="AW5" s="89"/>
+      <c r="AX5" s="89"/>
     </row>
     <row r="6" spans="1:50" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="91">
+      <c r="A6" s="90">
         <v>2</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="97">
+      <c r="B6" s="90"/>
+      <c r="C6" s="92">
         <v>44511</v>
       </c>
       <c r="D6" s="88"/>
@@ -4098,45 +4075,45 @@
       <c r="R6" s="88"/>
       <c r="S6" s="88"/>
       <c r="T6" s="88"/>
-      <c r="U6" s="99" t="s">
+      <c r="U6" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="V6" s="99"/>
-      <c r="W6" s="99"/>
-      <c r="X6" s="99"/>
-      <c r="Y6" s="99"/>
-      <c r="Z6" s="99"/>
-      <c r="AA6" s="99"/>
-      <c r="AB6" s="99"/>
-      <c r="AC6" s="99"/>
-      <c r="AD6" s="99"/>
-      <c r="AE6" s="99"/>
-      <c r="AF6" s="99"/>
-      <c r="AG6" s="99"/>
-      <c r="AH6" s="99"/>
-      <c r="AI6" s="99"/>
-      <c r="AJ6" s="99"/>
-      <c r="AK6" s="99"/>
-      <c r="AL6" s="99"/>
-      <c r="AM6" s="99"/>
-      <c r="AN6" s="99"/>
-      <c r="AO6" s="99"/>
-      <c r="AP6" s="99"/>
-      <c r="AQ6" s="99"/>
-      <c r="AR6" s="99"/>
-      <c r="AS6" s="99"/>
-      <c r="AT6" s="99"/>
-      <c r="AU6" s="99"/>
-      <c r="AV6" s="99"/>
-      <c r="AW6" s="99"/>
-      <c r="AX6" s="99"/>
+      <c r="V6" s="89"/>
+      <c r="W6" s="89"/>
+      <c r="X6" s="89"/>
+      <c r="Y6" s="89"/>
+      <c r="Z6" s="89"/>
+      <c r="AA6" s="89"/>
+      <c r="AB6" s="89"/>
+      <c r="AC6" s="89"/>
+      <c r="AD6" s="89"/>
+      <c r="AE6" s="89"/>
+      <c r="AF6" s="89"/>
+      <c r="AG6" s="89"/>
+      <c r="AH6" s="89"/>
+      <c r="AI6" s="89"/>
+      <c r="AJ6" s="89"/>
+      <c r="AK6" s="89"/>
+      <c r="AL6" s="89"/>
+      <c r="AM6" s="89"/>
+      <c r="AN6" s="89"/>
+      <c r="AO6" s="89"/>
+      <c r="AP6" s="89"/>
+      <c r="AQ6" s="89"/>
+      <c r="AR6" s="89"/>
+      <c r="AS6" s="89"/>
+      <c r="AT6" s="89"/>
+      <c r="AU6" s="89"/>
+      <c r="AV6" s="89"/>
+      <c r="AW6" s="89"/>
+      <c r="AX6" s="89"/>
     </row>
     <row r="7" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="91">
+      <c r="A7" s="90">
         <v>3</v>
       </c>
-      <c r="B7" s="91"/>
-      <c r="C7" s="97">
+      <c r="B7" s="90"/>
+      <c r="C7" s="92">
         <v>44531</v>
       </c>
       <c r="D7" s="88"/>
@@ -4160,45 +4137,45 @@
       <c r="R7" s="88"/>
       <c r="S7" s="88"/>
       <c r="T7" s="88"/>
-      <c r="U7" s="99" t="s">
+      <c r="U7" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="V7" s="99"/>
-      <c r="W7" s="99"/>
-      <c r="X7" s="99"/>
-      <c r="Y7" s="99"/>
-      <c r="Z7" s="99"/>
-      <c r="AA7" s="99"/>
-      <c r="AB7" s="99"/>
-      <c r="AC7" s="99"/>
-      <c r="AD7" s="99"/>
-      <c r="AE7" s="99"/>
-      <c r="AF7" s="99"/>
-      <c r="AG7" s="99"/>
-      <c r="AH7" s="99"/>
-      <c r="AI7" s="99"/>
-      <c r="AJ7" s="99"/>
-      <c r="AK7" s="99"/>
-      <c r="AL7" s="99"/>
-      <c r="AM7" s="99"/>
-      <c r="AN7" s="99"/>
-      <c r="AO7" s="99"/>
-      <c r="AP7" s="99"/>
-      <c r="AQ7" s="99"/>
-      <c r="AR7" s="99"/>
-      <c r="AS7" s="99"/>
-      <c r="AT7" s="99"/>
-      <c r="AU7" s="99"/>
-      <c r="AV7" s="99"/>
-      <c r="AW7" s="99"/>
-      <c r="AX7" s="99"/>
+      <c r="V7" s="89"/>
+      <c r="W7" s="89"/>
+      <c r="X7" s="89"/>
+      <c r="Y7" s="89"/>
+      <c r="Z7" s="89"/>
+      <c r="AA7" s="89"/>
+      <c r="AB7" s="89"/>
+      <c r="AC7" s="89"/>
+      <c r="AD7" s="89"/>
+      <c r="AE7" s="89"/>
+      <c r="AF7" s="89"/>
+      <c r="AG7" s="89"/>
+      <c r="AH7" s="89"/>
+      <c r="AI7" s="89"/>
+      <c r="AJ7" s="89"/>
+      <c r="AK7" s="89"/>
+      <c r="AL7" s="89"/>
+      <c r="AM7" s="89"/>
+      <c r="AN7" s="89"/>
+      <c r="AO7" s="89"/>
+      <c r="AP7" s="89"/>
+      <c r="AQ7" s="89"/>
+      <c r="AR7" s="89"/>
+      <c r="AS7" s="89"/>
+      <c r="AT7" s="89"/>
+      <c r="AU7" s="89"/>
+      <c r="AV7" s="89"/>
+      <c r="AW7" s="89"/>
+      <c r="AX7" s="89"/>
     </row>
     <row r="8" spans="1:50" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="91">
+      <c r="A8" s="90">
         <v>4</v>
       </c>
-      <c r="B8" s="91"/>
-      <c r="C8" s="97">
+      <c r="B8" s="90"/>
+      <c r="C8" s="92">
         <v>44532</v>
       </c>
       <c r="D8" s="88"/>
@@ -4210,7 +4187,7 @@
       <c r="H8" s="88"/>
       <c r="I8" s="88"/>
       <c r="J8" s="88"/>
-      <c r="K8" s="100" t="s">
+      <c r="K8" s="91" t="s">
         <v>71</v>
       </c>
       <c r="L8" s="88"/>
@@ -4222,45 +4199,45 @@
       <c r="R8" s="88"/>
       <c r="S8" s="88"/>
       <c r="T8" s="88"/>
-      <c r="U8" s="99" t="s">
+      <c r="U8" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="V8" s="99"/>
-      <c r="W8" s="99"/>
-      <c r="X8" s="99"/>
-      <c r="Y8" s="99"/>
-      <c r="Z8" s="99"/>
-      <c r="AA8" s="99"/>
-      <c r="AB8" s="99"/>
-      <c r="AC8" s="99"/>
-      <c r="AD8" s="99"/>
-      <c r="AE8" s="99"/>
-      <c r="AF8" s="99"/>
-      <c r="AG8" s="99"/>
-      <c r="AH8" s="99"/>
-      <c r="AI8" s="99"/>
-      <c r="AJ8" s="99"/>
-      <c r="AK8" s="99"/>
-      <c r="AL8" s="99"/>
-      <c r="AM8" s="99"/>
-      <c r="AN8" s="99"/>
-      <c r="AO8" s="99"/>
-      <c r="AP8" s="99"/>
-      <c r="AQ8" s="99"/>
-      <c r="AR8" s="99"/>
-      <c r="AS8" s="99"/>
-      <c r="AT8" s="99"/>
-      <c r="AU8" s="99"/>
-      <c r="AV8" s="99"/>
-      <c r="AW8" s="99"/>
-      <c r="AX8" s="99"/>
+      <c r="V8" s="89"/>
+      <c r="W8" s="89"/>
+      <c r="X8" s="89"/>
+      <c r="Y8" s="89"/>
+      <c r="Z8" s="89"/>
+      <c r="AA8" s="89"/>
+      <c r="AB8" s="89"/>
+      <c r="AC8" s="89"/>
+      <c r="AD8" s="89"/>
+      <c r="AE8" s="89"/>
+      <c r="AF8" s="89"/>
+      <c r="AG8" s="89"/>
+      <c r="AH8" s="89"/>
+      <c r="AI8" s="89"/>
+      <c r="AJ8" s="89"/>
+      <c r="AK8" s="89"/>
+      <c r="AL8" s="89"/>
+      <c r="AM8" s="89"/>
+      <c r="AN8" s="89"/>
+      <c r="AO8" s="89"/>
+      <c r="AP8" s="89"/>
+      <c r="AQ8" s="89"/>
+      <c r="AR8" s="89"/>
+      <c r="AS8" s="89"/>
+      <c r="AT8" s="89"/>
+      <c r="AU8" s="89"/>
+      <c r="AV8" s="89"/>
+      <c r="AW8" s="89"/>
+      <c r="AX8" s="89"/>
     </row>
     <row r="9" spans="1:50" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="91">
+      <c r="A9" s="90">
         <v>5</v>
       </c>
-      <c r="B9" s="91"/>
-      <c r="C9" s="97">
+      <c r="B9" s="90"/>
+      <c r="C9" s="92">
         <v>44533</v>
       </c>
       <c r="D9" s="88"/>
@@ -4272,7 +4249,7 @@
       <c r="H9" s="88"/>
       <c r="I9" s="88"/>
       <c r="J9" s="88"/>
-      <c r="K9" s="100" t="s">
+      <c r="K9" s="91" t="s">
         <v>90</v>
       </c>
       <c r="L9" s="88"/>
@@ -4284,44 +4261,44 @@
       <c r="R9" s="88"/>
       <c r="S9" s="88"/>
       <c r="T9" s="88"/>
-      <c r="U9" s="99" t="s">
+      <c r="U9" s="89" t="s">
         <v>91</v>
       </c>
-      <c r="V9" s="99"/>
-      <c r="W9" s="99"/>
-      <c r="X9" s="99"/>
-      <c r="Y9" s="99"/>
-      <c r="Z9" s="99"/>
-      <c r="AA9" s="99"/>
-      <c r="AB9" s="99"/>
-      <c r="AC9" s="99"/>
-      <c r="AD9" s="99"/>
-      <c r="AE9" s="99"/>
-      <c r="AF9" s="99"/>
-      <c r="AG9" s="99"/>
-      <c r="AH9" s="99"/>
-      <c r="AI9" s="99"/>
-      <c r="AJ9" s="99"/>
-      <c r="AK9" s="99"/>
-      <c r="AL9" s="99"/>
-      <c r="AM9" s="99"/>
-      <c r="AN9" s="99"/>
-      <c r="AO9" s="99"/>
-      <c r="AP9" s="99"/>
-      <c r="AQ9" s="99"/>
-      <c r="AR9" s="99"/>
-      <c r="AS9" s="99"/>
-      <c r="AT9" s="99"/>
-      <c r="AU9" s="99"/>
-      <c r="AV9" s="99"/>
-      <c r="AW9" s="99"/>
-      <c r="AX9" s="99"/>
+      <c r="V9" s="89"/>
+      <c r="W9" s="89"/>
+      <c r="X9" s="89"/>
+      <c r="Y9" s="89"/>
+      <c r="Z9" s="89"/>
+      <c r="AA9" s="89"/>
+      <c r="AB9" s="89"/>
+      <c r="AC9" s="89"/>
+      <c r="AD9" s="89"/>
+      <c r="AE9" s="89"/>
+      <c r="AF9" s="89"/>
+      <c r="AG9" s="89"/>
+      <c r="AH9" s="89"/>
+      <c r="AI9" s="89"/>
+      <c r="AJ9" s="89"/>
+      <c r="AK9" s="89"/>
+      <c r="AL9" s="89"/>
+      <c r="AM9" s="89"/>
+      <c r="AN9" s="89"/>
+      <c r="AO9" s="89"/>
+      <c r="AP9" s="89"/>
+      <c r="AQ9" s="89"/>
+      <c r="AR9" s="89"/>
+      <c r="AS9" s="89"/>
+      <c r="AT9" s="89"/>
+      <c r="AU9" s="89"/>
+      <c r="AV9" s="89"/>
+      <c r="AW9" s="89"/>
+      <c r="AX9" s="89"/>
     </row>
     <row r="10" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="91">
+      <c r="A10" s="90">
         <v>6</v>
       </c>
-      <c r="B10" s="91"/>
+      <c r="B10" s="90"/>
       <c r="C10" s="88"/>
       <c r="D10" s="88"/>
       <c r="E10" s="88"/>
@@ -4340,42 +4317,42 @@
       <c r="R10" s="88"/>
       <c r="S10" s="88"/>
       <c r="T10" s="88"/>
-      <c r="U10" s="99"/>
-      <c r="V10" s="99"/>
-      <c r="W10" s="99"/>
-      <c r="X10" s="99"/>
-      <c r="Y10" s="99"/>
-      <c r="Z10" s="99"/>
-      <c r="AA10" s="99"/>
-      <c r="AB10" s="99"/>
-      <c r="AC10" s="99"/>
-      <c r="AD10" s="99"/>
-      <c r="AE10" s="99"/>
-      <c r="AF10" s="99"/>
-      <c r="AG10" s="99"/>
-      <c r="AH10" s="99"/>
-      <c r="AI10" s="99"/>
-      <c r="AJ10" s="99"/>
-      <c r="AK10" s="99"/>
-      <c r="AL10" s="99"/>
-      <c r="AM10" s="99"/>
-      <c r="AN10" s="99"/>
-      <c r="AO10" s="99"/>
-      <c r="AP10" s="99"/>
-      <c r="AQ10" s="99"/>
-      <c r="AR10" s="99"/>
-      <c r="AS10" s="99"/>
-      <c r="AT10" s="99"/>
-      <c r="AU10" s="99"/>
-      <c r="AV10" s="99"/>
-      <c r="AW10" s="99"/>
-      <c r="AX10" s="99"/>
+      <c r="U10" s="89"/>
+      <c r="V10" s="89"/>
+      <c r="W10" s="89"/>
+      <c r="X10" s="89"/>
+      <c r="Y10" s="89"/>
+      <c r="Z10" s="89"/>
+      <c r="AA10" s="89"/>
+      <c r="AB10" s="89"/>
+      <c r="AC10" s="89"/>
+      <c r="AD10" s="89"/>
+      <c r="AE10" s="89"/>
+      <c r="AF10" s="89"/>
+      <c r="AG10" s="89"/>
+      <c r="AH10" s="89"/>
+      <c r="AI10" s="89"/>
+      <c r="AJ10" s="89"/>
+      <c r="AK10" s="89"/>
+      <c r="AL10" s="89"/>
+      <c r="AM10" s="89"/>
+      <c r="AN10" s="89"/>
+      <c r="AO10" s="89"/>
+      <c r="AP10" s="89"/>
+      <c r="AQ10" s="89"/>
+      <c r="AR10" s="89"/>
+      <c r="AS10" s="89"/>
+      <c r="AT10" s="89"/>
+      <c r="AU10" s="89"/>
+      <c r="AV10" s="89"/>
+      <c r="AW10" s="89"/>
+      <c r="AX10" s="89"/>
     </row>
     <row r="11" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="91">
+      <c r="A11" s="90">
         <v>7</v>
       </c>
-      <c r="B11" s="91"/>
+      <c r="B11" s="90"/>
       <c r="C11" s="88"/>
       <c r="D11" s="88"/>
       <c r="E11" s="88"/>
@@ -4394,42 +4371,42 @@
       <c r="R11" s="88"/>
       <c r="S11" s="88"/>
       <c r="T11" s="88"/>
-      <c r="U11" s="99"/>
-      <c r="V11" s="99"/>
-      <c r="W11" s="99"/>
-      <c r="X11" s="99"/>
-      <c r="Y11" s="99"/>
-      <c r="Z11" s="99"/>
-      <c r="AA11" s="99"/>
-      <c r="AB11" s="99"/>
-      <c r="AC11" s="99"/>
-      <c r="AD11" s="99"/>
-      <c r="AE11" s="99"/>
-      <c r="AF11" s="99"/>
-      <c r="AG11" s="99"/>
-      <c r="AH11" s="99"/>
-      <c r="AI11" s="99"/>
-      <c r="AJ11" s="99"/>
-      <c r="AK11" s="99"/>
-      <c r="AL11" s="99"/>
-      <c r="AM11" s="99"/>
-      <c r="AN11" s="99"/>
-      <c r="AO11" s="99"/>
-      <c r="AP11" s="99"/>
-      <c r="AQ11" s="99"/>
-      <c r="AR11" s="99"/>
-      <c r="AS11" s="99"/>
-      <c r="AT11" s="99"/>
-      <c r="AU11" s="99"/>
-      <c r="AV11" s="99"/>
-      <c r="AW11" s="99"/>
-      <c r="AX11" s="99"/>
+      <c r="U11" s="89"/>
+      <c r="V11" s="89"/>
+      <c r="W11" s="89"/>
+      <c r="X11" s="89"/>
+      <c r="Y11" s="89"/>
+      <c r="Z11" s="89"/>
+      <c r="AA11" s="89"/>
+      <c r="AB11" s="89"/>
+      <c r="AC11" s="89"/>
+      <c r="AD11" s="89"/>
+      <c r="AE11" s="89"/>
+      <c r="AF11" s="89"/>
+      <c r="AG11" s="89"/>
+      <c r="AH11" s="89"/>
+      <c r="AI11" s="89"/>
+      <c r="AJ11" s="89"/>
+      <c r="AK11" s="89"/>
+      <c r="AL11" s="89"/>
+      <c r="AM11" s="89"/>
+      <c r="AN11" s="89"/>
+      <c r="AO11" s="89"/>
+      <c r="AP11" s="89"/>
+      <c r="AQ11" s="89"/>
+      <c r="AR11" s="89"/>
+      <c r="AS11" s="89"/>
+      <c r="AT11" s="89"/>
+      <c r="AU11" s="89"/>
+      <c r="AV11" s="89"/>
+      <c r="AW11" s="89"/>
+      <c r="AX11" s="89"/>
     </row>
     <row r="12" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="91">
+      <c r="A12" s="90">
         <v>8</v>
       </c>
-      <c r="B12" s="91"/>
+      <c r="B12" s="90"/>
       <c r="C12" s="88"/>
       <c r="D12" s="88"/>
       <c r="E12" s="88"/>
@@ -4448,42 +4425,42 @@
       <c r="R12" s="88"/>
       <c r="S12" s="88"/>
       <c r="T12" s="88"/>
-      <c r="U12" s="99"/>
-      <c r="V12" s="99"/>
-      <c r="W12" s="99"/>
-      <c r="X12" s="99"/>
-      <c r="Y12" s="99"/>
-      <c r="Z12" s="99"/>
-      <c r="AA12" s="99"/>
-      <c r="AB12" s="99"/>
-      <c r="AC12" s="99"/>
-      <c r="AD12" s="99"/>
-      <c r="AE12" s="99"/>
-      <c r="AF12" s="99"/>
-      <c r="AG12" s="99"/>
-      <c r="AH12" s="99"/>
-      <c r="AI12" s="99"/>
-      <c r="AJ12" s="99"/>
-      <c r="AK12" s="99"/>
-      <c r="AL12" s="99"/>
-      <c r="AM12" s="99"/>
-      <c r="AN12" s="99"/>
-      <c r="AO12" s="99"/>
-      <c r="AP12" s="99"/>
-      <c r="AQ12" s="99"/>
-      <c r="AR12" s="99"/>
-      <c r="AS12" s="99"/>
-      <c r="AT12" s="99"/>
-      <c r="AU12" s="99"/>
-      <c r="AV12" s="99"/>
-      <c r="AW12" s="99"/>
-      <c r="AX12" s="99"/>
+      <c r="U12" s="89"/>
+      <c r="V12" s="89"/>
+      <c r="W12" s="89"/>
+      <c r="X12" s="89"/>
+      <c r="Y12" s="89"/>
+      <c r="Z12" s="89"/>
+      <c r="AA12" s="89"/>
+      <c r="AB12" s="89"/>
+      <c r="AC12" s="89"/>
+      <c r="AD12" s="89"/>
+      <c r="AE12" s="89"/>
+      <c r="AF12" s="89"/>
+      <c r="AG12" s="89"/>
+      <c r="AH12" s="89"/>
+      <c r="AI12" s="89"/>
+      <c r="AJ12" s="89"/>
+      <c r="AK12" s="89"/>
+      <c r="AL12" s="89"/>
+      <c r="AM12" s="89"/>
+      <c r="AN12" s="89"/>
+      <c r="AO12" s="89"/>
+      <c r="AP12" s="89"/>
+      <c r="AQ12" s="89"/>
+      <c r="AR12" s="89"/>
+      <c r="AS12" s="89"/>
+      <c r="AT12" s="89"/>
+      <c r="AU12" s="89"/>
+      <c r="AV12" s="89"/>
+      <c r="AW12" s="89"/>
+      <c r="AX12" s="89"/>
     </row>
     <row r="13" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="91">
+      <c r="A13" s="90">
         <v>9</v>
       </c>
-      <c r="B13" s="91"/>
+      <c r="B13" s="90"/>
       <c r="C13" s="88"/>
       <c r="D13" s="88"/>
       <c r="E13" s="88"/>
@@ -4502,42 +4479,42 @@
       <c r="R13" s="88"/>
       <c r="S13" s="88"/>
       <c r="T13" s="88"/>
-      <c r="U13" s="99"/>
-      <c r="V13" s="99"/>
-      <c r="W13" s="99"/>
-      <c r="X13" s="99"/>
-      <c r="Y13" s="99"/>
-      <c r="Z13" s="99"/>
-      <c r="AA13" s="99"/>
-      <c r="AB13" s="99"/>
-      <c r="AC13" s="99"/>
-      <c r="AD13" s="99"/>
-      <c r="AE13" s="99"/>
-      <c r="AF13" s="99"/>
-      <c r="AG13" s="99"/>
-      <c r="AH13" s="99"/>
-      <c r="AI13" s="99"/>
-      <c r="AJ13" s="99"/>
-      <c r="AK13" s="99"/>
-      <c r="AL13" s="99"/>
-      <c r="AM13" s="99"/>
-      <c r="AN13" s="99"/>
-      <c r="AO13" s="99"/>
-      <c r="AP13" s="99"/>
-      <c r="AQ13" s="99"/>
-      <c r="AR13" s="99"/>
-      <c r="AS13" s="99"/>
-      <c r="AT13" s="99"/>
-      <c r="AU13" s="99"/>
-      <c r="AV13" s="99"/>
-      <c r="AW13" s="99"/>
-      <c r="AX13" s="99"/>
+      <c r="U13" s="89"/>
+      <c r="V13" s="89"/>
+      <c r="W13" s="89"/>
+      <c r="X13" s="89"/>
+      <c r="Y13" s="89"/>
+      <c r="Z13" s="89"/>
+      <c r="AA13" s="89"/>
+      <c r="AB13" s="89"/>
+      <c r="AC13" s="89"/>
+      <c r="AD13" s="89"/>
+      <c r="AE13" s="89"/>
+      <c r="AF13" s="89"/>
+      <c r="AG13" s="89"/>
+      <c r="AH13" s="89"/>
+      <c r="AI13" s="89"/>
+      <c r="AJ13" s="89"/>
+      <c r="AK13" s="89"/>
+      <c r="AL13" s="89"/>
+      <c r="AM13" s="89"/>
+      <c r="AN13" s="89"/>
+      <c r="AO13" s="89"/>
+      <c r="AP13" s="89"/>
+      <c r="AQ13" s="89"/>
+      <c r="AR13" s="89"/>
+      <c r="AS13" s="89"/>
+      <c r="AT13" s="89"/>
+      <c r="AU13" s="89"/>
+      <c r="AV13" s="89"/>
+      <c r="AW13" s="89"/>
+      <c r="AX13" s="89"/>
     </row>
     <row r="14" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="91">
+      <c r="A14" s="90">
         <v>10</v>
       </c>
-      <c r="B14" s="91"/>
+      <c r="B14" s="90"/>
       <c r="C14" s="88"/>
       <c r="D14" s="88"/>
       <c r="E14" s="88"/>
@@ -4556,42 +4533,42 @@
       <c r="R14" s="88"/>
       <c r="S14" s="88"/>
       <c r="T14" s="88"/>
-      <c r="U14" s="99"/>
-      <c r="V14" s="99"/>
-      <c r="W14" s="99"/>
-      <c r="X14" s="99"/>
-      <c r="Y14" s="99"/>
-      <c r="Z14" s="99"/>
-      <c r="AA14" s="99"/>
-      <c r="AB14" s="99"/>
-      <c r="AC14" s="99"/>
-      <c r="AD14" s="99"/>
-      <c r="AE14" s="99"/>
-      <c r="AF14" s="99"/>
-      <c r="AG14" s="99"/>
-      <c r="AH14" s="99"/>
-      <c r="AI14" s="99"/>
-      <c r="AJ14" s="99"/>
-      <c r="AK14" s="99"/>
-      <c r="AL14" s="99"/>
-      <c r="AM14" s="99"/>
-      <c r="AN14" s="99"/>
-      <c r="AO14" s="99"/>
-      <c r="AP14" s="99"/>
-      <c r="AQ14" s="99"/>
-      <c r="AR14" s="99"/>
-      <c r="AS14" s="99"/>
-      <c r="AT14" s="99"/>
-      <c r="AU14" s="99"/>
-      <c r="AV14" s="99"/>
-      <c r="AW14" s="99"/>
-      <c r="AX14" s="99"/>
+      <c r="U14" s="89"/>
+      <c r="V14" s="89"/>
+      <c r="W14" s="89"/>
+      <c r="X14" s="89"/>
+      <c r="Y14" s="89"/>
+      <c r="Z14" s="89"/>
+      <c r="AA14" s="89"/>
+      <c r="AB14" s="89"/>
+      <c r="AC14" s="89"/>
+      <c r="AD14" s="89"/>
+      <c r="AE14" s="89"/>
+      <c r="AF14" s="89"/>
+      <c r="AG14" s="89"/>
+      <c r="AH14" s="89"/>
+      <c r="AI14" s="89"/>
+      <c r="AJ14" s="89"/>
+      <c r="AK14" s="89"/>
+      <c r="AL14" s="89"/>
+      <c r="AM14" s="89"/>
+      <c r="AN14" s="89"/>
+      <c r="AO14" s="89"/>
+      <c r="AP14" s="89"/>
+      <c r="AQ14" s="89"/>
+      <c r="AR14" s="89"/>
+      <c r="AS14" s="89"/>
+      <c r="AT14" s="89"/>
+      <c r="AU14" s="89"/>
+      <c r="AV14" s="89"/>
+      <c r="AW14" s="89"/>
+      <c r="AX14" s="89"/>
     </row>
     <row r="15" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="91">
+      <c r="A15" s="90">
         <v>11</v>
       </c>
-      <c r="B15" s="91"/>
+      <c r="B15" s="90"/>
       <c r="C15" s="88"/>
       <c r="D15" s="88"/>
       <c r="E15" s="88"/>
@@ -4610,42 +4587,42 @@
       <c r="R15" s="88"/>
       <c r="S15" s="88"/>
       <c r="T15" s="88"/>
-      <c r="U15" s="99"/>
-      <c r="V15" s="99"/>
-      <c r="W15" s="99"/>
-      <c r="X15" s="99"/>
-      <c r="Y15" s="99"/>
-      <c r="Z15" s="99"/>
-      <c r="AA15" s="99"/>
-      <c r="AB15" s="99"/>
-      <c r="AC15" s="99"/>
-      <c r="AD15" s="99"/>
-      <c r="AE15" s="99"/>
-      <c r="AF15" s="99"/>
-      <c r="AG15" s="99"/>
-      <c r="AH15" s="99"/>
-      <c r="AI15" s="99"/>
-      <c r="AJ15" s="99"/>
-      <c r="AK15" s="99"/>
-      <c r="AL15" s="99"/>
-      <c r="AM15" s="99"/>
-      <c r="AN15" s="99"/>
-      <c r="AO15" s="99"/>
-      <c r="AP15" s="99"/>
-      <c r="AQ15" s="99"/>
-      <c r="AR15" s="99"/>
-      <c r="AS15" s="99"/>
-      <c r="AT15" s="99"/>
-      <c r="AU15" s="99"/>
-      <c r="AV15" s="99"/>
-      <c r="AW15" s="99"/>
-      <c r="AX15" s="99"/>
+      <c r="U15" s="89"/>
+      <c r="V15" s="89"/>
+      <c r="W15" s="89"/>
+      <c r="X15" s="89"/>
+      <c r="Y15" s="89"/>
+      <c r="Z15" s="89"/>
+      <c r="AA15" s="89"/>
+      <c r="AB15" s="89"/>
+      <c r="AC15" s="89"/>
+      <c r="AD15" s="89"/>
+      <c r="AE15" s="89"/>
+      <c r="AF15" s="89"/>
+      <c r="AG15" s="89"/>
+      <c r="AH15" s="89"/>
+      <c r="AI15" s="89"/>
+      <c r="AJ15" s="89"/>
+      <c r="AK15" s="89"/>
+      <c r="AL15" s="89"/>
+      <c r="AM15" s="89"/>
+      <c r="AN15" s="89"/>
+      <c r="AO15" s="89"/>
+      <c r="AP15" s="89"/>
+      <c r="AQ15" s="89"/>
+      <c r="AR15" s="89"/>
+      <c r="AS15" s="89"/>
+      <c r="AT15" s="89"/>
+      <c r="AU15" s="89"/>
+      <c r="AV15" s="89"/>
+      <c r="AW15" s="89"/>
+      <c r="AX15" s="89"/>
     </row>
     <row r="16" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="91">
+      <c r="A16" s="90">
         <v>12</v>
       </c>
-      <c r="B16" s="91"/>
+      <c r="B16" s="90"/>
       <c r="C16" s="88"/>
       <c r="D16" s="88"/>
       <c r="E16" s="88"/>
@@ -4664,42 +4641,42 @@
       <c r="R16" s="88"/>
       <c r="S16" s="88"/>
       <c r="T16" s="88"/>
-      <c r="U16" s="99"/>
-      <c r="V16" s="99"/>
-      <c r="W16" s="99"/>
-      <c r="X16" s="99"/>
-      <c r="Y16" s="99"/>
-      <c r="Z16" s="99"/>
-      <c r="AA16" s="99"/>
-      <c r="AB16" s="99"/>
-      <c r="AC16" s="99"/>
-      <c r="AD16" s="99"/>
-      <c r="AE16" s="99"/>
-      <c r="AF16" s="99"/>
-      <c r="AG16" s="99"/>
-      <c r="AH16" s="99"/>
-      <c r="AI16" s="99"/>
-      <c r="AJ16" s="99"/>
-      <c r="AK16" s="99"/>
-      <c r="AL16" s="99"/>
-      <c r="AM16" s="99"/>
-      <c r="AN16" s="99"/>
-      <c r="AO16" s="99"/>
-      <c r="AP16" s="99"/>
-      <c r="AQ16" s="99"/>
-      <c r="AR16" s="99"/>
-      <c r="AS16" s="99"/>
-      <c r="AT16" s="99"/>
-      <c r="AU16" s="99"/>
-      <c r="AV16" s="99"/>
-      <c r="AW16" s="99"/>
-      <c r="AX16" s="99"/>
+      <c r="U16" s="89"/>
+      <c r="V16" s="89"/>
+      <c r="W16" s="89"/>
+      <c r="X16" s="89"/>
+      <c r="Y16" s="89"/>
+      <c r="Z16" s="89"/>
+      <c r="AA16" s="89"/>
+      <c r="AB16" s="89"/>
+      <c r="AC16" s="89"/>
+      <c r="AD16" s="89"/>
+      <c r="AE16" s="89"/>
+      <c r="AF16" s="89"/>
+      <c r="AG16" s="89"/>
+      <c r="AH16" s="89"/>
+      <c r="AI16" s="89"/>
+      <c r="AJ16" s="89"/>
+      <c r="AK16" s="89"/>
+      <c r="AL16" s="89"/>
+      <c r="AM16" s="89"/>
+      <c r="AN16" s="89"/>
+      <c r="AO16" s="89"/>
+      <c r="AP16" s="89"/>
+      <c r="AQ16" s="89"/>
+      <c r="AR16" s="89"/>
+      <c r="AS16" s="89"/>
+      <c r="AT16" s="89"/>
+      <c r="AU16" s="89"/>
+      <c r="AV16" s="89"/>
+      <c r="AW16" s="89"/>
+      <c r="AX16" s="89"/>
     </row>
     <row r="17" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="91">
+      <c r="A17" s="90">
         <v>13</v>
       </c>
-      <c r="B17" s="91"/>
+      <c r="B17" s="90"/>
       <c r="C17" s="88"/>
       <c r="D17" s="88"/>
       <c r="E17" s="88"/>
@@ -4718,42 +4695,42 @@
       <c r="R17" s="88"/>
       <c r="S17" s="88"/>
       <c r="T17" s="88"/>
-      <c r="U17" s="99"/>
-      <c r="V17" s="99"/>
-      <c r="W17" s="99"/>
-      <c r="X17" s="99"/>
-      <c r="Y17" s="99"/>
-      <c r="Z17" s="99"/>
-      <c r="AA17" s="99"/>
-      <c r="AB17" s="99"/>
-      <c r="AC17" s="99"/>
-      <c r="AD17" s="99"/>
-      <c r="AE17" s="99"/>
-      <c r="AF17" s="99"/>
-      <c r="AG17" s="99"/>
-      <c r="AH17" s="99"/>
-      <c r="AI17" s="99"/>
-      <c r="AJ17" s="99"/>
-      <c r="AK17" s="99"/>
-      <c r="AL17" s="99"/>
-      <c r="AM17" s="99"/>
-      <c r="AN17" s="99"/>
-      <c r="AO17" s="99"/>
-      <c r="AP17" s="99"/>
-      <c r="AQ17" s="99"/>
-      <c r="AR17" s="99"/>
-      <c r="AS17" s="99"/>
-      <c r="AT17" s="99"/>
-      <c r="AU17" s="99"/>
-      <c r="AV17" s="99"/>
-      <c r="AW17" s="99"/>
-      <c r="AX17" s="99"/>
+      <c r="U17" s="89"/>
+      <c r="V17" s="89"/>
+      <c r="W17" s="89"/>
+      <c r="X17" s="89"/>
+      <c r="Y17" s="89"/>
+      <c r="Z17" s="89"/>
+      <c r="AA17" s="89"/>
+      <c r="AB17" s="89"/>
+      <c r="AC17" s="89"/>
+      <c r="AD17" s="89"/>
+      <c r="AE17" s="89"/>
+      <c r="AF17" s="89"/>
+      <c r="AG17" s="89"/>
+      <c r="AH17" s="89"/>
+      <c r="AI17" s="89"/>
+      <c r="AJ17" s="89"/>
+      <c r="AK17" s="89"/>
+      <c r="AL17" s="89"/>
+      <c r="AM17" s="89"/>
+      <c r="AN17" s="89"/>
+      <c r="AO17" s="89"/>
+      <c r="AP17" s="89"/>
+      <c r="AQ17" s="89"/>
+      <c r="AR17" s="89"/>
+      <c r="AS17" s="89"/>
+      <c r="AT17" s="89"/>
+      <c r="AU17" s="89"/>
+      <c r="AV17" s="89"/>
+      <c r="AW17" s="89"/>
+      <c r="AX17" s="89"/>
     </row>
     <row r="18" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="91">
+      <c r="A18" s="90">
         <v>14</v>
       </c>
-      <c r="B18" s="91"/>
+      <c r="B18" s="90"/>
       <c r="C18" s="88"/>
       <c r="D18" s="88"/>
       <c r="E18" s="88"/>
@@ -4772,42 +4749,42 @@
       <c r="R18" s="88"/>
       <c r="S18" s="88"/>
       <c r="T18" s="88"/>
-      <c r="U18" s="99"/>
-      <c r="V18" s="99"/>
-      <c r="W18" s="99"/>
-      <c r="X18" s="99"/>
-      <c r="Y18" s="99"/>
-      <c r="Z18" s="99"/>
-      <c r="AA18" s="99"/>
-      <c r="AB18" s="99"/>
-      <c r="AC18" s="99"/>
-      <c r="AD18" s="99"/>
-      <c r="AE18" s="99"/>
-      <c r="AF18" s="99"/>
-      <c r="AG18" s="99"/>
-      <c r="AH18" s="99"/>
-      <c r="AI18" s="99"/>
-      <c r="AJ18" s="99"/>
-      <c r="AK18" s="99"/>
-      <c r="AL18" s="99"/>
-      <c r="AM18" s="99"/>
-      <c r="AN18" s="99"/>
-      <c r="AO18" s="99"/>
-      <c r="AP18" s="99"/>
-      <c r="AQ18" s="99"/>
-      <c r="AR18" s="99"/>
-      <c r="AS18" s="99"/>
-      <c r="AT18" s="99"/>
-      <c r="AU18" s="99"/>
-      <c r="AV18" s="99"/>
-      <c r="AW18" s="99"/>
-      <c r="AX18" s="99"/>
+      <c r="U18" s="89"/>
+      <c r="V18" s="89"/>
+      <c r="W18" s="89"/>
+      <c r="X18" s="89"/>
+      <c r="Y18" s="89"/>
+      <c r="Z18" s="89"/>
+      <c r="AA18" s="89"/>
+      <c r="AB18" s="89"/>
+      <c r="AC18" s="89"/>
+      <c r="AD18" s="89"/>
+      <c r="AE18" s="89"/>
+      <c r="AF18" s="89"/>
+      <c r="AG18" s="89"/>
+      <c r="AH18" s="89"/>
+      <c r="AI18" s="89"/>
+      <c r="AJ18" s="89"/>
+      <c r="AK18" s="89"/>
+      <c r="AL18" s="89"/>
+      <c r="AM18" s="89"/>
+      <c r="AN18" s="89"/>
+      <c r="AO18" s="89"/>
+      <c r="AP18" s="89"/>
+      <c r="AQ18" s="89"/>
+      <c r="AR18" s="89"/>
+      <c r="AS18" s="89"/>
+      <c r="AT18" s="89"/>
+      <c r="AU18" s="89"/>
+      <c r="AV18" s="89"/>
+      <c r="AW18" s="89"/>
+      <c r="AX18" s="89"/>
     </row>
     <row r="19" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="91">
+      <c r="A19" s="90">
         <v>15</v>
       </c>
-      <c r="B19" s="91"/>
+      <c r="B19" s="90"/>
       <c r="C19" s="88"/>
       <c r="D19" s="88"/>
       <c r="E19" s="88"/>
@@ -4826,42 +4803,42 @@
       <c r="R19" s="88"/>
       <c r="S19" s="88"/>
       <c r="T19" s="88"/>
-      <c r="U19" s="99"/>
-      <c r="V19" s="99"/>
-      <c r="W19" s="99"/>
-      <c r="X19" s="99"/>
-      <c r="Y19" s="99"/>
-      <c r="Z19" s="99"/>
-      <c r="AA19" s="99"/>
-      <c r="AB19" s="99"/>
-      <c r="AC19" s="99"/>
-      <c r="AD19" s="99"/>
-      <c r="AE19" s="99"/>
-      <c r="AF19" s="99"/>
-      <c r="AG19" s="99"/>
-      <c r="AH19" s="99"/>
-      <c r="AI19" s="99"/>
-      <c r="AJ19" s="99"/>
-      <c r="AK19" s="99"/>
-      <c r="AL19" s="99"/>
-      <c r="AM19" s="99"/>
-      <c r="AN19" s="99"/>
-      <c r="AO19" s="99"/>
-      <c r="AP19" s="99"/>
-      <c r="AQ19" s="99"/>
-      <c r="AR19" s="99"/>
-      <c r="AS19" s="99"/>
-      <c r="AT19" s="99"/>
-      <c r="AU19" s="99"/>
-      <c r="AV19" s="99"/>
-      <c r="AW19" s="99"/>
-      <c r="AX19" s="99"/>
+      <c r="U19" s="89"/>
+      <c r="V19" s="89"/>
+      <c r="W19" s="89"/>
+      <c r="X19" s="89"/>
+      <c r="Y19" s="89"/>
+      <c r="Z19" s="89"/>
+      <c r="AA19" s="89"/>
+      <c r="AB19" s="89"/>
+      <c r="AC19" s="89"/>
+      <c r="AD19" s="89"/>
+      <c r="AE19" s="89"/>
+      <c r="AF19" s="89"/>
+      <c r="AG19" s="89"/>
+      <c r="AH19" s="89"/>
+      <c r="AI19" s="89"/>
+      <c r="AJ19" s="89"/>
+      <c r="AK19" s="89"/>
+      <c r="AL19" s="89"/>
+      <c r="AM19" s="89"/>
+      <c r="AN19" s="89"/>
+      <c r="AO19" s="89"/>
+      <c r="AP19" s="89"/>
+      <c r="AQ19" s="89"/>
+      <c r="AR19" s="89"/>
+      <c r="AS19" s="89"/>
+      <c r="AT19" s="89"/>
+      <c r="AU19" s="89"/>
+      <c r="AV19" s="89"/>
+      <c r="AW19" s="89"/>
+      <c r="AX19" s="89"/>
     </row>
     <row r="20" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="91">
+      <c r="A20" s="90">
         <v>16</v>
       </c>
-      <c r="B20" s="91"/>
+      <c r="B20" s="90"/>
       <c r="C20" s="88"/>
       <c r="D20" s="88"/>
       <c r="E20" s="88"/>
@@ -4880,99 +4857,99 @@
       <c r="R20" s="88"/>
       <c r="S20" s="88"/>
       <c r="T20" s="88"/>
-      <c r="U20" s="99"/>
-      <c r="V20" s="99"/>
-      <c r="W20" s="99"/>
-      <c r="X20" s="99"/>
-      <c r="Y20" s="99"/>
-      <c r="Z20" s="99"/>
-      <c r="AA20" s="99"/>
-      <c r="AB20" s="99"/>
-      <c r="AC20" s="99"/>
-      <c r="AD20" s="99"/>
-      <c r="AE20" s="99"/>
-      <c r="AF20" s="99"/>
-      <c r="AG20" s="99"/>
-      <c r="AH20" s="99"/>
-      <c r="AI20" s="99"/>
-      <c r="AJ20" s="99"/>
-      <c r="AK20" s="99"/>
-      <c r="AL20" s="99"/>
-      <c r="AM20" s="99"/>
-      <c r="AN20" s="99"/>
-      <c r="AO20" s="99"/>
-      <c r="AP20" s="99"/>
-      <c r="AQ20" s="99"/>
-      <c r="AR20" s="99"/>
-      <c r="AS20" s="99"/>
-      <c r="AT20" s="99"/>
-      <c r="AU20" s="99"/>
-      <c r="AV20" s="99"/>
-      <c r="AW20" s="99"/>
-      <c r="AX20" s="99"/>
+      <c r="U20" s="89"/>
+      <c r="V20" s="89"/>
+      <c r="W20" s="89"/>
+      <c r="X20" s="89"/>
+      <c r="Y20" s="89"/>
+      <c r="Z20" s="89"/>
+      <c r="AA20" s="89"/>
+      <c r="AB20" s="89"/>
+      <c r="AC20" s="89"/>
+      <c r="AD20" s="89"/>
+      <c r="AE20" s="89"/>
+      <c r="AF20" s="89"/>
+      <c r="AG20" s="89"/>
+      <c r="AH20" s="89"/>
+      <c r="AI20" s="89"/>
+      <c r="AJ20" s="89"/>
+      <c r="AK20" s="89"/>
+      <c r="AL20" s="89"/>
+      <c r="AM20" s="89"/>
+      <c r="AN20" s="89"/>
+      <c r="AO20" s="89"/>
+      <c r="AP20" s="89"/>
+      <c r="AQ20" s="89"/>
+      <c r="AR20" s="89"/>
+      <c r="AS20" s="89"/>
+      <c r="AT20" s="89"/>
+      <c r="AU20" s="89"/>
+      <c r="AV20" s="89"/>
+      <c r="AW20" s="89"/>
+      <c r="AX20" s="89"/>
     </row>
     <row r="21" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="96">
+      <c r="A21" s="98">
         <v>17</v>
       </c>
-      <c r="B21" s="96"/>
-      <c r="C21" s="101"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="101"/>
-      <c r="G21" s="101"/>
-      <c r="H21" s="101"/>
-      <c r="I21" s="101"/>
-      <c r="J21" s="101"/>
-      <c r="K21" s="101"/>
-      <c r="L21" s="101"/>
-      <c r="M21" s="101"/>
-      <c r="N21" s="101"/>
-      <c r="O21" s="101"/>
-      <c r="P21" s="101"/>
-      <c r="Q21" s="101"/>
-      <c r="R21" s="101"/>
-      <c r="S21" s="101"/>
-      <c r="T21" s="101"/>
-      <c r="U21" s="102"/>
-      <c r="V21" s="102"/>
-      <c r="W21" s="102"/>
-      <c r="X21" s="102"/>
-      <c r="Y21" s="102"/>
-      <c r="Z21" s="102"/>
-      <c r="AA21" s="102"/>
-      <c r="AB21" s="102"/>
-      <c r="AC21" s="102"/>
-      <c r="AD21" s="102"/>
-      <c r="AE21" s="102"/>
-      <c r="AF21" s="102"/>
-      <c r="AG21" s="102"/>
-      <c r="AH21" s="102"/>
-      <c r="AI21" s="102"/>
-      <c r="AJ21" s="102"/>
-      <c r="AK21" s="102"/>
-      <c r="AL21" s="102"/>
-      <c r="AM21" s="102"/>
-      <c r="AN21" s="102"/>
-      <c r="AO21" s="102"/>
-      <c r="AP21" s="102"/>
-      <c r="AQ21" s="102"/>
-      <c r="AR21" s="102"/>
-      <c r="AS21" s="102"/>
-      <c r="AT21" s="102"/>
-      <c r="AU21" s="102"/>
-      <c r="AV21" s="102"/>
-      <c r="AW21" s="102"/>
-      <c r="AX21" s="102"/>
+      <c r="B21" s="98"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="86"/>
+      <c r="K21" s="86"/>
+      <c r="L21" s="86"/>
+      <c r="M21" s="86"/>
+      <c r="N21" s="86"/>
+      <c r="O21" s="86"/>
+      <c r="P21" s="86"/>
+      <c r="Q21" s="86"/>
+      <c r="R21" s="86"/>
+      <c r="S21" s="86"/>
+      <c r="T21" s="86"/>
+      <c r="U21" s="87"/>
+      <c r="V21" s="87"/>
+      <c r="W21" s="87"/>
+      <c r="X21" s="87"/>
+      <c r="Y21" s="87"/>
+      <c r="Z21" s="87"/>
+      <c r="AA21" s="87"/>
+      <c r="AB21" s="87"/>
+      <c r="AC21" s="87"/>
+      <c r="AD21" s="87"/>
+      <c r="AE21" s="87"/>
+      <c r="AF21" s="87"/>
+      <c r="AG21" s="87"/>
+      <c r="AH21" s="87"/>
+      <c r="AI21" s="87"/>
+      <c r="AJ21" s="87"/>
+      <c r="AK21" s="87"/>
+      <c r="AL21" s="87"/>
+      <c r="AM21" s="87"/>
+      <c r="AN21" s="87"/>
+      <c r="AO21" s="87"/>
+      <c r="AP21" s="87"/>
+      <c r="AQ21" s="87"/>
+      <c r="AR21" s="87"/>
+      <c r="AS21" s="87"/>
+      <c r="AT21" s="87"/>
+      <c r="AU21" s="87"/>
+      <c r="AV21" s="87"/>
+      <c r="AW21" s="87"/>
+      <c r="AX21" s="87"/>
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="K23" s="86"/>
-      <c r="L23" s="86"/>
-      <c r="M23" s="86"/>
-      <c r="N23" s="86"/>
-      <c r="O23" s="86"/>
-      <c r="P23" s="86"/>
-      <c r="Q23" s="86"/>
+      <c r="K23" s="101"/>
+      <c r="L23" s="101"/>
+      <c r="M23" s="101"/>
+      <c r="N23" s="101"/>
+      <c r="O23" s="101"/>
+      <c r="P23" s="101"/>
+      <c r="Q23" s="101"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
@@ -4985,13 +4962,13 @@
       <c r="AA23" s="1"/>
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="K24" s="86"/>
-      <c r="L24" s="86"/>
-      <c r="M24" s="86"/>
-      <c r="N24" s="86"/>
-      <c r="O24" s="86"/>
-      <c r="P24" s="86"/>
-      <c r="Q24" s="86"/>
+      <c r="K24" s="101"/>
+      <c r="L24" s="101"/>
+      <c r="M24" s="101"/>
+      <c r="N24" s="101"/>
+      <c r="O24" s="101"/>
+      <c r="P24" s="101"/>
+      <c r="Q24" s="101"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
@@ -5004,13 +4981,13 @@
       <c r="AA24" s="1"/>
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="K25" s="86"/>
-      <c r="L25" s="86"/>
-      <c r="M25" s="86"/>
-      <c r="N25" s="86"/>
-      <c r="O25" s="86"/>
-      <c r="P25" s="86"/>
-      <c r="Q25" s="86"/>
+      <c r="K25" s="101"/>
+      <c r="L25" s="101"/>
+      <c r="M25" s="101"/>
+      <c r="N25" s="101"/>
+      <c r="O25" s="101"/>
+      <c r="P25" s="101"/>
+      <c r="Q25" s="101"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
@@ -5023,13 +5000,13 @@
       <c r="AA25" s="1"/>
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="K26" s="86"/>
-      <c r="L26" s="86"/>
-      <c r="M26" s="86"/>
-      <c r="N26" s="86"/>
-      <c r="O26" s="86"/>
-      <c r="P26" s="86"/>
-      <c r="Q26" s="86"/>
+      <c r="K26" s="101"/>
+      <c r="L26" s="101"/>
+      <c r="M26" s="101"/>
+      <c r="N26" s="101"/>
+      <c r="O26" s="101"/>
+      <c r="P26" s="101"/>
+      <c r="Q26" s="101"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
@@ -5042,13 +5019,13 @@
       <c r="AA26" s="1"/>
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="K27" s="86"/>
-      <c r="L27" s="86"/>
-      <c r="M27" s="86"/>
-      <c r="N27" s="86"/>
-      <c r="O27" s="86"/>
-      <c r="P27" s="86"/>
-      <c r="Q27" s="86"/>
+      <c r="K27" s="101"/>
+      <c r="L27" s="101"/>
+      <c r="M27" s="101"/>
+      <c r="N27" s="101"/>
+      <c r="O27" s="101"/>
+      <c r="P27" s="101"/>
+      <c r="Q27" s="101"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
@@ -5061,13 +5038,13 @@
       <c r="AA27" s="1"/>
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="K28" s="86"/>
-      <c r="L28" s="86"/>
-      <c r="M28" s="86"/>
-      <c r="N28" s="86"/>
-      <c r="O28" s="86"/>
-      <c r="P28" s="86"/>
-      <c r="Q28" s="86"/>
+      <c r="K28" s="101"/>
+      <c r="L28" s="101"/>
+      <c r="M28" s="101"/>
+      <c r="N28" s="101"/>
+      <c r="O28" s="101"/>
+      <c r="P28" s="101"/>
+      <c r="Q28" s="101"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
@@ -5080,13 +5057,13 @@
       <c r="AA28" s="1"/>
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="K29" s="86"/>
-      <c r="L29" s="86"/>
-      <c r="M29" s="86"/>
-      <c r="N29" s="86"/>
-      <c r="O29" s="86"/>
-      <c r="P29" s="86"/>
-      <c r="Q29" s="86"/>
+      <c r="K29" s="101"/>
+      <c r="L29" s="101"/>
+      <c r="M29" s="101"/>
+      <c r="N29" s="101"/>
+      <c r="O29" s="101"/>
+      <c r="P29" s="101"/>
+      <c r="Q29" s="101"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
@@ -5099,13 +5076,13 @@
       <c r="AA29" s="1"/>
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="K30" s="86"/>
-      <c r="L30" s="86"/>
-      <c r="M30" s="86"/>
-      <c r="N30" s="86"/>
-      <c r="O30" s="86"/>
-      <c r="P30" s="86"/>
-      <c r="Q30" s="86"/>
+      <c r="K30" s="101"/>
+      <c r="L30" s="101"/>
+      <c r="M30" s="101"/>
+      <c r="N30" s="101"/>
+      <c r="O30" s="101"/>
+      <c r="P30" s="101"/>
+      <c r="Q30" s="101"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
@@ -5118,13 +5095,13 @@
       <c r="AA30" s="1"/>
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="K31" s="86"/>
-      <c r="L31" s="86"/>
-      <c r="M31" s="86"/>
-      <c r="N31" s="86"/>
-      <c r="O31" s="86"/>
-      <c r="P31" s="86"/>
-      <c r="Q31" s="86"/>
+      <c r="K31" s="101"/>
+      <c r="L31" s="101"/>
+      <c r="M31" s="101"/>
+      <c r="N31" s="101"/>
+      <c r="O31" s="101"/>
+      <c r="P31" s="101"/>
+      <c r="Q31" s="101"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
@@ -5137,13 +5114,13 @@
       <c r="AA31" s="1"/>
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="K32" s="86"/>
-      <c r="L32" s="86"/>
-      <c r="M32" s="86"/>
-      <c r="N32" s="86"/>
-      <c r="O32" s="86"/>
-      <c r="P32" s="86"/>
-      <c r="Q32" s="86"/>
+      <c r="K32" s="101"/>
+      <c r="L32" s="101"/>
+      <c r="M32" s="101"/>
+      <c r="N32" s="101"/>
+      <c r="O32" s="101"/>
+      <c r="P32" s="101"/>
+      <c r="Q32" s="101"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
@@ -5156,13 +5133,13 @@
       <c r="AA32" s="1"/>
     </row>
     <row r="33" spans="11:27" x14ac:dyDescent="0.15">
-      <c r="K33" s="86"/>
-      <c r="L33" s="86"/>
-      <c r="M33" s="86"/>
-      <c r="N33" s="86"/>
-      <c r="O33" s="86"/>
-      <c r="P33" s="86"/>
-      <c r="Q33" s="86"/>
+      <c r="K33" s="101"/>
+      <c r="L33" s="101"/>
+      <c r="M33" s="101"/>
+      <c r="N33" s="101"/>
+      <c r="O33" s="101"/>
+      <c r="P33" s="101"/>
+      <c r="Q33" s="101"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
@@ -5175,13 +5152,13 @@
       <c r="AA33" s="1"/>
     </row>
     <row r="34" spans="11:27" x14ac:dyDescent="0.15">
-      <c r="K34" s="86"/>
-      <c r="L34" s="86"/>
-      <c r="M34" s="86"/>
-      <c r="N34" s="86"/>
-      <c r="O34" s="86"/>
-      <c r="P34" s="86"/>
-      <c r="Q34" s="86"/>
+      <c r="K34" s="101"/>
+      <c r="L34" s="101"/>
+      <c r="M34" s="101"/>
+      <c r="N34" s="101"/>
+      <c r="O34" s="101"/>
+      <c r="P34" s="101"/>
+      <c r="Q34" s="101"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
@@ -5194,13 +5171,13 @@
       <c r="AA34" s="1"/>
     </row>
     <row r="35" spans="11:27" x14ac:dyDescent="0.15">
-      <c r="K35" s="86"/>
-      <c r="L35" s="86"/>
-      <c r="M35" s="86"/>
-      <c r="N35" s="86"/>
-      <c r="O35" s="86"/>
-      <c r="P35" s="86"/>
-      <c r="Q35" s="86"/>
+      <c r="K35" s="101"/>
+      <c r="L35" s="101"/>
+      <c r="M35" s="101"/>
+      <c r="N35" s="101"/>
+      <c r="O35" s="101"/>
+      <c r="P35" s="101"/>
+      <c r="Q35" s="101"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
@@ -5213,13 +5190,13 @@
       <c r="AA35" s="1"/>
     </row>
     <row r="36" spans="11:27" x14ac:dyDescent="0.15">
-      <c r="K36" s="86"/>
-      <c r="L36" s="86"/>
-      <c r="M36" s="86"/>
-      <c r="N36" s="86"/>
-      <c r="O36" s="86"/>
-      <c r="P36" s="86"/>
-      <c r="Q36" s="86"/>
+      <c r="K36" s="101"/>
+      <c r="L36" s="101"/>
+      <c r="M36" s="101"/>
+      <c r="N36" s="101"/>
+      <c r="O36" s="101"/>
+      <c r="P36" s="101"/>
+      <c r="Q36" s="101"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
@@ -5232,13 +5209,13 @@
       <c r="AA36" s="1"/>
     </row>
     <row r="37" spans="11:27" x14ac:dyDescent="0.15">
-      <c r="K37" s="86"/>
-      <c r="L37" s="86"/>
-      <c r="M37" s="86"/>
-      <c r="N37" s="86"/>
-      <c r="O37" s="86"/>
-      <c r="P37" s="86"/>
-      <c r="Q37" s="86"/>
+      <c r="K37" s="101"/>
+      <c r="L37" s="101"/>
+      <c r="M37" s="101"/>
+      <c r="N37" s="101"/>
+      <c r="O37" s="101"/>
+      <c r="P37" s="101"/>
+      <c r="Q37" s="101"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
@@ -5251,13 +5228,13 @@
       <c r="AA37" s="1"/>
     </row>
     <row r="38" spans="11:27" x14ac:dyDescent="0.15">
-      <c r="K38" s="86"/>
-      <c r="L38" s="86"/>
-      <c r="M38" s="86"/>
-      <c r="N38" s="86"/>
-      <c r="O38" s="86"/>
-      <c r="P38" s="86"/>
-      <c r="Q38" s="86"/>
+      <c r="K38" s="101"/>
+      <c r="L38" s="101"/>
+      <c r="M38" s="101"/>
+      <c r="N38" s="101"/>
+      <c r="O38" s="101"/>
+      <c r="P38" s="101"/>
+      <c r="Q38" s="101"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
@@ -5270,13 +5247,13 @@
       <c r="AA38" s="1"/>
     </row>
     <row r="39" spans="11:27" x14ac:dyDescent="0.15">
-      <c r="K39" s="86"/>
-      <c r="L39" s="86"/>
-      <c r="M39" s="86"/>
-      <c r="N39" s="86"/>
-      <c r="O39" s="86"/>
-      <c r="P39" s="86"/>
-      <c r="Q39" s="86"/>
+      <c r="K39" s="101"/>
+      <c r="L39" s="101"/>
+      <c r="M39" s="101"/>
+      <c r="N39" s="101"/>
+      <c r="O39" s="101"/>
+      <c r="P39" s="101"/>
+      <c r="Q39" s="101"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
@@ -5289,13 +5266,13 @@
       <c r="AA39" s="1"/>
     </row>
     <row r="40" spans="11:27" x14ac:dyDescent="0.15">
-      <c r="K40" s="86"/>
-      <c r="L40" s="86"/>
-      <c r="M40" s="86"/>
-      <c r="N40" s="86"/>
-      <c r="O40" s="86"/>
-      <c r="P40" s="86"/>
-      <c r="Q40" s="86"/>
+      <c r="K40" s="101"/>
+      <c r="L40" s="101"/>
+      <c r="M40" s="101"/>
+      <c r="N40" s="101"/>
+      <c r="O40" s="101"/>
+      <c r="P40" s="101"/>
+      <c r="Q40" s="101"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
@@ -5309,47 +5286,94 @@
     </row>
   </sheetData>
   <mergeCells count="153">
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="K21:T21"/>
-    <mergeCell ref="U21:AX21"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="K19:T19"/>
-    <mergeCell ref="U19:AX19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="K20:T20"/>
-    <mergeCell ref="U20:AX20"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="K17:T17"/>
-    <mergeCell ref="U17:AX17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="K18:T18"/>
-    <mergeCell ref="U18:AX18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="K15:T15"/>
-    <mergeCell ref="U15:AX15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="K16:T16"/>
-    <mergeCell ref="U16:AX16"/>
-    <mergeCell ref="U13:AX13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="K14:T14"/>
-    <mergeCell ref="U14:AX14"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="K11:T11"/>
-    <mergeCell ref="U11:AX11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="K12:T12"/>
-    <mergeCell ref="U12:AX12"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="K4:T4"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="K5:T5"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:Q35"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:Q40"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="O38:Q38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O39:Q39"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:Q36"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O37:Q37"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:Q34"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="AR1:AX1"/>
+    <mergeCell ref="AK1:AQ1"/>
+    <mergeCell ref="AR2:AX2"/>
+    <mergeCell ref="AK2:AQ2"/>
+    <mergeCell ref="S1:AJ1"/>
+    <mergeCell ref="S2:AJ2"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="U4:AX4"/>
+    <mergeCell ref="C6:E6"/>
     <mergeCell ref="U5:AX5"/>
     <mergeCell ref="F6:J6"/>
     <mergeCell ref="K6:T6"/>
@@ -5374,94 +5398,47 @@
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="F13:J13"/>
     <mergeCell ref="K13:T13"/>
-    <mergeCell ref="L2:R2"/>
-    <mergeCell ref="AR1:AX1"/>
-    <mergeCell ref="AK1:AQ1"/>
-    <mergeCell ref="AR2:AX2"/>
-    <mergeCell ref="AK2:AQ2"/>
-    <mergeCell ref="S1:AJ1"/>
-    <mergeCell ref="S2:AJ2"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="U4:AX4"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:Q40"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="O38:Q38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O39:Q39"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O36:Q36"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="O37:Q37"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:Q34"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="O35:Q35"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:Q32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:Q33"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="O31:Q31"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="K4:T4"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="K5:T5"/>
+    <mergeCell ref="U13:AX13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="K14:T14"/>
+    <mergeCell ref="U14:AX14"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="K11:T11"/>
+    <mergeCell ref="U11:AX11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="K12:T12"/>
+    <mergeCell ref="U12:AX12"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="K17:T17"/>
+    <mergeCell ref="U17:AX17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="K18:T18"/>
+    <mergeCell ref="U18:AX18"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="K15:T15"/>
+    <mergeCell ref="U15:AX15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="K16:T16"/>
+    <mergeCell ref="U16:AX16"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="K21:T21"/>
+    <mergeCell ref="U21:AX21"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="K19:T19"/>
+    <mergeCell ref="U19:AX19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="K20:T20"/>
+    <mergeCell ref="U20:AX20"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5489,19 +5466,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="110" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
       <c r="L1" s="104" t="s">
         <v>4</v>
       </c>
@@ -5532,42 +5509,42 @@
       <c r="AF1" s="104"/>
       <c r="AG1" s="104"/>
       <c r="AH1" s="104"/>
-      <c r="AI1" s="106" t="s">
+      <c r="AI1" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="AJ1" s="106"/>
-      <c r="AK1" s="106"/>
-      <c r="AL1" s="106"/>
-      <c r="AM1" s="106"/>
-      <c r="AN1" s="106"/>
-      <c r="AO1" s="109" t="s">
+      <c r="AJ1" s="107"/>
+      <c r="AK1" s="107"/>
+      <c r="AL1" s="107"/>
+      <c r="AM1" s="107"/>
+      <c r="AN1" s="107"/>
+      <c r="AO1" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="AP1" s="109"/>
-      <c r="AQ1" s="109"/>
-      <c r="AR1" s="110"/>
-      <c r="AS1" s="92" t="s">
+      <c r="AP1" s="108"/>
+      <c r="AQ1" s="108"/>
+      <c r="AR1" s="109"/>
+      <c r="AS1" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="AT1" s="92"/>
-      <c r="AU1" s="92"/>
-      <c r="AV1" s="92"/>
-      <c r="AW1" s="92"/>
-      <c r="AX1" s="92"/>
-      <c r="AY1" s="92"/>
+      <c r="AT1" s="94"/>
+      <c r="AU1" s="94"/>
+      <c r="AV1" s="94"/>
+      <c r="AW1" s="94"/>
+      <c r="AX1" s="94"/>
+      <c r="AY1" s="94"/>
     </row>
     <row r="2" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="103"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
       <c r="L2" s="104" t="s">
         <v>12</v>
       </c>
@@ -5595,29 +5572,29 @@
       <c r="AF2" s="104"/>
       <c r="AG2" s="104"/>
       <c r="AH2" s="104"/>
-      <c r="AI2" s="108">
+      <c r="AI2" s="106">
         <v>44531</v>
       </c>
-      <c r="AJ2" s="106"/>
-      <c r="AK2" s="106"/>
-      <c r="AL2" s="106"/>
-      <c r="AM2" s="106"/>
-      <c r="AN2" s="106"/>
-      <c r="AO2" s="109" t="s">
+      <c r="AJ2" s="107"/>
+      <c r="AK2" s="107"/>
+      <c r="AL2" s="107"/>
+      <c r="AM2" s="107"/>
+      <c r="AN2" s="107"/>
+      <c r="AO2" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="AP2" s="109"/>
-      <c r="AQ2" s="109"/>
-      <c r="AR2" s="110"/>
-      <c r="AS2" s="94">
+      <c r="AP2" s="108"/>
+      <c r="AQ2" s="108"/>
+      <c r="AR2" s="109"/>
+      <c r="AS2" s="96">
         <v>44531</v>
       </c>
-      <c r="AT2" s="94"/>
-      <c r="AU2" s="94"/>
-      <c r="AV2" s="94"/>
-      <c r="AW2" s="94"/>
-      <c r="AX2" s="94"/>
-      <c r="AY2" s="94"/>
+      <c r="AT2" s="96"/>
+      <c r="AU2" s="96"/>
+      <c r="AV2" s="96"/>
+      <c r="AW2" s="96"/>
+      <c r="AX2" s="96"/>
+      <c r="AY2" s="96"/>
     </row>
     <row r="3" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="10"/>
@@ -6072,10 +6049,10 @@
       <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
-      <c r="AC11" s="107"/>
-      <c r="AD11" s="107"/>
-      <c r="AE11" s="107"/>
-      <c r="AF11" s="107"/>
+      <c r="AC11" s="103"/>
+      <c r="AD11" s="103"/>
+      <c r="AE11" s="103"/>
+      <c r="AF11" s="103"/>
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
@@ -6171,14 +6148,14 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
-      <c r="V13" s="107"/>
-      <c r="W13" s="107"/>
-      <c r="X13" s="107"/>
-      <c r="Y13" s="107"/>
-      <c r="Z13" s="107"/>
-      <c r="AA13" s="107"/>
-      <c r="AB13" s="107"/>
-      <c r="AC13" s="107"/>
+      <c r="V13" s="103"/>
+      <c r="W13" s="103"/>
+      <c r="X13" s="103"/>
+      <c r="Y13" s="103"/>
+      <c r="Z13" s="103"/>
+      <c r="AA13" s="103"/>
+      <c r="AB13" s="103"/>
+      <c r="AC13" s="103"/>
       <c r="AD13" s="4"/>
       <c r="AE13" s="14"/>
       <c r="AF13" s="14"/>
@@ -7135,6 +7112,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="S1:AD1"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AI1:AN1"/>
     <mergeCell ref="AC11:AF11"/>
     <mergeCell ref="V13:AC13"/>
     <mergeCell ref="AS1:AY1"/>
@@ -7145,11 +7127,6 @@
     <mergeCell ref="AO2:AR2"/>
     <mergeCell ref="AS2:AY2"/>
     <mergeCell ref="AO1:AR1"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="S1:AD1"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AI1:AN1"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7172,28 +7149,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:93" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="120" t="s">
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="120"/>
-      <c r="N1" s="120"/>
-      <c r="O1" s="120"/>
-      <c r="P1" s="120"/>
-      <c r="Q1" s="120"/>
-      <c r="R1" s="120"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="123"/>
+      <c r="P1" s="123"/>
+      <c r="Q1" s="123"/>
+      <c r="R1" s="123"/>
       <c r="S1" s="113" t="str">
         <f>'0.表紙'!O25</f>
         <v>ログイン画面</v>
@@ -7211,15 +7188,15 @@
       <c r="AD1" s="113"/>
       <c r="AE1" s="113"/>
       <c r="AF1" s="113"/>
-      <c r="AG1" s="115" t="s">
+      <c r="AG1" s="119" t="s">
         <v>43</v>
       </c>
-      <c r="AH1" s="115"/>
-      <c r="AI1" s="115"/>
-      <c r="AJ1" s="115"/>
-      <c r="AK1" s="115"/>
-      <c r="AL1" s="115"/>
-      <c r="AM1" s="115"/>
+      <c r="AH1" s="119"/>
+      <c r="AI1" s="119"/>
+      <c r="AJ1" s="119"/>
+      <c r="AK1" s="119"/>
+      <c r="AL1" s="119"/>
+      <c r="AM1" s="119"/>
       <c r="AN1" s="113" t="s">
         <v>6</v>
       </c>
@@ -7229,15 +7206,15 @@
       <c r="AR1" s="113"/>
       <c r="AS1" s="113"/>
       <c r="AT1" s="113"/>
-      <c r="AU1" s="115" t="s">
+      <c r="AU1" s="119" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" s="115"/>
-      <c r="AW1" s="115"/>
-      <c r="AX1" s="115"/>
-      <c r="AY1" s="115"/>
-      <c r="AZ1" s="115"/>
-      <c r="BA1" s="115"/>
+      <c r="AV1" s="119"/>
+      <c r="AW1" s="119"/>
+      <c r="AX1" s="119"/>
+      <c r="AY1" s="119"/>
+      <c r="AZ1" s="119"/>
+      <c r="BA1" s="119"/>
       <c r="BB1" s="113" t="s">
         <v>6</v>
       </c>
@@ -7249,26 +7226,26 @@
       <c r="BH1" s="113"/>
     </row>
     <row r="2" spans="1:93" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="121"/>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="120" t="s">
+      <c r="A2" s="124"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="120"/>
-      <c r="N2" s="120"/>
-      <c r="O2" s="120"/>
-      <c r="P2" s="120"/>
-      <c r="Q2" s="120"/>
-      <c r="R2" s="120"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="123"/>
+      <c r="Q2" s="123"/>
+      <c r="R2" s="123"/>
       <c r="S2" s="113"/>
       <c r="T2" s="113"/>
       <c r="U2" s="113"/>
@@ -7283,42 +7260,42 @@
       <c r="AD2" s="113"/>
       <c r="AE2" s="113"/>
       <c r="AF2" s="113"/>
-      <c r="AG2" s="116" t="s">
+      <c r="AG2" s="120" t="s">
         <v>44</v>
       </c>
-      <c r="AH2" s="116"/>
-      <c r="AI2" s="116"/>
-      <c r="AJ2" s="116"/>
-      <c r="AK2" s="116"/>
-      <c r="AL2" s="116"/>
-      <c r="AM2" s="116"/>
-      <c r="AN2" s="114">
+      <c r="AH2" s="120"/>
+      <c r="AI2" s="120"/>
+      <c r="AJ2" s="120"/>
+      <c r="AK2" s="120"/>
+      <c r="AL2" s="120"/>
+      <c r="AM2" s="120"/>
+      <c r="AN2" s="121">
         <v>44531</v>
       </c>
-      <c r="AO2" s="114"/>
-      <c r="AP2" s="114"/>
-      <c r="AQ2" s="114"/>
-      <c r="AR2" s="114"/>
-      <c r="AS2" s="114"/>
-      <c r="AT2" s="114"/>
-      <c r="AU2" s="116" t="s">
+      <c r="AO2" s="121"/>
+      <c r="AP2" s="121"/>
+      <c r="AQ2" s="121"/>
+      <c r="AR2" s="121"/>
+      <c r="AS2" s="121"/>
+      <c r="AT2" s="121"/>
+      <c r="AU2" s="120" t="s">
         <v>46</v>
       </c>
-      <c r="AV2" s="116"/>
-      <c r="AW2" s="116"/>
-      <c r="AX2" s="116"/>
-      <c r="AY2" s="116"/>
-      <c r="AZ2" s="116"/>
-      <c r="BA2" s="116"/>
-      <c r="BB2" s="114">
+      <c r="AV2" s="120"/>
+      <c r="AW2" s="120"/>
+      <c r="AX2" s="120"/>
+      <c r="AY2" s="120"/>
+      <c r="AZ2" s="120"/>
+      <c r="BA2" s="120"/>
+      <c r="BB2" s="121">
         <v>44533</v>
       </c>
-      <c r="BC2" s="114"/>
-      <c r="BD2" s="114"/>
-      <c r="BE2" s="114"/>
-      <c r="BF2" s="114"/>
-      <c r="BG2" s="114"/>
-      <c r="BH2" s="114"/>
+      <c r="BC2" s="121"/>
+      <c r="BD2" s="121"/>
+      <c r="BE2" s="121"/>
+      <c r="BF2" s="121"/>
+      <c r="BG2" s="121"/>
+      <c r="BH2" s="121"/>
     </row>
     <row r="3" spans="1:93" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="22"/>
@@ -7383,80 +7360,80 @@
       <c r="BH3" s="16"/>
     </row>
     <row r="4" spans="1:93" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119" t="s">
+      <c r="B4" s="122"/>
+      <c r="C4" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="119"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="119"/>
-      <c r="M4" s="119" t="s">
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="122"/>
+      <c r="L4" s="122"/>
+      <c r="M4" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="119"/>
-      <c r="O4" s="119"/>
-      <c r="P4" s="119"/>
-      <c r="Q4" s="117" t="s">
+      <c r="N4" s="122"/>
+      <c r="O4" s="122"/>
+      <c r="P4" s="122"/>
+      <c r="Q4" s="118" t="s">
         <v>31</v>
       </c>
-      <c r="R4" s="117"/>
-      <c r="S4" s="117" t="s">
+      <c r="R4" s="118"/>
+      <c r="S4" s="118" t="s">
         <v>35</v>
       </c>
-      <c r="T4" s="117"/>
-      <c r="U4" s="117"/>
-      <c r="V4" s="117"/>
-      <c r="W4" s="117"/>
-      <c r="X4" s="117"/>
-      <c r="Y4" s="117"/>
-      <c r="Z4" s="117"/>
-      <c r="AA4" s="117"/>
-      <c r="AB4" s="117"/>
-      <c r="AC4" s="117" t="s">
+      <c r="T4" s="118"/>
+      <c r="U4" s="118"/>
+      <c r="V4" s="118"/>
+      <c r="W4" s="118"/>
+      <c r="X4" s="118"/>
+      <c r="Y4" s="118"/>
+      <c r="Z4" s="118"/>
+      <c r="AA4" s="118"/>
+      <c r="AB4" s="118"/>
+      <c r="AC4" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="AD4" s="117"/>
-      <c r="AE4" s="117"/>
-      <c r="AF4" s="117"/>
-      <c r="AG4" s="117"/>
-      <c r="AH4" s="117"/>
-      <c r="AI4" s="117"/>
-      <c r="AJ4" s="117"/>
-      <c r="AK4" s="117"/>
-      <c r="AL4" s="117"/>
-      <c r="AM4" s="117"/>
-      <c r="AN4" s="117"/>
-      <c r="AO4" s="117"/>
-      <c r="AP4" s="117"/>
-      <c r="AQ4" s="117"/>
-      <c r="AR4" s="117"/>
-      <c r="AS4" s="123" t="s">
+      <c r="AD4" s="118"/>
+      <c r="AE4" s="118"/>
+      <c r="AF4" s="118"/>
+      <c r="AG4" s="118"/>
+      <c r="AH4" s="118"/>
+      <c r="AI4" s="118"/>
+      <c r="AJ4" s="118"/>
+      <c r="AK4" s="118"/>
+      <c r="AL4" s="118"/>
+      <c r="AM4" s="118"/>
+      <c r="AN4" s="118"/>
+      <c r="AO4" s="118"/>
+      <c r="AP4" s="118"/>
+      <c r="AQ4" s="118"/>
+      <c r="AR4" s="118"/>
+      <c r="AS4" s="126" t="s">
         <v>49</v>
       </c>
-      <c r="AT4" s="123"/>
-      <c r="AU4" s="123"/>
-      <c r="AV4" s="123"/>
-      <c r="AW4" s="123"/>
-      <c r="AX4" s="123"/>
-      <c r="AY4" s="123"/>
-      <c r="AZ4" s="123"/>
-      <c r="BA4" s="123"/>
-      <c r="BB4" s="123"/>
-      <c r="BC4" s="123"/>
-      <c r="BD4" s="123"/>
-      <c r="BE4" s="123"/>
-      <c r="BF4" s="123"/>
-      <c r="BG4" s="123"/>
-      <c r="BH4" s="123"/>
+      <c r="AT4" s="126"/>
+      <c r="AU4" s="126"/>
+      <c r="AV4" s="126"/>
+      <c r="AW4" s="126"/>
+      <c r="AX4" s="126"/>
+      <c r="AY4" s="126"/>
+      <c r="AZ4" s="126"/>
+      <c r="BA4" s="126"/>
+      <c r="BB4" s="126"/>
+      <c r="BC4" s="126"/>
+      <c r="BD4" s="126"/>
+      <c r="BE4" s="126"/>
+      <c r="BF4" s="126"/>
+      <c r="BG4" s="126"/>
+      <c r="BH4" s="126"/>
       <c r="BJ4" s="24"/>
       <c r="BK4" s="24"/>
       <c r="BL4" s="24"/>
@@ -7491,76 +7468,76 @@
       <c r="CO4" s="24"/>
     </row>
     <row r="5" spans="1:93" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="119"/>
-      <c r="B5" s="119"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="119"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="119"/>
-      <c r="J5" s="119"/>
-      <c r="K5" s="119"/>
-      <c r="L5" s="119"/>
-      <c r="M5" s="119"/>
-      <c r="N5" s="119"/>
-      <c r="O5" s="119"/>
-      <c r="P5" s="119"/>
-      <c r="Q5" s="117"/>
-      <c r="R5" s="117"/>
-      <c r="S5" s="122" t="s">
+      <c r="A5" s="122"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="122"/>
+      <c r="K5" s="122"/>
+      <c r="L5" s="122"/>
+      <c r="M5" s="122"/>
+      <c r="N5" s="122"/>
+      <c r="O5" s="122"/>
+      <c r="P5" s="122"/>
+      <c r="Q5" s="118"/>
+      <c r="R5" s="118"/>
+      <c r="S5" s="125" t="s">
         <v>36</v>
       </c>
-      <c r="T5" s="117" t="s">
+      <c r="T5" s="118" t="s">
         <v>37</v>
       </c>
-      <c r="U5" s="117"/>
-      <c r="V5" s="117"/>
-      <c r="W5" s="117"/>
-      <c r="X5" s="117"/>
-      <c r="Y5" s="117" t="s">
+      <c r="U5" s="118"/>
+      <c r="V5" s="118"/>
+      <c r="W5" s="118"/>
+      <c r="X5" s="118"/>
+      <c r="Y5" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="Z5" s="117"/>
-      <c r="AA5" s="117"/>
-      <c r="AB5" s="117"/>
-      <c r="AC5" s="117" t="s">
+      <c r="Z5" s="118"/>
+      <c r="AA5" s="118"/>
+      <c r="AB5" s="118"/>
+      <c r="AC5" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="AD5" s="117"/>
-      <c r="AE5" s="117"/>
-      <c r="AF5" s="117"/>
-      <c r="AG5" s="117"/>
-      <c r="AH5" s="117"/>
-      <c r="AI5" s="117"/>
-      <c r="AJ5" s="117"/>
-      <c r="AK5" s="117" t="s">
+      <c r="AD5" s="118"/>
+      <c r="AE5" s="118"/>
+      <c r="AF5" s="118"/>
+      <c r="AG5" s="118"/>
+      <c r="AH5" s="118"/>
+      <c r="AI5" s="118"/>
+      <c r="AJ5" s="118"/>
+      <c r="AK5" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="AL5" s="117"/>
-      <c r="AM5" s="117"/>
-      <c r="AN5" s="117"/>
-      <c r="AO5" s="117"/>
-      <c r="AP5" s="117"/>
-      <c r="AQ5" s="117"/>
-      <c r="AR5" s="117"/>
-      <c r="AS5" s="123"/>
-      <c r="AT5" s="123"/>
-      <c r="AU5" s="123"/>
-      <c r="AV5" s="123"/>
-      <c r="AW5" s="123"/>
-      <c r="AX5" s="123"/>
-      <c r="AY5" s="123"/>
-      <c r="AZ5" s="123"/>
-      <c r="BA5" s="123"/>
-      <c r="BB5" s="123"/>
-      <c r="BC5" s="123"/>
-      <c r="BD5" s="123"/>
-      <c r="BE5" s="123"/>
-      <c r="BF5" s="123"/>
-      <c r="BG5" s="123"/>
-      <c r="BH5" s="123"/>
+      <c r="AL5" s="118"/>
+      <c r="AM5" s="118"/>
+      <c r="AN5" s="118"/>
+      <c r="AO5" s="118"/>
+      <c r="AP5" s="118"/>
+      <c r="AQ5" s="118"/>
+      <c r="AR5" s="118"/>
+      <c r="AS5" s="126"/>
+      <c r="AT5" s="126"/>
+      <c r="AU5" s="126"/>
+      <c r="AV5" s="126"/>
+      <c r="AW5" s="126"/>
+      <c r="AX5" s="126"/>
+      <c r="AY5" s="126"/>
+      <c r="AZ5" s="126"/>
+      <c r="BA5" s="126"/>
+      <c r="BB5" s="126"/>
+      <c r="BC5" s="126"/>
+      <c r="BD5" s="126"/>
+      <c r="BE5" s="126"/>
+      <c r="BF5" s="126"/>
+      <c r="BG5" s="126"/>
+      <c r="BH5" s="126"/>
       <c r="BJ5" s="24"/>
       <c r="BK5" s="24"/>
       <c r="BL5" s="24"/>
@@ -7595,70 +7572,70 @@
       <c r="CO5" s="24"/>
     </row>
     <row r="6" spans="1:93" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="119"/>
-      <c r="B6" s="119"/>
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="119"/>
-      <c r="K6" s="119"/>
-      <c r="L6" s="119"/>
-      <c r="M6" s="119"/>
-      <c r="N6" s="119"/>
-      <c r="O6" s="119"/>
-      <c r="P6" s="119"/>
-      <c r="Q6" s="117"/>
-      <c r="R6" s="117"/>
-      <c r="S6" s="122"/>
-      <c r="T6" s="117"/>
-      <c r="U6" s="117"/>
-      <c r="V6" s="117"/>
-      <c r="W6" s="117"/>
-      <c r="X6" s="117"/>
-      <c r="Y6" s="117" t="s">
+      <c r="A6" s="122"/>
+      <c r="B6" s="122"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="122"/>
+      <c r="L6" s="122"/>
+      <c r="M6" s="122"/>
+      <c r="N6" s="122"/>
+      <c r="O6" s="122"/>
+      <c r="P6" s="122"/>
+      <c r="Q6" s="118"/>
+      <c r="R6" s="118"/>
+      <c r="S6" s="125"/>
+      <c r="T6" s="118"/>
+      <c r="U6" s="118"/>
+      <c r="V6" s="118"/>
+      <c r="W6" s="118"/>
+      <c r="X6" s="118"/>
+      <c r="Y6" s="118" t="s">
         <v>38</v>
       </c>
-      <c r="Z6" s="117"/>
-      <c r="AA6" s="117" t="s">
+      <c r="Z6" s="118"/>
+      <c r="AA6" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="AB6" s="117"/>
-      <c r="AC6" s="117"/>
-      <c r="AD6" s="117"/>
-      <c r="AE6" s="117"/>
-      <c r="AF6" s="117"/>
-      <c r="AG6" s="117"/>
-      <c r="AH6" s="117"/>
-      <c r="AI6" s="117"/>
-      <c r="AJ6" s="117"/>
-      <c r="AK6" s="117"/>
-      <c r="AL6" s="117"/>
-      <c r="AM6" s="117"/>
-      <c r="AN6" s="117"/>
-      <c r="AO6" s="117"/>
-      <c r="AP6" s="117"/>
-      <c r="AQ6" s="117"/>
-      <c r="AR6" s="117"/>
-      <c r="AS6" s="123"/>
-      <c r="AT6" s="123"/>
-      <c r="AU6" s="123"/>
-      <c r="AV6" s="123"/>
-      <c r="AW6" s="123"/>
-      <c r="AX6" s="123"/>
-      <c r="AY6" s="123"/>
-      <c r="AZ6" s="123"/>
-      <c r="BA6" s="123"/>
-      <c r="BB6" s="123"/>
-      <c r="BC6" s="123"/>
-      <c r="BD6" s="123"/>
-      <c r="BE6" s="123"/>
-      <c r="BF6" s="123"/>
-      <c r="BG6" s="123"/>
-      <c r="BH6" s="123"/>
+      <c r="AB6" s="118"/>
+      <c r="AC6" s="118"/>
+      <c r="AD6" s="118"/>
+      <c r="AE6" s="118"/>
+      <c r="AF6" s="118"/>
+      <c r="AG6" s="118"/>
+      <c r="AH6" s="118"/>
+      <c r="AI6" s="118"/>
+      <c r="AJ6" s="118"/>
+      <c r="AK6" s="118"/>
+      <c r="AL6" s="118"/>
+      <c r="AM6" s="118"/>
+      <c r="AN6" s="118"/>
+      <c r="AO6" s="118"/>
+      <c r="AP6" s="118"/>
+      <c r="AQ6" s="118"/>
+      <c r="AR6" s="118"/>
+      <c r="AS6" s="126"/>
+      <c r="AT6" s="126"/>
+      <c r="AU6" s="126"/>
+      <c r="AV6" s="126"/>
+      <c r="AW6" s="126"/>
+      <c r="AX6" s="126"/>
+      <c r="AY6" s="126"/>
+      <c r="AZ6" s="126"/>
+      <c r="BA6" s="126"/>
+      <c r="BB6" s="126"/>
+      <c r="BC6" s="126"/>
+      <c r="BD6" s="126"/>
+      <c r="BE6" s="126"/>
+      <c r="BF6" s="126"/>
+      <c r="BG6" s="126"/>
+      <c r="BH6" s="126"/>
       <c r="BJ6" s="24"/>
       <c r="BK6" s="24"/>
       <c r="BL6" s="24"/>
@@ -7757,24 +7734,24 @@
       <c r="AP7" s="113"/>
       <c r="AQ7" s="113"/>
       <c r="AR7" s="113"/>
-      <c r="AS7" s="124" t="s">
+      <c r="AS7" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="AT7" s="124"/>
-      <c r="AU7" s="124"/>
-      <c r="AV7" s="124"/>
-      <c r="AW7" s="124"/>
-      <c r="AX7" s="124"/>
-      <c r="AY7" s="124"/>
-      <c r="AZ7" s="124"/>
-      <c r="BA7" s="124"/>
-      <c r="BB7" s="124"/>
-      <c r="BC7" s="124"/>
-      <c r="BD7" s="124"/>
-      <c r="BE7" s="124"/>
-      <c r="BF7" s="124"/>
-      <c r="BG7" s="124"/>
-      <c r="BH7" s="124"/>
+      <c r="AT7" s="114"/>
+      <c r="AU7" s="114"/>
+      <c r="AV7" s="114"/>
+      <c r="AW7" s="114"/>
+      <c r="AX7" s="114"/>
+      <c r="AY7" s="114"/>
+      <c r="AZ7" s="114"/>
+      <c r="BA7" s="114"/>
+      <c r="BB7" s="114"/>
+      <c r="BC7" s="114"/>
+      <c r="BD7" s="114"/>
+      <c r="BE7" s="114"/>
+      <c r="BF7" s="114"/>
+      <c r="BG7" s="114"/>
+      <c r="BH7" s="114"/>
       <c r="BI7" s="11"/>
       <c r="BJ7" s="24"/>
       <c r="BK7" s="24"/>
@@ -7874,24 +7851,24 @@
       <c r="AP8" s="113"/>
       <c r="AQ8" s="113"/>
       <c r="AR8" s="113"/>
-      <c r="AS8" s="124" t="s">
+      <c r="AS8" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="AT8" s="124"/>
-      <c r="AU8" s="124"/>
-      <c r="AV8" s="124"/>
-      <c r="AW8" s="124"/>
-      <c r="AX8" s="124"/>
-      <c r="AY8" s="124"/>
-      <c r="AZ8" s="124"/>
-      <c r="BA8" s="124"/>
-      <c r="BB8" s="124"/>
-      <c r="BC8" s="124"/>
-      <c r="BD8" s="124"/>
-      <c r="BE8" s="124"/>
-      <c r="BF8" s="124"/>
-      <c r="BG8" s="124"/>
-      <c r="BH8" s="124"/>
+      <c r="AT8" s="114"/>
+      <c r="AU8" s="114"/>
+      <c r="AV8" s="114"/>
+      <c r="AW8" s="114"/>
+      <c r="AX8" s="114"/>
+      <c r="AY8" s="114"/>
+      <c r="AZ8" s="114"/>
+      <c r="BA8" s="114"/>
+      <c r="BB8" s="114"/>
+      <c r="BC8" s="114"/>
+      <c r="BD8" s="114"/>
+      <c r="BE8" s="114"/>
+      <c r="BF8" s="114"/>
+      <c r="BG8" s="114"/>
+      <c r="BH8" s="114"/>
       <c r="BI8" s="11"/>
       <c r="BJ8" s="24"/>
       <c r="BK8" s="24"/>
@@ -7991,24 +7968,24 @@
       <c r="AP9" s="113"/>
       <c r="AQ9" s="113"/>
       <c r="AR9" s="113"/>
-      <c r="AS9" s="124" t="s">
+      <c r="AS9" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="AT9" s="124"/>
-      <c r="AU9" s="124"/>
-      <c r="AV9" s="124"/>
-      <c r="AW9" s="124"/>
-      <c r="AX9" s="124"/>
-      <c r="AY9" s="124"/>
-      <c r="AZ9" s="124"/>
-      <c r="BA9" s="124"/>
-      <c r="BB9" s="124"/>
-      <c r="BC9" s="124"/>
-      <c r="BD9" s="124"/>
-      <c r="BE9" s="124"/>
-      <c r="BF9" s="124"/>
-      <c r="BG9" s="124"/>
-      <c r="BH9" s="124"/>
+      <c r="AT9" s="114"/>
+      <c r="AU9" s="114"/>
+      <c r="AV9" s="114"/>
+      <c r="AW9" s="114"/>
+      <c r="AX9" s="114"/>
+      <c r="AY9" s="114"/>
+      <c r="AZ9" s="114"/>
+      <c r="BA9" s="114"/>
+      <c r="BB9" s="114"/>
+      <c r="BC9" s="114"/>
+      <c r="BD9" s="114"/>
+      <c r="BE9" s="114"/>
+      <c r="BF9" s="114"/>
+      <c r="BG9" s="114"/>
+      <c r="BH9" s="114"/>
       <c r="BI9" s="11"/>
       <c r="BJ9" s="24"/>
       <c r="BK9" s="24"/>
@@ -8048,18 +8025,18 @@
         <v>4</v>
       </c>
       <c r="B10" s="111"/>
-      <c r="C10" s="118" t="s">
+      <c r="C10" s="127" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="118"/>
-      <c r="E10" s="118"/>
-      <c r="F10" s="118"/>
-      <c r="G10" s="118"/>
-      <c r="H10" s="118"/>
-      <c r="I10" s="118"/>
-      <c r="J10" s="118"/>
-      <c r="K10" s="118"/>
-      <c r="L10" s="118"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="127"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="127"/>
+      <c r="K10" s="127"/>
+      <c r="L10" s="127"/>
       <c r="M10" s="112" t="s">
         <v>26</v>
       </c>
@@ -8108,24 +8085,24 @@
       <c r="AP10" s="113"/>
       <c r="AQ10" s="113"/>
       <c r="AR10" s="113"/>
-      <c r="AS10" s="124" t="s">
+      <c r="AS10" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="AT10" s="124"/>
-      <c r="AU10" s="124"/>
-      <c r="AV10" s="124"/>
-      <c r="AW10" s="124"/>
-      <c r="AX10" s="124"/>
-      <c r="AY10" s="124"/>
-      <c r="AZ10" s="124"/>
-      <c r="BA10" s="124"/>
-      <c r="BB10" s="124"/>
-      <c r="BC10" s="124"/>
-      <c r="BD10" s="124"/>
-      <c r="BE10" s="124"/>
-      <c r="BF10" s="124"/>
-      <c r="BG10" s="124"/>
-      <c r="BH10" s="124"/>
+      <c r="AT10" s="114"/>
+      <c r="AU10" s="114"/>
+      <c r="AV10" s="114"/>
+      <c r="AW10" s="114"/>
+      <c r="AX10" s="114"/>
+      <c r="AY10" s="114"/>
+      <c r="AZ10" s="114"/>
+      <c r="BA10" s="114"/>
+      <c r="BB10" s="114"/>
+      <c r="BC10" s="114"/>
+      <c r="BD10" s="114"/>
+      <c r="BE10" s="114"/>
+      <c r="BF10" s="114"/>
+      <c r="BG10" s="114"/>
+      <c r="BH10" s="114"/>
       <c r="BI10" s="11"/>
       <c r="BJ10" s="24"/>
       <c r="BK10" s="24"/>
@@ -8165,18 +8142,18 @@
         <v>5</v>
       </c>
       <c r="B11" s="111"/>
-      <c r="C11" s="118" t="s">
+      <c r="C11" s="127" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="118"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="118"/>
-      <c r="G11" s="118"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="118"/>
-      <c r="J11" s="118"/>
-      <c r="K11" s="118"/>
-      <c r="L11" s="118"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="127"/>
+      <c r="F11" s="127"/>
+      <c r="G11" s="127"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="127"/>
+      <c r="J11" s="127"/>
+      <c r="K11" s="127"/>
+      <c r="L11" s="127"/>
       <c r="M11" s="112" t="s">
         <v>26</v>
       </c>
@@ -8225,24 +8202,24 @@
       <c r="AP11" s="113"/>
       <c r="AQ11" s="113"/>
       <c r="AR11" s="113"/>
-      <c r="AS11" s="124" t="s">
+      <c r="AS11" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="AT11" s="124"/>
-      <c r="AU11" s="124"/>
-      <c r="AV11" s="124"/>
-      <c r="AW11" s="124"/>
-      <c r="AX11" s="124"/>
-      <c r="AY11" s="124"/>
-      <c r="AZ11" s="124"/>
-      <c r="BA11" s="124"/>
-      <c r="BB11" s="124"/>
-      <c r="BC11" s="124"/>
-      <c r="BD11" s="124"/>
-      <c r="BE11" s="124"/>
-      <c r="BF11" s="124"/>
-      <c r="BG11" s="124"/>
-      <c r="BH11" s="124"/>
+      <c r="AT11" s="114"/>
+      <c r="AU11" s="114"/>
+      <c r="AV11" s="114"/>
+      <c r="AW11" s="114"/>
+      <c r="AX11" s="114"/>
+      <c r="AY11" s="114"/>
+      <c r="AZ11" s="114"/>
+      <c r="BA11" s="114"/>
+      <c r="BB11" s="114"/>
+      <c r="BC11" s="114"/>
+      <c r="BD11" s="114"/>
+      <c r="BE11" s="114"/>
+      <c r="BF11" s="114"/>
+      <c r="BG11" s="114"/>
+      <c r="BH11" s="114"/>
       <c r="BI11" s="11"/>
       <c r="BJ11" s="24"/>
       <c r="BK11" s="24"/>
@@ -8324,22 +8301,22 @@
       <c r="AP12" s="113"/>
       <c r="AQ12" s="113"/>
       <c r="AR12" s="113"/>
-      <c r="AS12" s="124"/>
-      <c r="AT12" s="124"/>
-      <c r="AU12" s="124"/>
-      <c r="AV12" s="124"/>
-      <c r="AW12" s="124"/>
-      <c r="AX12" s="124"/>
-      <c r="AY12" s="124"/>
-      <c r="AZ12" s="124"/>
-      <c r="BA12" s="124"/>
-      <c r="BB12" s="124"/>
-      <c r="BC12" s="124"/>
-      <c r="BD12" s="124"/>
-      <c r="BE12" s="124"/>
-      <c r="BF12" s="124"/>
-      <c r="BG12" s="124"/>
-      <c r="BH12" s="124"/>
+      <c r="AS12" s="114"/>
+      <c r="AT12" s="114"/>
+      <c r="AU12" s="114"/>
+      <c r="AV12" s="114"/>
+      <c r="AW12" s="114"/>
+      <c r="AX12" s="114"/>
+      <c r="AY12" s="114"/>
+      <c r="AZ12" s="114"/>
+      <c r="BA12" s="114"/>
+      <c r="BB12" s="114"/>
+      <c r="BC12" s="114"/>
+      <c r="BD12" s="114"/>
+      <c r="BE12" s="114"/>
+      <c r="BF12" s="114"/>
+      <c r="BG12" s="114"/>
+      <c r="BH12" s="114"/>
       <c r="BI12" s="11"/>
       <c r="BJ12" s="24"/>
       <c r="BK12" s="24"/>
@@ -8419,22 +8396,22 @@
       <c r="AP13" s="113"/>
       <c r="AQ13" s="113"/>
       <c r="AR13" s="113"/>
-      <c r="AS13" s="124"/>
-      <c r="AT13" s="124"/>
-      <c r="AU13" s="124"/>
-      <c r="AV13" s="124"/>
-      <c r="AW13" s="124"/>
-      <c r="AX13" s="124"/>
-      <c r="AY13" s="124"/>
-      <c r="AZ13" s="124"/>
-      <c r="BA13" s="124"/>
-      <c r="BB13" s="124"/>
-      <c r="BC13" s="124"/>
-      <c r="BD13" s="124"/>
-      <c r="BE13" s="124"/>
-      <c r="BF13" s="124"/>
-      <c r="BG13" s="124"/>
-      <c r="BH13" s="124"/>
+      <c r="AS13" s="114"/>
+      <c r="AT13" s="114"/>
+      <c r="AU13" s="114"/>
+      <c r="AV13" s="114"/>
+      <c r="AW13" s="114"/>
+      <c r="AX13" s="114"/>
+      <c r="AY13" s="114"/>
+      <c r="AZ13" s="114"/>
+      <c r="BA13" s="114"/>
+      <c r="BB13" s="114"/>
+      <c r="BC13" s="114"/>
+      <c r="BD13" s="114"/>
+      <c r="BE13" s="114"/>
+      <c r="BF13" s="114"/>
+      <c r="BG13" s="114"/>
+      <c r="BH13" s="114"/>
       <c r="BI13" s="11"/>
       <c r="BJ13" s="24"/>
       <c r="BK13" s="24"/>
@@ -8514,22 +8491,22 @@
       <c r="AP14" s="113"/>
       <c r="AQ14" s="113"/>
       <c r="AR14" s="113"/>
-      <c r="AS14" s="124"/>
-      <c r="AT14" s="124"/>
-      <c r="AU14" s="124"/>
-      <c r="AV14" s="124"/>
-      <c r="AW14" s="124"/>
-      <c r="AX14" s="124"/>
-      <c r="AY14" s="124"/>
-      <c r="AZ14" s="124"/>
-      <c r="BA14" s="124"/>
-      <c r="BB14" s="124"/>
-      <c r="BC14" s="124"/>
-      <c r="BD14" s="124"/>
-      <c r="BE14" s="124"/>
-      <c r="BF14" s="124"/>
-      <c r="BG14" s="124"/>
-      <c r="BH14" s="124"/>
+      <c r="AS14" s="114"/>
+      <c r="AT14" s="114"/>
+      <c r="AU14" s="114"/>
+      <c r="AV14" s="114"/>
+      <c r="AW14" s="114"/>
+      <c r="AX14" s="114"/>
+      <c r="AY14" s="114"/>
+      <c r="AZ14" s="114"/>
+      <c r="BA14" s="114"/>
+      <c r="BB14" s="114"/>
+      <c r="BC14" s="114"/>
+      <c r="BD14" s="114"/>
+      <c r="BE14" s="114"/>
+      <c r="BF14" s="114"/>
+      <c r="BG14" s="114"/>
+      <c r="BH14" s="114"/>
       <c r="BI14" s="11"/>
       <c r="BJ14" s="24"/>
       <c r="BK14" s="24"/>
@@ -8609,22 +8586,22 @@
       <c r="AP15" s="113"/>
       <c r="AQ15" s="113"/>
       <c r="AR15" s="113"/>
-      <c r="AS15" s="124"/>
-      <c r="AT15" s="124"/>
-      <c r="AU15" s="124"/>
-      <c r="AV15" s="124"/>
-      <c r="AW15" s="124"/>
-      <c r="AX15" s="124"/>
-      <c r="AY15" s="124"/>
-      <c r="AZ15" s="124"/>
-      <c r="BA15" s="124"/>
-      <c r="BB15" s="124"/>
-      <c r="BC15" s="124"/>
-      <c r="BD15" s="124"/>
-      <c r="BE15" s="124"/>
-      <c r="BF15" s="124"/>
-      <c r="BG15" s="124"/>
-      <c r="BH15" s="124"/>
+      <c r="AS15" s="114"/>
+      <c r="AT15" s="114"/>
+      <c r="AU15" s="114"/>
+      <c r="AV15" s="114"/>
+      <c r="AW15" s="114"/>
+      <c r="AX15" s="114"/>
+      <c r="AY15" s="114"/>
+      <c r="AZ15" s="114"/>
+      <c r="BA15" s="114"/>
+      <c r="BB15" s="114"/>
+      <c r="BC15" s="114"/>
+      <c r="BD15" s="114"/>
+      <c r="BE15" s="114"/>
+      <c r="BF15" s="114"/>
+      <c r="BG15" s="114"/>
+      <c r="BH15" s="114"/>
       <c r="BJ15" s="24"/>
       <c r="BK15" s="24"/>
       <c r="BL15" s="24"/>
@@ -8703,22 +8680,22 @@
       <c r="AP16" s="113"/>
       <c r="AQ16" s="113"/>
       <c r="AR16" s="113"/>
-      <c r="AS16" s="124"/>
-      <c r="AT16" s="124"/>
-      <c r="AU16" s="124"/>
-      <c r="AV16" s="124"/>
-      <c r="AW16" s="124"/>
-      <c r="AX16" s="124"/>
-      <c r="AY16" s="124"/>
-      <c r="AZ16" s="124"/>
-      <c r="BA16" s="124"/>
-      <c r="BB16" s="124"/>
-      <c r="BC16" s="124"/>
-      <c r="BD16" s="124"/>
-      <c r="BE16" s="124"/>
-      <c r="BF16" s="124"/>
-      <c r="BG16" s="124"/>
-      <c r="BH16" s="124"/>
+      <c r="AS16" s="114"/>
+      <c r="AT16" s="114"/>
+      <c r="AU16" s="114"/>
+      <c r="AV16" s="114"/>
+      <c r="AW16" s="114"/>
+      <c r="AX16" s="114"/>
+      <c r="AY16" s="114"/>
+      <c r="AZ16" s="114"/>
+      <c r="BA16" s="114"/>
+      <c r="BB16" s="114"/>
+      <c r="BC16" s="114"/>
+      <c r="BD16" s="114"/>
+      <c r="BE16" s="114"/>
+      <c r="BF16" s="114"/>
+      <c r="BG16" s="114"/>
+      <c r="BH16" s="114"/>
       <c r="BJ16" s="24"/>
       <c r="BK16" s="24"/>
       <c r="BL16" s="24"/>
@@ -8797,22 +8774,22 @@
       <c r="AP17" s="113"/>
       <c r="AQ17" s="113"/>
       <c r="AR17" s="113"/>
-      <c r="AS17" s="124"/>
-      <c r="AT17" s="124"/>
-      <c r="AU17" s="124"/>
-      <c r="AV17" s="124"/>
-      <c r="AW17" s="124"/>
-      <c r="AX17" s="124"/>
-      <c r="AY17" s="124"/>
-      <c r="AZ17" s="124"/>
-      <c r="BA17" s="124"/>
-      <c r="BB17" s="124"/>
-      <c r="BC17" s="124"/>
-      <c r="BD17" s="124"/>
-      <c r="BE17" s="124"/>
-      <c r="BF17" s="124"/>
-      <c r="BG17" s="124"/>
-      <c r="BH17" s="124"/>
+      <c r="AS17" s="114"/>
+      <c r="AT17" s="114"/>
+      <c r="AU17" s="114"/>
+      <c r="AV17" s="114"/>
+      <c r="AW17" s="114"/>
+      <c r="AX17" s="114"/>
+      <c r="AY17" s="114"/>
+      <c r="AZ17" s="114"/>
+      <c r="BA17" s="114"/>
+      <c r="BB17" s="114"/>
+      <c r="BC17" s="114"/>
+      <c r="BD17" s="114"/>
+      <c r="BE17" s="114"/>
+      <c r="BF17" s="114"/>
+      <c r="BG17" s="114"/>
+      <c r="BH17" s="114"/>
       <c r="BJ17" s="24"/>
       <c r="BK17" s="24"/>
       <c r="BL17" s="24"/>
@@ -8891,22 +8868,22 @@
       <c r="AP18" s="113"/>
       <c r="AQ18" s="113"/>
       <c r="AR18" s="113"/>
-      <c r="AS18" s="124"/>
-      <c r="AT18" s="124"/>
-      <c r="AU18" s="124"/>
-      <c r="AV18" s="124"/>
-      <c r="AW18" s="124"/>
-      <c r="AX18" s="124"/>
-      <c r="AY18" s="124"/>
-      <c r="AZ18" s="124"/>
-      <c r="BA18" s="124"/>
-      <c r="BB18" s="124"/>
-      <c r="BC18" s="124"/>
-      <c r="BD18" s="124"/>
-      <c r="BE18" s="124"/>
-      <c r="BF18" s="124"/>
-      <c r="BG18" s="124"/>
-      <c r="BH18" s="124"/>
+      <c r="AS18" s="114"/>
+      <c r="AT18" s="114"/>
+      <c r="AU18" s="114"/>
+      <c r="AV18" s="114"/>
+      <c r="AW18" s="114"/>
+      <c r="AX18" s="114"/>
+      <c r="AY18" s="114"/>
+      <c r="AZ18" s="114"/>
+      <c r="BA18" s="114"/>
+      <c r="BB18" s="114"/>
+      <c r="BC18" s="114"/>
+      <c r="BD18" s="114"/>
+      <c r="BE18" s="114"/>
+      <c r="BF18" s="114"/>
+      <c r="BG18" s="114"/>
+      <c r="BH18" s="114"/>
       <c r="BJ18" s="24"/>
       <c r="BK18" s="24"/>
       <c r="BL18" s="24"/>
@@ -8985,22 +8962,22 @@
       <c r="AP19" s="113"/>
       <c r="AQ19" s="113"/>
       <c r="AR19" s="113"/>
-      <c r="AS19" s="124"/>
-      <c r="AT19" s="124"/>
-      <c r="AU19" s="124"/>
-      <c r="AV19" s="124"/>
-      <c r="AW19" s="124"/>
-      <c r="AX19" s="124"/>
-      <c r="AY19" s="124"/>
-      <c r="AZ19" s="124"/>
-      <c r="BA19" s="124"/>
-      <c r="BB19" s="124"/>
-      <c r="BC19" s="124"/>
-      <c r="BD19" s="124"/>
-      <c r="BE19" s="124"/>
-      <c r="BF19" s="124"/>
-      <c r="BG19" s="124"/>
-      <c r="BH19" s="124"/>
+      <c r="AS19" s="114"/>
+      <c r="AT19" s="114"/>
+      <c r="AU19" s="114"/>
+      <c r="AV19" s="114"/>
+      <c r="AW19" s="114"/>
+      <c r="AX19" s="114"/>
+      <c r="AY19" s="114"/>
+      <c r="AZ19" s="114"/>
+      <c r="BA19" s="114"/>
+      <c r="BB19" s="114"/>
+      <c r="BC19" s="114"/>
+      <c r="BD19" s="114"/>
+      <c r="BE19" s="114"/>
+      <c r="BF19" s="114"/>
+      <c r="BG19" s="114"/>
+      <c r="BH19" s="114"/>
       <c r="BJ19" s="24"/>
       <c r="BK19" s="24"/>
       <c r="BL19" s="24"/>
@@ -9079,22 +9056,22 @@
       <c r="AP20" s="113"/>
       <c r="AQ20" s="113"/>
       <c r="AR20" s="113"/>
-      <c r="AS20" s="124"/>
-      <c r="AT20" s="124"/>
-      <c r="AU20" s="124"/>
-      <c r="AV20" s="124"/>
-      <c r="AW20" s="124"/>
-      <c r="AX20" s="124"/>
-      <c r="AY20" s="124"/>
-      <c r="AZ20" s="124"/>
-      <c r="BA20" s="124"/>
-      <c r="BB20" s="124"/>
-      <c r="BC20" s="124"/>
-      <c r="BD20" s="124"/>
-      <c r="BE20" s="124"/>
-      <c r="BF20" s="124"/>
-      <c r="BG20" s="124"/>
-      <c r="BH20" s="124"/>
+      <c r="AS20" s="114"/>
+      <c r="AT20" s="114"/>
+      <c r="AU20" s="114"/>
+      <c r="AV20" s="114"/>
+      <c r="AW20" s="114"/>
+      <c r="AX20" s="114"/>
+      <c r="AY20" s="114"/>
+      <c r="AZ20" s="114"/>
+      <c r="BA20" s="114"/>
+      <c r="BB20" s="114"/>
+      <c r="BC20" s="114"/>
+      <c r="BD20" s="114"/>
+      <c r="BE20" s="114"/>
+      <c r="BF20" s="114"/>
+      <c r="BG20" s="114"/>
+      <c r="BH20" s="114"/>
       <c r="BJ20" s="24"/>
       <c r="BK20" s="24"/>
       <c r="BL20" s="24"/>
@@ -9173,22 +9150,22 @@
       <c r="AP21" s="113"/>
       <c r="AQ21" s="113"/>
       <c r="AR21" s="113"/>
-      <c r="AS21" s="124"/>
-      <c r="AT21" s="124"/>
-      <c r="AU21" s="124"/>
-      <c r="AV21" s="124"/>
-      <c r="AW21" s="124"/>
-      <c r="AX21" s="124"/>
-      <c r="AY21" s="124"/>
-      <c r="AZ21" s="124"/>
-      <c r="BA21" s="124"/>
-      <c r="BB21" s="124"/>
-      <c r="BC21" s="124"/>
-      <c r="BD21" s="124"/>
-      <c r="BE21" s="124"/>
-      <c r="BF21" s="124"/>
-      <c r="BG21" s="124"/>
-      <c r="BH21" s="124"/>
+      <c r="AS21" s="114"/>
+      <c r="AT21" s="114"/>
+      <c r="AU21" s="114"/>
+      <c r="AV21" s="114"/>
+      <c r="AW21" s="114"/>
+      <c r="AX21" s="114"/>
+      <c r="AY21" s="114"/>
+      <c r="AZ21" s="114"/>
+      <c r="BA21" s="114"/>
+      <c r="BB21" s="114"/>
+      <c r="BC21" s="114"/>
+      <c r="BD21" s="114"/>
+      <c r="BE21" s="114"/>
+      <c r="BF21" s="114"/>
+      <c r="BG21" s="114"/>
+      <c r="BH21" s="114"/>
       <c r="BJ21" s="24"/>
       <c r="BK21" s="24"/>
       <c r="BL21" s="24"/>
@@ -9267,22 +9244,22 @@
       <c r="AP22" s="113"/>
       <c r="AQ22" s="113"/>
       <c r="AR22" s="113"/>
-      <c r="AS22" s="124"/>
-      <c r="AT22" s="124"/>
-      <c r="AU22" s="124"/>
-      <c r="AV22" s="124"/>
-      <c r="AW22" s="124"/>
-      <c r="AX22" s="124"/>
-      <c r="AY22" s="124"/>
-      <c r="AZ22" s="124"/>
-      <c r="BA22" s="124"/>
-      <c r="BB22" s="124"/>
-      <c r="BC22" s="124"/>
-      <c r="BD22" s="124"/>
-      <c r="BE22" s="124"/>
-      <c r="BF22" s="124"/>
-      <c r="BG22" s="124"/>
-      <c r="BH22" s="124"/>
+      <c r="AS22" s="114"/>
+      <c r="AT22" s="114"/>
+      <c r="AU22" s="114"/>
+      <c r="AV22" s="114"/>
+      <c r="AW22" s="114"/>
+      <c r="AX22" s="114"/>
+      <c r="AY22" s="114"/>
+      <c r="AZ22" s="114"/>
+      <c r="BA22" s="114"/>
+      <c r="BB22" s="114"/>
+      <c r="BC22" s="114"/>
+      <c r="BD22" s="114"/>
+      <c r="BE22" s="114"/>
+      <c r="BF22" s="114"/>
+      <c r="BG22" s="114"/>
+      <c r="BH22" s="114"/>
       <c r="BJ22" s="24"/>
       <c r="BK22" s="24"/>
       <c r="BL22" s="24"/>
@@ -9361,22 +9338,22 @@
       <c r="AP23" s="113"/>
       <c r="AQ23" s="113"/>
       <c r="AR23" s="113"/>
-      <c r="AS23" s="124"/>
-      <c r="AT23" s="124"/>
-      <c r="AU23" s="124"/>
-      <c r="AV23" s="124"/>
-      <c r="AW23" s="124"/>
-      <c r="AX23" s="124"/>
-      <c r="AY23" s="124"/>
-      <c r="AZ23" s="124"/>
-      <c r="BA23" s="124"/>
-      <c r="BB23" s="124"/>
-      <c r="BC23" s="124"/>
-      <c r="BD23" s="124"/>
-      <c r="BE23" s="124"/>
-      <c r="BF23" s="124"/>
-      <c r="BG23" s="124"/>
-      <c r="BH23" s="124"/>
+      <c r="AS23" s="114"/>
+      <c r="AT23" s="114"/>
+      <c r="AU23" s="114"/>
+      <c r="AV23" s="114"/>
+      <c r="AW23" s="114"/>
+      <c r="AX23" s="114"/>
+      <c r="AY23" s="114"/>
+      <c r="AZ23" s="114"/>
+      <c r="BA23" s="114"/>
+      <c r="BB23" s="114"/>
+      <c r="BC23" s="114"/>
+      <c r="BD23" s="114"/>
+      <c r="BE23" s="114"/>
+      <c r="BF23" s="114"/>
+      <c r="BG23" s="114"/>
+      <c r="BH23" s="114"/>
       <c r="BJ23" s="24"/>
       <c r="BK23" s="24"/>
       <c r="BL23" s="24"/>
@@ -9455,22 +9432,22 @@
       <c r="AP24" s="113"/>
       <c r="AQ24" s="113"/>
       <c r="AR24" s="113"/>
-      <c r="AS24" s="124"/>
-      <c r="AT24" s="124"/>
-      <c r="AU24" s="124"/>
-      <c r="AV24" s="124"/>
-      <c r="AW24" s="124"/>
-      <c r="AX24" s="124"/>
-      <c r="AY24" s="124"/>
-      <c r="AZ24" s="124"/>
-      <c r="BA24" s="124"/>
-      <c r="BB24" s="124"/>
-      <c r="BC24" s="124"/>
-      <c r="BD24" s="124"/>
-      <c r="BE24" s="124"/>
-      <c r="BF24" s="124"/>
-      <c r="BG24" s="124"/>
-      <c r="BH24" s="124"/>
+      <c r="AS24" s="114"/>
+      <c r="AT24" s="114"/>
+      <c r="AU24" s="114"/>
+      <c r="AV24" s="114"/>
+      <c r="AW24" s="114"/>
+      <c r="AX24" s="114"/>
+      <c r="AY24" s="114"/>
+      <c r="AZ24" s="114"/>
+      <c r="BA24" s="114"/>
+      <c r="BB24" s="114"/>
+      <c r="BC24" s="114"/>
+      <c r="BD24" s="114"/>
+      <c r="BE24" s="114"/>
+      <c r="BF24" s="114"/>
+      <c r="BG24" s="114"/>
+      <c r="BH24" s="114"/>
       <c r="BJ24" s="24"/>
       <c r="BK24" s="24"/>
       <c r="BL24" s="24"/>
@@ -9945,110 +9922,110 @@
       <c r="BH29" s="2"/>
     </row>
     <row r="30" spans="1:93" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="117" t="s">
+      <c r="A30" s="118" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="117"/>
-      <c r="C30" s="117"/>
-      <c r="D30" s="117"/>
-      <c r="E30" s="117"/>
-      <c r="F30" s="117"/>
-      <c r="G30" s="117"/>
-      <c r="H30" s="117"/>
-      <c r="I30" s="117"/>
-      <c r="J30" s="117"/>
-      <c r="K30" s="117"/>
-      <c r="L30" s="117" t="s">
+      <c r="B30" s="118"/>
+      <c r="C30" s="118"/>
+      <c r="D30" s="118"/>
+      <c r="E30" s="118"/>
+      <c r="F30" s="118"/>
+      <c r="G30" s="118"/>
+      <c r="H30" s="118"/>
+      <c r="I30" s="118"/>
+      <c r="J30" s="118"/>
+      <c r="K30" s="118"/>
+      <c r="L30" s="118" t="s">
         <v>55</v>
       </c>
-      <c r="M30" s="117"/>
-      <c r="N30" s="117"/>
-      <c r="O30" s="117"/>
-      <c r="P30" s="117"/>
-      <c r="Q30" s="117"/>
-      <c r="R30" s="117"/>
-      <c r="S30" s="117"/>
-      <c r="T30" s="117"/>
-      <c r="U30" s="117"/>
-      <c r="V30" s="117"/>
-      <c r="W30" s="117"/>
-      <c r="X30" s="117"/>
-      <c r="Y30" s="117"/>
-      <c r="Z30" s="117"/>
-      <c r="AA30" s="117"/>
-      <c r="AB30" s="117"/>
-      <c r="AC30" s="117"/>
-      <c r="AD30" s="117"/>
-      <c r="AE30" s="117"/>
-      <c r="AF30" s="117"/>
-      <c r="AG30" s="117"/>
-      <c r="AH30" s="117"/>
-      <c r="AI30" s="117" t="s">
+      <c r="M30" s="118"/>
+      <c r="N30" s="118"/>
+      <c r="O30" s="118"/>
+      <c r="P30" s="118"/>
+      <c r="Q30" s="118"/>
+      <c r="R30" s="118"/>
+      <c r="S30" s="118"/>
+      <c r="T30" s="118"/>
+      <c r="U30" s="118"/>
+      <c r="V30" s="118"/>
+      <c r="W30" s="118"/>
+      <c r="X30" s="118"/>
+      <c r="Y30" s="118"/>
+      <c r="Z30" s="118"/>
+      <c r="AA30" s="118"/>
+      <c r="AB30" s="118"/>
+      <c r="AC30" s="118"/>
+      <c r="AD30" s="118"/>
+      <c r="AE30" s="118"/>
+      <c r="AF30" s="118"/>
+      <c r="AG30" s="118"/>
+      <c r="AH30" s="118"/>
+      <c r="AI30" s="118" t="s">
         <v>54</v>
       </c>
-      <c r="AJ30" s="117"/>
-      <c r="AK30" s="117"/>
-      <c r="AL30" s="117"/>
-      <c r="AM30" s="117"/>
-      <c r="AN30" s="117"/>
-      <c r="AO30" s="117"/>
-      <c r="AP30" s="117"/>
-      <c r="AQ30" s="117"/>
-      <c r="AR30" s="117"/>
-      <c r="AS30" s="117"/>
-      <c r="AT30" s="117"/>
-      <c r="AU30" s="117"/>
-      <c r="AV30" s="117" t="s">
+      <c r="AJ30" s="118"/>
+      <c r="AK30" s="118"/>
+      <c r="AL30" s="118"/>
+      <c r="AM30" s="118"/>
+      <c r="AN30" s="118"/>
+      <c r="AO30" s="118"/>
+      <c r="AP30" s="118"/>
+      <c r="AQ30" s="118"/>
+      <c r="AR30" s="118"/>
+      <c r="AS30" s="118"/>
+      <c r="AT30" s="118"/>
+      <c r="AU30" s="118"/>
+      <c r="AV30" s="118" t="s">
         <v>49</v>
       </c>
-      <c r="AW30" s="117"/>
-      <c r="AX30" s="117"/>
-      <c r="AY30" s="117"/>
-      <c r="AZ30" s="117"/>
-      <c r="BA30" s="117"/>
-      <c r="BB30" s="117"/>
-      <c r="BC30" s="117"/>
-      <c r="BD30" s="117"/>
-      <c r="BE30" s="117"/>
-      <c r="BF30" s="117"/>
-      <c r="BG30" s="117"/>
-      <c r="BH30" s="117"/>
+      <c r="AW30" s="118"/>
+      <c r="AX30" s="118"/>
+      <c r="AY30" s="118"/>
+      <c r="AZ30" s="118"/>
+      <c r="BA30" s="118"/>
+      <c r="BB30" s="118"/>
+      <c r="BC30" s="118"/>
+      <c r="BD30" s="118"/>
+      <c r="BE30" s="118"/>
+      <c r="BF30" s="118"/>
+      <c r="BG30" s="118"/>
+      <c r="BH30" s="118"/>
     </row>
     <row r="31" spans="1:93" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="125"/>
-      <c r="B31" s="125"/>
-      <c r="C31" s="125"/>
-      <c r="D31" s="125"/>
-      <c r="E31" s="125"/>
-      <c r="F31" s="125"/>
-      <c r="G31" s="125"/>
-      <c r="H31" s="125"/>
-      <c r="I31" s="125"/>
-      <c r="J31" s="125"/>
-      <c r="K31" s="125"/>
-      <c r="L31" s="126"/>
-      <c r="M31" s="125"/>
-      <c r="N31" s="125"/>
-      <c r="O31" s="125"/>
-      <c r="P31" s="125"/>
-      <c r="Q31" s="125"/>
-      <c r="R31" s="125"/>
-      <c r="S31" s="125"/>
-      <c r="T31" s="125"/>
-      <c r="U31" s="125"/>
-      <c r="V31" s="125"/>
-      <c r="W31" s="125"/>
-      <c r="X31" s="125"/>
-      <c r="Y31" s="125"/>
-      <c r="Z31" s="125"/>
-      <c r="AA31" s="125"/>
-      <c r="AB31" s="125"/>
-      <c r="AC31" s="125"/>
-      <c r="AD31" s="125"/>
-      <c r="AE31" s="125"/>
-      <c r="AF31" s="125"/>
-      <c r="AG31" s="125"/>
-      <c r="AH31" s="125"/>
+      <c r="A31" s="115"/>
+      <c r="B31" s="115"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="115"/>
+      <c r="E31" s="115"/>
+      <c r="F31" s="115"/>
+      <c r="G31" s="115"/>
+      <c r="H31" s="115"/>
+      <c r="I31" s="115"/>
+      <c r="J31" s="115"/>
+      <c r="K31" s="115"/>
+      <c r="L31" s="116"/>
+      <c r="M31" s="115"/>
+      <c r="N31" s="115"/>
+      <c r="O31" s="115"/>
+      <c r="P31" s="115"/>
+      <c r="Q31" s="115"/>
+      <c r="R31" s="115"/>
+      <c r="S31" s="115"/>
+      <c r="T31" s="115"/>
+      <c r="U31" s="115"/>
+      <c r="V31" s="115"/>
+      <c r="W31" s="115"/>
+      <c r="X31" s="115"/>
+      <c r="Y31" s="115"/>
+      <c r="Z31" s="115"/>
+      <c r="AA31" s="115"/>
+      <c r="AB31" s="115"/>
+      <c r="AC31" s="115"/>
+      <c r="AD31" s="115"/>
+      <c r="AE31" s="115"/>
+      <c r="AF31" s="115"/>
+      <c r="AG31" s="115"/>
+      <c r="AH31" s="115"/>
       <c r="AI31" s="111"/>
       <c r="AJ31" s="111"/>
       <c r="AK31" s="111"/>
@@ -10062,32 +10039,32 @@
       <c r="AS31" s="111"/>
       <c r="AT31" s="111"/>
       <c r="AU31" s="111"/>
-      <c r="AV31" s="127"/>
-      <c r="AW31" s="127"/>
-      <c r="AX31" s="127"/>
-      <c r="AY31" s="127"/>
-      <c r="AZ31" s="127"/>
-      <c r="BA31" s="127"/>
-      <c r="BB31" s="127"/>
-      <c r="BC31" s="127"/>
-      <c r="BD31" s="127"/>
-      <c r="BE31" s="127"/>
-      <c r="BF31" s="127"/>
-      <c r="BG31" s="127"/>
-      <c r="BH31" s="127"/>
+      <c r="AV31" s="117"/>
+      <c r="AW31" s="117"/>
+      <c r="AX31" s="117"/>
+      <c r="AY31" s="117"/>
+      <c r="AZ31" s="117"/>
+      <c r="BA31" s="117"/>
+      <c r="BB31" s="117"/>
+      <c r="BC31" s="117"/>
+      <c r="BD31" s="117"/>
+      <c r="BE31" s="117"/>
+      <c r="BF31" s="117"/>
+      <c r="BG31" s="117"/>
+      <c r="BH31" s="117"/>
     </row>
     <row r="32" spans="1:93" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="125"/>
-      <c r="B32" s="125"/>
-      <c r="C32" s="125"/>
-      <c r="D32" s="125"/>
-      <c r="E32" s="125"/>
-      <c r="F32" s="125"/>
-      <c r="G32" s="125"/>
-      <c r="H32" s="125"/>
-      <c r="I32" s="125"/>
-      <c r="J32" s="125"/>
-      <c r="K32" s="125"/>
+      <c r="A32" s="115"/>
+      <c r="B32" s="115"/>
+      <c r="C32" s="115"/>
+      <c r="D32" s="115"/>
+      <c r="E32" s="115"/>
+      <c r="F32" s="115"/>
+      <c r="G32" s="115"/>
+      <c r="H32" s="115"/>
+      <c r="I32" s="115"/>
+      <c r="J32" s="115"/>
+      <c r="K32" s="115"/>
       <c r="L32" s="113"/>
       <c r="M32" s="113"/>
       <c r="N32" s="113"/>
@@ -10636,68 +10613,167 @@
     </row>
   </sheetData>
   <mergeCells count="247">
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:L24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="T24:X24"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="AC24:AJ24"/>
-    <mergeCell ref="AK24:AR24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="T23:X23"/>
-    <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="AA23:AB23"/>
-    <mergeCell ref="AC23:AJ23"/>
-    <mergeCell ref="AK23:AR23"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:L22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="T22:X22"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="AC22:AJ22"/>
-    <mergeCell ref="AK22:AR22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:L21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="T21:X21"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="AC21:AJ21"/>
-    <mergeCell ref="AK21:AR21"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AC18:AJ18"/>
-    <mergeCell ref="AK18:AR18"/>
-    <mergeCell ref="AS18:BH18"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:L20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="T20:X20"/>
-    <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="AC20:AJ20"/>
-    <mergeCell ref="AK20:AR20"/>
-    <mergeCell ref="A37:K37"/>
-    <mergeCell ref="L37:AH37"/>
-    <mergeCell ref="AI37:AU37"/>
-    <mergeCell ref="AV37:BH37"/>
-    <mergeCell ref="A38:K38"/>
-    <mergeCell ref="L38:AH38"/>
-    <mergeCell ref="AI38:AU38"/>
-    <mergeCell ref="AV38:BH38"/>
-    <mergeCell ref="A39:K39"/>
-    <mergeCell ref="L39:AH39"/>
-    <mergeCell ref="AI39:AU39"/>
-    <mergeCell ref="AV39:BH39"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:L16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:L15"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="BB1:BH1"/>
+    <mergeCell ref="BB2:BH2"/>
+    <mergeCell ref="AU1:BA1"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:L13"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="C14:L14"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:L7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:L10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:L9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="T7:X7"/>
+    <mergeCell ref="T8:X8"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AG1:AM1"/>
+    <mergeCell ref="AN1:AT1"/>
+    <mergeCell ref="AG2:AM2"/>
+    <mergeCell ref="AN2:AT2"/>
+    <mergeCell ref="S1:AF1"/>
+    <mergeCell ref="S2:AF2"/>
+    <mergeCell ref="A4:B6"/>
+    <mergeCell ref="C4:L6"/>
+    <mergeCell ref="M4:P6"/>
+    <mergeCell ref="Q4:R6"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="S4:AB4"/>
+    <mergeCell ref="T5:X6"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="Y5:AB5"/>
+    <mergeCell ref="AC4:AR4"/>
+    <mergeCell ref="AK5:AR6"/>
+    <mergeCell ref="AC5:AJ6"/>
+    <mergeCell ref="AS4:BH6"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="T11:X11"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="T9:X9"/>
+    <mergeCell ref="T10:X10"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AC15:AJ15"/>
+    <mergeCell ref="T14:X14"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="T12:X12"/>
+    <mergeCell ref="T13:X13"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="AC13:AJ13"/>
+    <mergeCell ref="AC7:AJ7"/>
+    <mergeCell ref="AC8:AJ8"/>
+    <mergeCell ref="AC9:AJ9"/>
+    <mergeCell ref="AC10:AJ10"/>
+    <mergeCell ref="AC11:AJ11"/>
+    <mergeCell ref="AC12:AJ12"/>
+    <mergeCell ref="AK7:AR7"/>
+    <mergeCell ref="AK8:AR8"/>
+    <mergeCell ref="AK9:AR9"/>
+    <mergeCell ref="AK10:AR10"/>
+    <mergeCell ref="AK11:AR11"/>
+    <mergeCell ref="AK12:AR12"/>
+    <mergeCell ref="AK13:AR13"/>
+    <mergeCell ref="AC14:AJ14"/>
+    <mergeCell ref="AK14:AR14"/>
+    <mergeCell ref="AC19:AJ19"/>
+    <mergeCell ref="AK19:AR19"/>
+    <mergeCell ref="AS19:BH19"/>
+    <mergeCell ref="AS20:BH20"/>
+    <mergeCell ref="AS21:BH21"/>
+    <mergeCell ref="AK15:AR15"/>
+    <mergeCell ref="AC16:AJ16"/>
+    <mergeCell ref="AK16:AR16"/>
+    <mergeCell ref="AV30:BH30"/>
+    <mergeCell ref="A30:K30"/>
+    <mergeCell ref="AI30:AU30"/>
+    <mergeCell ref="L30:AH30"/>
+    <mergeCell ref="AS15:BH15"/>
+    <mergeCell ref="AS16:BH16"/>
+    <mergeCell ref="T16:X16"/>
+    <mergeCell ref="T15:X15"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:L19"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="T19:X19"/>
+    <mergeCell ref="Y19:Z19"/>
+    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="AS22:BH22"/>
+    <mergeCell ref="AS23:BH23"/>
+    <mergeCell ref="AS24:BH24"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="T18:X18"/>
+    <mergeCell ref="A34:K34"/>
+    <mergeCell ref="L34:AH34"/>
+    <mergeCell ref="AI34:AU34"/>
+    <mergeCell ref="AV34:BH34"/>
+    <mergeCell ref="A35:K35"/>
+    <mergeCell ref="L35:AH35"/>
+    <mergeCell ref="AI35:AU35"/>
+    <mergeCell ref="AV35:BH35"/>
+    <mergeCell ref="A31:K31"/>
+    <mergeCell ref="L31:AH31"/>
+    <mergeCell ref="AI31:AU31"/>
+    <mergeCell ref="AV31:BH31"/>
+    <mergeCell ref="A32:K32"/>
+    <mergeCell ref="L32:AH32"/>
+    <mergeCell ref="AI32:AU32"/>
+    <mergeCell ref="AV32:BH32"/>
+    <mergeCell ref="A33:K33"/>
+    <mergeCell ref="L33:AH33"/>
+    <mergeCell ref="AI33:AU33"/>
+    <mergeCell ref="AV33:BH33"/>
     <mergeCell ref="AS7:BH7"/>
     <mergeCell ref="AS8:BH8"/>
     <mergeCell ref="AS9:BH9"/>
@@ -10722,167 +10798,68 @@
     <mergeCell ref="AS17:BH17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="C18:L18"/>
-    <mergeCell ref="A34:K34"/>
-    <mergeCell ref="L34:AH34"/>
-    <mergeCell ref="AI34:AU34"/>
-    <mergeCell ref="AV34:BH34"/>
-    <mergeCell ref="A35:K35"/>
-    <mergeCell ref="L35:AH35"/>
-    <mergeCell ref="AI35:AU35"/>
-    <mergeCell ref="AV35:BH35"/>
-    <mergeCell ref="A31:K31"/>
-    <mergeCell ref="L31:AH31"/>
-    <mergeCell ref="AI31:AU31"/>
-    <mergeCell ref="AV31:BH31"/>
-    <mergeCell ref="A32:K32"/>
-    <mergeCell ref="L32:AH32"/>
-    <mergeCell ref="AI32:AU32"/>
-    <mergeCell ref="AV32:BH32"/>
-    <mergeCell ref="A33:K33"/>
-    <mergeCell ref="L33:AH33"/>
-    <mergeCell ref="AI33:AU33"/>
-    <mergeCell ref="AV33:BH33"/>
-    <mergeCell ref="AV30:BH30"/>
-    <mergeCell ref="A30:K30"/>
-    <mergeCell ref="AI30:AU30"/>
-    <mergeCell ref="L30:AH30"/>
-    <mergeCell ref="AS15:BH15"/>
-    <mergeCell ref="AS16:BH16"/>
-    <mergeCell ref="T16:X16"/>
-    <mergeCell ref="T15:X15"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:L19"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="T19:X19"/>
-    <mergeCell ref="Y19:Z19"/>
-    <mergeCell ref="AA19:AB19"/>
-    <mergeCell ref="AS22:BH22"/>
-    <mergeCell ref="AS23:BH23"/>
-    <mergeCell ref="AS24:BH24"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="T18:X18"/>
-    <mergeCell ref="AK13:AR13"/>
-    <mergeCell ref="AC14:AJ14"/>
-    <mergeCell ref="AK14:AR14"/>
-    <mergeCell ref="AC19:AJ19"/>
-    <mergeCell ref="AK19:AR19"/>
-    <mergeCell ref="AS19:BH19"/>
-    <mergeCell ref="AS20:BH20"/>
-    <mergeCell ref="AS21:BH21"/>
-    <mergeCell ref="AK15:AR15"/>
-    <mergeCell ref="AC16:AJ16"/>
-    <mergeCell ref="AK16:AR16"/>
-    <mergeCell ref="AC7:AJ7"/>
-    <mergeCell ref="AC8:AJ8"/>
-    <mergeCell ref="AC9:AJ9"/>
-    <mergeCell ref="AC10:AJ10"/>
-    <mergeCell ref="AC11:AJ11"/>
-    <mergeCell ref="AC12:AJ12"/>
-    <mergeCell ref="AK7:AR7"/>
-    <mergeCell ref="AK8:AR8"/>
-    <mergeCell ref="AK9:AR9"/>
-    <mergeCell ref="AK10:AR10"/>
-    <mergeCell ref="AK11:AR11"/>
-    <mergeCell ref="AK12:AR12"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AC15:AJ15"/>
-    <mergeCell ref="T14:X14"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="T12:X12"/>
-    <mergeCell ref="T13:X13"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="AC13:AJ13"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="T11:X11"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="T9:X9"/>
-    <mergeCell ref="T10:X10"/>
-    <mergeCell ref="AG1:AM1"/>
-    <mergeCell ref="AN1:AT1"/>
-    <mergeCell ref="AG2:AM2"/>
-    <mergeCell ref="AN2:AT2"/>
-    <mergeCell ref="S1:AF1"/>
-    <mergeCell ref="S2:AF2"/>
-    <mergeCell ref="A4:B6"/>
-    <mergeCell ref="C4:L6"/>
-    <mergeCell ref="M4:P6"/>
-    <mergeCell ref="Q4:R6"/>
-    <mergeCell ref="L2:R2"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="S4:AB4"/>
-    <mergeCell ref="T5:X6"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="Y5:AB5"/>
-    <mergeCell ref="AC4:AR4"/>
-    <mergeCell ref="AK5:AR6"/>
-    <mergeCell ref="AC5:AJ6"/>
-    <mergeCell ref="AS4:BH6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:L7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:L10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:L9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="T7:X7"/>
-    <mergeCell ref="T8:X8"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:L13"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="C14:L14"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:L16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:L15"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="BB1:BH1"/>
-    <mergeCell ref="BB2:BH2"/>
-    <mergeCell ref="AU1:BA1"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="A37:K37"/>
+    <mergeCell ref="L37:AH37"/>
+    <mergeCell ref="AI37:AU37"/>
+    <mergeCell ref="AV37:BH37"/>
+    <mergeCell ref="A38:K38"/>
+    <mergeCell ref="L38:AH38"/>
+    <mergeCell ref="AI38:AU38"/>
+    <mergeCell ref="AV38:BH38"/>
+    <mergeCell ref="A39:K39"/>
+    <mergeCell ref="L39:AH39"/>
+    <mergeCell ref="AI39:AU39"/>
+    <mergeCell ref="AV39:BH39"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AC18:AJ18"/>
+    <mergeCell ref="AK18:AR18"/>
+    <mergeCell ref="AS18:BH18"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:L20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="T20:X20"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="AC20:AJ20"/>
+    <mergeCell ref="AK20:AR20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:L21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="T21:X21"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="AC21:AJ21"/>
+    <mergeCell ref="AK21:AR21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:L22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="T22:X22"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="AC22:AJ22"/>
+    <mergeCell ref="AK22:AR22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="T23:X23"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="AC23:AJ23"/>
+    <mergeCell ref="AK23:AR23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="T24:X24"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="AC24:AJ24"/>
+    <mergeCell ref="AK24:AR24"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10898,10 +10875,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AX67"/>
+  <dimension ref="A1:AX70"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="R47" sqref="R47"/>
+      <selection activeCell="AO48" sqref="AO48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10910,19 +10887,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="136" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
       <c r="L1" s="104" t="s">
         <v>4</v>
       </c>
@@ -10947,47 +10924,47 @@
       <c r="AB1" s="105"/>
       <c r="AC1" s="105"/>
       <c r="AD1" s="105"/>
-      <c r="AE1" s="134" t="s">
+      <c r="AE1" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="AF1" s="134"/>
-      <c r="AG1" s="134"/>
-      <c r="AH1" s="135"/>
-      <c r="AI1" s="136" t="s">
+      <c r="AF1" s="131"/>
+      <c r="AG1" s="131"/>
+      <c r="AH1" s="132"/>
+      <c r="AI1" s="128" t="s">
         <v>88</v>
       </c>
-      <c r="AJ1" s="137"/>
-      <c r="AK1" s="137"/>
-      <c r="AL1" s="137"/>
-      <c r="AM1" s="137"/>
-      <c r="AN1" s="138"/>
-      <c r="AO1" s="110" t="s">
+      <c r="AJ1" s="129"/>
+      <c r="AK1" s="129"/>
+      <c r="AL1" s="129"/>
+      <c r="AM1" s="129"/>
+      <c r="AN1" s="130"/>
+      <c r="AO1" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="AP1" s="140"/>
-      <c r="AQ1" s="140"/>
-      <c r="AR1" s="141"/>
-      <c r="AS1" s="136" t="s">
+      <c r="AP1" s="134"/>
+      <c r="AQ1" s="134"/>
+      <c r="AR1" s="135"/>
+      <c r="AS1" s="128" t="s">
         <v>88</v>
       </c>
-      <c r="AT1" s="137"/>
-      <c r="AU1" s="137"/>
-      <c r="AV1" s="137"/>
-      <c r="AW1" s="137"/>
-      <c r="AX1" s="138"/>
+      <c r="AT1" s="129"/>
+      <c r="AU1" s="129"/>
+      <c r="AV1" s="129"/>
+      <c r="AW1" s="129"/>
+      <c r="AX1" s="130"/>
     </row>
     <row r="2" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="132"/>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
+      <c r="A2" s="138"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
       <c r="L2" s="104" t="s">
         <v>12</v>
       </c>
@@ -11009,35 +10986,35 @@
       <c r="AB2" s="105"/>
       <c r="AC2" s="105"/>
       <c r="AD2" s="105"/>
-      <c r="AE2" s="134" t="s">
+      <c r="AE2" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="AF2" s="134"/>
-      <c r="AG2" s="134"/>
-      <c r="AH2" s="135"/>
-      <c r="AI2" s="139">
+      <c r="AF2" s="131"/>
+      <c r="AG2" s="131"/>
+      <c r="AH2" s="132"/>
+      <c r="AI2" s="133">
         <v>44532</v>
       </c>
-      <c r="AJ2" s="137"/>
-      <c r="AK2" s="137"/>
-      <c r="AL2" s="137"/>
-      <c r="AM2" s="137"/>
-      <c r="AN2" s="138"/>
-      <c r="AO2" s="110" t="s">
+      <c r="AJ2" s="129"/>
+      <c r="AK2" s="129"/>
+      <c r="AL2" s="129"/>
+      <c r="AM2" s="129"/>
+      <c r="AN2" s="130"/>
+      <c r="AO2" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="AP2" s="140"/>
-      <c r="AQ2" s="140"/>
-      <c r="AR2" s="141"/>
-      <c r="AS2" s="139">
+      <c r="AP2" s="134"/>
+      <c r="AQ2" s="134"/>
+      <c r="AR2" s="135"/>
+      <c r="AS2" s="133">
         <f>'0.表紙'!O29</f>
         <v>44533</v>
       </c>
-      <c r="AT2" s="137"/>
-      <c r="AU2" s="137"/>
-      <c r="AV2" s="137"/>
-      <c r="AW2" s="137"/>
-      <c r="AX2" s="138"/>
+      <c r="AT2" s="129"/>
+      <c r="AU2" s="129"/>
+      <c r="AV2" s="129"/>
+      <c r="AW2" s="129"/>
+      <c r="AX2" s="130"/>
     </row>
     <row r="3" spans="1:50" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="27"/>
@@ -11147,22 +11124,22 @@
     </row>
     <row r="5" spans="1:50" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="30"/>
-      <c r="B5" s="129" t="s">
+      <c r="B5" s="140" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="129"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="129"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="129"/>
-      <c r="H5" s="129"/>
-      <c r="I5" s="119" t="s">
+      <c r="C5" s="140"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="140"/>
+      <c r="I5" s="122" t="s">
         <v>64</v>
       </c>
-      <c r="J5" s="119"/>
-      <c r="K5" s="119"/>
-      <c r="L5" s="119"/>
-      <c r="M5" s="119"/>
+      <c r="J5" s="122"/>
+      <c r="K5" s="122"/>
+      <c r="L5" s="122"/>
+      <c r="M5" s="122"/>
       <c r="N5" s="25" t="s">
         <v>59</v>
       </c>
@@ -11211,22 +11188,22 @@
     </row>
     <row r="6" spans="1:50" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="30"/>
-      <c r="B6" s="128" t="s">
+      <c r="B6" s="141" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="128"/>
-      <c r="H6" s="128"/>
-      <c r="I6" s="126" t="s">
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="J6" s="126"/>
-      <c r="K6" s="126"/>
-      <c r="L6" s="126"/>
-      <c r="M6" s="126"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="116"/>
+      <c r="L6" s="116"/>
+      <c r="M6" s="116"/>
       <c r="N6" s="26"/>
       <c r="O6" s="26" t="s">
         <v>51</v>
@@ -11269,18 +11246,18 @@
     </row>
     <row r="7" spans="1:50" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="30"/>
-      <c r="B7" s="128"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="128"/>
-      <c r="G7" s="128"/>
-      <c r="H7" s="128"/>
-      <c r="I7" s="126"/>
-      <c r="J7" s="126"/>
-      <c r="K7" s="126"/>
-      <c r="L7" s="126"/>
-      <c r="M7" s="126"/>
+      <c r="B7" s="141"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="116"/>
+      <c r="M7" s="116"/>
       <c r="N7" s="26"/>
       <c r="O7" s="26"/>
       <c r="P7" s="26"/>
@@ -11321,18 +11298,18 @@
     </row>
     <row r="8" spans="1:50" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="30"/>
-      <c r="B8" s="128"/>
-      <c r="C8" s="128"/>
-      <c r="D8" s="128"/>
-      <c r="E8" s="128"/>
-      <c r="F8" s="128"/>
-      <c r="G8" s="128"/>
-      <c r="H8" s="128"/>
-      <c r="I8" s="126"/>
-      <c r="J8" s="126"/>
-      <c r="K8" s="126"/>
-      <c r="L8" s="126"/>
-      <c r="M8" s="126"/>
+      <c r="B8" s="141"/>
+      <c r="C8" s="141"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="141"/>
+      <c r="F8" s="141"/>
+      <c r="G8" s="141"/>
+      <c r="H8" s="141"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="116"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="116"/>
       <c r="N8" s="26"/>
       <c r="O8" s="26"/>
       <c r="P8" s="26"/>
@@ -11373,18 +11350,18 @@
     </row>
     <row r="9" spans="1:50" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="30"/>
-      <c r="B9" s="128"/>
-      <c r="C9" s="128"/>
-      <c r="D9" s="128"/>
-      <c r="E9" s="128"/>
-      <c r="F9" s="128"/>
-      <c r="G9" s="128"/>
-      <c r="H9" s="128"/>
-      <c r="I9" s="126"/>
-      <c r="J9" s="126"/>
-      <c r="K9" s="126"/>
-      <c r="L9" s="126"/>
-      <c r="M9" s="126"/>
+      <c r="B9" s="141"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="141"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="116"/>
+      <c r="M9" s="116"/>
       <c r="N9" s="26"/>
       <c r="O9" s="26"/>
       <c r="P9" s="26"/>
@@ -11425,18 +11402,18 @@
     </row>
     <row r="10" spans="1:50" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="30"/>
-      <c r="B10" s="128"/>
-      <c r="C10" s="128"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
-      <c r="F10" s="128"/>
-      <c r="G10" s="128"/>
-      <c r="H10" s="128"/>
-      <c r="I10" s="126"/>
-      <c r="J10" s="126"/>
-      <c r="K10" s="126"/>
-      <c r="L10" s="126"/>
-      <c r="M10" s="126"/>
+      <c r="B10" s="141"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="141"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="141"/>
+      <c r="H10" s="141"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="116"/>
+      <c r="K10" s="116"/>
+      <c r="L10" s="116"/>
+      <c r="M10" s="116"/>
       <c r="N10" s="26"/>
       <c r="O10" s="26"/>
       <c r="P10" s="26"/>
@@ -11584,7 +11561,7 @@
     <row r="13" spans="1:50" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="36"/>
       <c r="B13" s="36" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C13" s="36"/>
       <c r="D13" s="36"/>
@@ -11637,9 +11614,7 @@
     </row>
     <row r="14" spans="1:50" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="36"/>
-      <c r="B14" s="36" t="s">
-        <v>106</v>
-      </c>
+      <c r="B14" s="36"/>
       <c r="C14" s="36"/>
       <c r="D14" s="36"/>
       <c r="E14" s="36"/>
@@ -11690,7 +11665,9 @@
       <c r="AX14" s="36"/>
     </row>
     <row r="15" spans="1:50" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="36"/>
+      <c r="A15" s="38" t="s">
+        <v>107</v>
+      </c>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
       <c r="D15" s="36"/>
@@ -11742,119 +11719,117 @@
       <c r="AX15" s="36"/>
     </row>
     <row r="16" spans="1:50" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="36"/>
+      <c r="B16" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="36"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="36"/>
+      <c r="Y16" s="36"/>
+      <c r="Z16" s="36"/>
+      <c r="AA16" s="36"/>
+      <c r="AB16" s="36"/>
+      <c r="AC16" s="36"/>
+      <c r="AD16" s="36"/>
+      <c r="AE16" s="36"/>
+      <c r="AF16" s="36"/>
+      <c r="AG16" s="36"/>
+      <c r="AH16" s="36"/>
+      <c r="AI16" s="36"/>
+      <c r="AJ16" s="36"/>
+      <c r="AK16" s="36"/>
+      <c r="AL16" s="36"/>
+      <c r="AM16" s="36"/>
+      <c r="AN16" s="36"/>
+      <c r="AO16" s="36"/>
+      <c r="AP16" s="36"/>
+      <c r="AQ16" s="36"/>
+      <c r="AR16" s="36"/>
+      <c r="AS16" s="36"/>
+      <c r="AT16" s="36"/>
+      <c r="AU16" s="36"/>
+      <c r="AV16" s="36"/>
+      <c r="AW16" s="36"/>
+      <c r="AX16" s="36"/>
+    </row>
+    <row r="17" spans="1:50" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="36"/>
+      <c r="Y17" s="36"/>
+      <c r="Z17" s="36"/>
+      <c r="AA17" s="36"/>
+      <c r="AB17" s="36"/>
+      <c r="AC17" s="36"/>
+      <c r="AD17" s="36"/>
+      <c r="AE17" s="36"/>
+      <c r="AF17" s="36"/>
+      <c r="AG17" s="36"/>
+      <c r="AH17" s="36"/>
+      <c r="AI17" s="36"/>
+      <c r="AJ17" s="36"/>
+      <c r="AK17" s="36"/>
+      <c r="AL17" s="36"/>
+      <c r="AM17" s="36"/>
+      <c r="AN17" s="36"/>
+      <c r="AO17" s="36"/>
+      <c r="AP17" s="36"/>
+      <c r="AQ17" s="36"/>
+      <c r="AR17" s="36"/>
+      <c r="AS17" s="36"/>
+      <c r="AT17" s="36"/>
+      <c r="AU17" s="36"/>
+      <c r="AV17" s="36"/>
+      <c r="AW17" s="36"/>
+      <c r="AX17" s="36"/>
+    </row>
+    <row r="18" spans="1:50" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="39"/>
-      <c r="S16" s="39"/>
-      <c r="T16" s="39"/>
-      <c r="U16" s="39"/>
-      <c r="V16" s="39"/>
-      <c r="W16" s="39"/>
-      <c r="X16" s="39"/>
-      <c r="Y16" s="39"/>
-      <c r="Z16" s="39"/>
-      <c r="AA16" s="39"/>
-      <c r="AB16" s="39"/>
-      <c r="AC16" s="39"/>
-      <c r="AD16" s="39"/>
-      <c r="AE16" s="39"/>
-      <c r="AF16" s="39"/>
-      <c r="AG16" s="39"/>
-      <c r="AH16" s="39"/>
-      <c r="AI16" s="39"/>
-      <c r="AJ16" s="39"/>
-      <c r="AK16" s="39"/>
-      <c r="AL16" s="39"/>
-      <c r="AM16" s="39"/>
-      <c r="AN16" s="39"/>
-      <c r="AO16" s="39"/>
-      <c r="AP16" s="39"/>
-      <c r="AQ16" s="39"/>
-      <c r="AR16" s="39"/>
-      <c r="AS16" s="39"/>
-      <c r="AT16" s="39"/>
-      <c r="AU16" s="39"/>
-      <c r="AV16" s="39"/>
-      <c r="AW16" s="39"/>
-      <c r="AX16" s="39"/>
-    </row>
-    <row r="17" spans="1:50" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="39"/>
-      <c r="B17" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="39"/>
-      <c r="S17" s="39"/>
-      <c r="T17" s="39"/>
-      <c r="U17" s="39"/>
-      <c r="V17" s="39"/>
-      <c r="W17" s="39"/>
-      <c r="X17" s="39"/>
-      <c r="Y17" s="39"/>
-      <c r="Z17" s="39"/>
-      <c r="AA17" s="39"/>
-      <c r="AB17" s="39"/>
-      <c r="AC17" s="39"/>
-      <c r="AD17" s="39"/>
-      <c r="AE17" s="39"/>
-      <c r="AF17" s="39"/>
-      <c r="AG17" s="39"/>
-      <c r="AH17" s="39"/>
-      <c r="AI17" s="39"/>
-      <c r="AJ17" s="39"/>
-      <c r="AK17" s="39"/>
-      <c r="AL17" s="39"/>
-      <c r="AM17" s="39"/>
-      <c r="AN17" s="39"/>
-      <c r="AO17" s="39"/>
-      <c r="AP17" s="39"/>
-      <c r="AQ17" s="39"/>
-      <c r="AR17" s="39"/>
-      <c r="AS17" s="39"/>
-      <c r="AT17" s="39"/>
-      <c r="AU17" s="39"/>
-      <c r="AV17" s="39"/>
-      <c r="AW17" s="39"/>
-      <c r="AX17" s="39"/>
-    </row>
-    <row r="18" spans="1:50" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="39"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="39" t="s">
-        <v>80</v>
-      </c>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
       <c r="D18" s="39"/>
       <c r="E18" s="39"/>
       <c r="F18" s="39"/>
@@ -11905,7 +11880,9 @@
     </row>
     <row r="19" spans="1:50" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="39"/>
-      <c r="B19" s="39"/>
+      <c r="B19" s="40" t="s">
+        <v>86</v>
+      </c>
       <c r="C19" s="39"/>
       <c r="D19" s="39"/>
       <c r="E19" s="39"/>
@@ -11957,10 +11934,10 @@
     </row>
     <row r="20" spans="1:50" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="39"/>
-      <c r="B20" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="C20" s="39"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="39" t="s">
+        <v>80</v>
+      </c>
       <c r="D20" s="39"/>
       <c r="E20" s="39"/>
       <c r="F20" s="39"/>
@@ -12012,9 +11989,7 @@
     <row r="21" spans="1:50" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="39"/>
       <c r="B21" s="39"/>
-      <c r="C21" s="39" t="s">
-        <v>105</v>
-      </c>
+      <c r="C21" s="39"/>
       <c r="D21" s="39"/>
       <c r="E21" s="39"/>
       <c r="F21" s="39"/>
@@ -12065,7 +12040,10 @@
     </row>
     <row r="22" spans="1:50" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="39"/>
-      <c r="B22" s="39"/>
+      <c r="B22" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="39"/>
       <c r="D22" s="39"/>
       <c r="E22" s="39"/>
       <c r="F22" s="39"/>
@@ -12116,10 +12094,10 @@
     </row>
     <row r="23" spans="1:50" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="39"/>
-      <c r="B23" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="C23" s="39"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39" t="s">
+        <v>102</v>
+      </c>
       <c r="D23" s="39"/>
       <c r="E23" s="39"/>
       <c r="F23" s="39"/>
@@ -12171,9 +12149,6 @@
     <row r="24" spans="1:50" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="39"/>
       <c r="B24" s="39"/>
-      <c r="C24" s="39" t="s">
-        <v>92</v>
-      </c>
       <c r="D24" s="39"/>
       <c r="E24" s="39"/>
       <c r="F24" s="39"/>
@@ -12224,10 +12199,10 @@
     </row>
     <row r="25" spans="1:50" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="39"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39" t="s">
-        <v>81</v>
-      </c>
+      <c r="B25" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="39"/>
       <c r="D25" s="39"/>
       <c r="E25" s="39"/>
       <c r="F25" s="39"/>
@@ -12280,7 +12255,7 @@
       <c r="A26" s="39"/>
       <c r="B26" s="39"/>
       <c r="C26" s="39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D26" s="39"/>
       <c r="E26" s="39"/>
@@ -12333,7 +12308,9 @@
     <row r="27" spans="1:50" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="39"/>
       <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
+      <c r="C27" s="39" t="s">
+        <v>81</v>
+      </c>
       <c r="D27" s="39"/>
       <c r="E27" s="39"/>
       <c r="F27" s="39"/>
@@ -12385,10 +12362,10 @@
     <row r="28" spans="1:50" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="39"/>
       <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="40" t="s">
-        <v>95</v>
-      </c>
+      <c r="C28" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="39"/>
       <c r="E28" s="39"/>
       <c r="F28" s="39"/>
       <c r="G28" s="39"/>
@@ -12440,10 +12417,8 @@
       <c r="A29" s="39"/>
       <c r="B29" s="39"/>
       <c r="C29" s="39"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="39" t="s">
-        <v>94</v>
-      </c>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
       <c r="F29" s="39"/>
       <c r="G29" s="39"/>
       <c r="H29" s="39"/>
@@ -12494,10 +12469,10 @@
       <c r="A30" s="39"/>
       <c r="B30" s="39"/>
       <c r="C30" s="39"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="39" t="s">
-        <v>100</v>
-      </c>
+      <c r="D30" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" s="39"/>
       <c r="F30" s="39"/>
       <c r="G30" s="39"/>
       <c r="H30" s="39"/>
@@ -12549,7 +12524,9 @@
       <c r="B31" s="39"/>
       <c r="C31" s="39"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="39"/>
+      <c r="E31" s="39" t="s">
+        <v>94</v>
+      </c>
       <c r="F31" s="39"/>
       <c r="G31" s="39"/>
       <c r="H31" s="39"/>
@@ -12602,7 +12579,7 @@
       <c r="C32" s="39"/>
       <c r="D32" s="40"/>
       <c r="E32" s="39" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F32" s="39"/>
       <c r="G32" s="39"/>
@@ -12665,35 +12642,33 @@
       <c r="L33" s="39"/>
       <c r="M33" s="39"/>
       <c r="N33" s="39"/>
-      <c r="O33" s="67" t="s">
-        <v>82</v>
-      </c>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="41"/>
-      <c r="S33" s="41"/>
-      <c r="T33" s="41"/>
-      <c r="U33" s="41"/>
-      <c r="V33" s="41"/>
-      <c r="W33" s="41"/>
-      <c r="X33" s="41"/>
-      <c r="Y33" s="41"/>
-      <c r="Z33" s="41"/>
-      <c r="AA33" s="41"/>
-      <c r="AB33" s="41"/>
-      <c r="AC33" s="41"/>
-      <c r="AD33" s="41"/>
-      <c r="AE33" s="41"/>
-      <c r="AF33" s="41"/>
-      <c r="AG33" s="41"/>
-      <c r="AH33" s="41"/>
-      <c r="AI33" s="41"/>
-      <c r="AJ33" s="41"/>
-      <c r="AK33" s="41"/>
-      <c r="AL33" s="41"/>
-      <c r="AM33" s="41"/>
-      <c r="AN33" s="41"/>
-      <c r="AO33" s="42"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="39"/>
+      <c r="R33" s="39"/>
+      <c r="S33" s="39"/>
+      <c r="T33" s="39"/>
+      <c r="U33" s="39"/>
+      <c r="V33" s="39"/>
+      <c r="W33" s="39"/>
+      <c r="X33" s="39"/>
+      <c r="Y33" s="39"/>
+      <c r="Z33" s="39"/>
+      <c r="AA33" s="39"/>
+      <c r="AB33" s="39"/>
+      <c r="AC33" s="39"/>
+      <c r="AD33" s="39"/>
+      <c r="AE33" s="39"/>
+      <c r="AF33" s="39"/>
+      <c r="AG33" s="39"/>
+      <c r="AH33" s="39"/>
+      <c r="AI33" s="39"/>
+      <c r="AJ33" s="39"/>
+      <c r="AK33" s="39"/>
+      <c r="AL33" s="39"/>
+      <c r="AM33" s="39"/>
+      <c r="AN33" s="39"/>
+      <c r="AO33" s="39"/>
       <c r="AP33" s="39"/>
       <c r="AQ33" s="39"/>
       <c r="AR33" s="39"/>
@@ -12708,8 +12683,10 @@
       <c r="A34" s="39"/>
       <c r="B34" s="39"/>
       <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="39" t="s">
+        <v>106</v>
+      </c>
       <c r="F34" s="39"/>
       <c r="G34" s="39"/>
       <c r="H34" s="39"/>
@@ -12760,9 +12737,7 @@
       <c r="A35" s="39"/>
       <c r="B35" s="39"/>
       <c r="C35" s="39"/>
-      <c r="D35" s="40" t="s">
-        <v>70</v>
-      </c>
+      <c r="D35" s="40"/>
       <c r="E35" s="39"/>
       <c r="F35" s="39"/>
       <c r="G35" s="39"/>
@@ -12773,33 +12748,35 @@
       <c r="L35" s="39"/>
       <c r="M35" s="39"/>
       <c r="N35" s="39"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="39"/>
-      <c r="Q35" s="39"/>
-      <c r="R35" s="39"/>
-      <c r="S35" s="39"/>
-      <c r="T35" s="39"/>
-      <c r="U35" s="39"/>
-      <c r="V35" s="39"/>
-      <c r="W35" s="39"/>
-      <c r="X35" s="39"/>
-      <c r="Y35" s="39"/>
-      <c r="Z35" s="39"/>
-      <c r="AA35" s="39"/>
-      <c r="AB35" s="39"/>
-      <c r="AC35" s="39"/>
-      <c r="AD35" s="39"/>
-      <c r="AE35" s="39"/>
-      <c r="AF35" s="39"/>
-      <c r="AG35" s="39"/>
-      <c r="AH35" s="39"/>
-      <c r="AI35" s="39"/>
-      <c r="AJ35" s="39"/>
-      <c r="AK35" s="39"/>
-      <c r="AL35" s="39"/>
-      <c r="AM35" s="39"/>
-      <c r="AN35" s="39"/>
-      <c r="AO35" s="39"/>
+      <c r="O35" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="41"/>
+      <c r="S35" s="41"/>
+      <c r="T35" s="41"/>
+      <c r="U35" s="41"/>
+      <c r="V35" s="41"/>
+      <c r="W35" s="41"/>
+      <c r="X35" s="41"/>
+      <c r="Y35" s="41"/>
+      <c r="Z35" s="41"/>
+      <c r="AA35" s="41"/>
+      <c r="AB35" s="41"/>
+      <c r="AC35" s="41"/>
+      <c r="AD35" s="41"/>
+      <c r="AE35" s="41"/>
+      <c r="AF35" s="41"/>
+      <c r="AG35" s="41"/>
+      <c r="AH35" s="41"/>
+      <c r="AI35" s="41"/>
+      <c r="AJ35" s="41"/>
+      <c r="AK35" s="41"/>
+      <c r="AL35" s="41"/>
+      <c r="AM35" s="41"/>
+      <c r="AN35" s="41"/>
+      <c r="AO35" s="42"/>
       <c r="AP35" s="39"/>
       <c r="AQ35" s="39"/>
       <c r="AR35" s="39"/>
@@ -12814,10 +12791,8 @@
       <c r="A36" s="39"/>
       <c r="B36" s="39"/>
       <c r="C36" s="39"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="39" t="s">
-        <v>96</v>
-      </c>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
       <c r="F36" s="39"/>
       <c r="G36" s="39"/>
       <c r="H36" s="39"/>
@@ -12868,7 +12843,9 @@
       <c r="A37" s="39"/>
       <c r="B37" s="39"/>
       <c r="C37" s="39"/>
-      <c r="D37" s="40"/>
+      <c r="D37" s="40" t="s">
+        <v>70</v>
+      </c>
       <c r="E37" s="39"/>
       <c r="F37" s="39"/>
       <c r="G37" s="39"/>
@@ -12920,45 +12897,43 @@
       <c r="A38" s="39"/>
       <c r="B38" s="39"/>
       <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="52" t="s">
-        <v>108</v>
-      </c>
-      <c r="L38" s="53"/>
-      <c r="M38" s="53"/>
-      <c r="N38" s="53"/>
-      <c r="O38" s="53"/>
-      <c r="P38" s="53"/>
-      <c r="Q38" s="53"/>
-      <c r="R38" s="53"/>
-      <c r="S38" s="53"/>
-      <c r="T38" s="53"/>
-      <c r="U38" s="53"/>
-      <c r="V38" s="53"/>
-      <c r="W38" s="53"/>
-      <c r="X38" s="53"/>
-      <c r="Y38" s="53"/>
-      <c r="Z38" s="53"/>
-      <c r="AA38" s="53"/>
-      <c r="AB38" s="43"/>
-      <c r="AC38" s="43"/>
-      <c r="AD38" s="43"/>
-      <c r="AE38" s="43"/>
-      <c r="AF38" s="43"/>
-      <c r="AG38" s="43"/>
-      <c r="AH38" s="43"/>
-      <c r="AI38" s="43"/>
-      <c r="AJ38" s="43"/>
-      <c r="AK38" s="43"/>
-      <c r="AL38" s="44"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="39"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="39"/>
+      <c r="Q38" s="39"/>
+      <c r="R38" s="39"/>
+      <c r="S38" s="39"/>
+      <c r="T38" s="39"/>
+      <c r="U38" s="39"/>
+      <c r="V38" s="39"/>
+      <c r="W38" s="39"/>
+      <c r="X38" s="39"/>
+      <c r="Y38" s="39"/>
+      <c r="Z38" s="39"/>
+      <c r="AA38" s="39"/>
+      <c r="AB38" s="39"/>
+      <c r="AC38" s="39"/>
+      <c r="AD38" s="39"/>
+      <c r="AE38" s="39"/>
+      <c r="AF38" s="39"/>
+      <c r="AG38" s="39"/>
+      <c r="AH38" s="39"/>
+      <c r="AI38" s="39"/>
+      <c r="AJ38" s="39"/>
+      <c r="AK38" s="39"/>
+      <c r="AL38" s="39"/>
       <c r="AM38" s="39"/>
       <c r="AN38" s="39"/>
       <c r="AO38" s="39"/>
@@ -12976,43 +12951,41 @@
       <c r="A39" s="39"/>
       <c r="B39" s="39"/>
       <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="69"/>
-      <c r="F39" s="55"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="55"/>
-      <c r="I39" s="55"/>
-      <c r="J39" s="55"/>
-      <c r="K39" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="L39" s="58"/>
-      <c r="M39" s="58"/>
-      <c r="N39" s="58"/>
-      <c r="O39" s="58"/>
-      <c r="P39" s="58"/>
-      <c r="Q39" s="58"/>
-      <c r="R39" s="58"/>
-      <c r="S39" s="58"/>
-      <c r="T39" s="58"/>
-      <c r="U39" s="58"/>
-      <c r="V39" s="58"/>
-      <c r="W39" s="58"/>
-      <c r="X39" s="58"/>
-      <c r="Y39" s="58"/>
-      <c r="Z39" s="58"/>
-      <c r="AA39" s="58"/>
-      <c r="AB39" s="45"/>
-      <c r="AC39" s="45"/>
-      <c r="AD39" s="45"/>
-      <c r="AE39" s="45"/>
-      <c r="AF39" s="45"/>
-      <c r="AG39" s="45"/>
-      <c r="AH39" s="45"/>
-      <c r="AI39" s="45"/>
-      <c r="AJ39" s="45"/>
-      <c r="AK39" s="45"/>
-      <c r="AL39" s="46"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="39"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="39"/>
+      <c r="O39" s="39"/>
+      <c r="P39" s="39"/>
+      <c r="Q39" s="39"/>
+      <c r="R39" s="39"/>
+      <c r="S39" s="39"/>
+      <c r="T39" s="39"/>
+      <c r="U39" s="39"/>
+      <c r="V39" s="39"/>
+      <c r="W39" s="39"/>
+      <c r="X39" s="39"/>
+      <c r="Y39" s="39"/>
+      <c r="Z39" s="39"/>
+      <c r="AA39" s="39"/>
+      <c r="AB39" s="39"/>
+      <c r="AC39" s="39"/>
+      <c r="AD39" s="39"/>
+      <c r="AE39" s="39"/>
+      <c r="AF39" s="39"/>
+      <c r="AG39" s="39"/>
+      <c r="AH39" s="39"/>
+      <c r="AI39" s="39"/>
+      <c r="AJ39" s="39"/>
+      <c r="AK39" s="39"/>
+      <c r="AL39" s="39"/>
       <c r="AM39" s="39"/>
       <c r="AN39" s="39"/>
       <c r="AO39" s="39"/>
@@ -13031,44 +13004,44 @@
       <c r="B40" s="39"/>
       <c r="C40" s="39"/>
       <c r="D40" s="39"/>
-      <c r="E40" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="F40" s="63"/>
-      <c r="G40" s="63"/>
-      <c r="H40" s="63"/>
-      <c r="I40" s="63"/>
-      <c r="J40" s="59"/>
-      <c r="K40" s="61" t="s">
-        <v>66</v>
-      </c>
-      <c r="L40" s="62"/>
-      <c r="M40" s="62"/>
-      <c r="N40" s="62"/>
-      <c r="O40" s="62"/>
-      <c r="P40" s="62"/>
-      <c r="Q40" s="62"/>
-      <c r="R40" s="62"/>
-      <c r="S40" s="62"/>
-      <c r="T40" s="62"/>
-      <c r="U40" s="62"/>
-      <c r="V40" s="62"/>
-      <c r="W40" s="62"/>
-      <c r="X40" s="62"/>
-      <c r="Y40" s="62"/>
-      <c r="Z40" s="62"/>
-      <c r="AA40" s="62"/>
-      <c r="AB40" s="35"/>
-      <c r="AC40" s="35"/>
-      <c r="AD40" s="35"/>
-      <c r="AE40" s="35"/>
-      <c r="AF40" s="35"/>
-      <c r="AG40" s="35"/>
-      <c r="AH40" s="35"/>
-      <c r="AI40" s="35"/>
-      <c r="AJ40" s="35"/>
-      <c r="AK40" s="35"/>
-      <c r="AL40" s="47"/>
+      <c r="E40" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="49"/>
+      <c r="J40" s="49"/>
+      <c r="K40" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="L40" s="53"/>
+      <c r="M40" s="53"/>
+      <c r="N40" s="53"/>
+      <c r="O40" s="53"/>
+      <c r="P40" s="53"/>
+      <c r="Q40" s="53"/>
+      <c r="R40" s="53"/>
+      <c r="S40" s="53"/>
+      <c r="T40" s="53"/>
+      <c r="U40" s="53"/>
+      <c r="V40" s="53"/>
+      <c r="W40" s="53"/>
+      <c r="X40" s="53"/>
+      <c r="Y40" s="53"/>
+      <c r="Z40" s="53"/>
+      <c r="AA40" s="53"/>
+      <c r="AB40" s="43"/>
+      <c r="AC40" s="43"/>
+      <c r="AD40" s="43"/>
+      <c r="AE40" s="43"/>
+      <c r="AF40" s="43"/>
+      <c r="AG40" s="43"/>
+      <c r="AH40" s="43"/>
+      <c r="AI40" s="43"/>
+      <c r="AJ40" s="43"/>
+      <c r="AK40" s="43"/>
+      <c r="AL40" s="44"/>
       <c r="AM40" s="39"/>
       <c r="AN40" s="39"/>
       <c r="AO40" s="39"/>
@@ -13087,44 +13060,42 @@
       <c r="B41" s="39"/>
       <c r="C41" s="39"/>
       <c r="D41" s="39"/>
-      <c r="E41" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="49"/>
-      <c r="J41" s="50"/>
-      <c r="K41" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="L41" s="53"/>
-      <c r="M41" s="53"/>
-      <c r="N41" s="53"/>
-      <c r="O41" s="53"/>
-      <c r="P41" s="53"/>
-      <c r="Q41" s="53"/>
-      <c r="R41" s="53"/>
-      <c r="S41" s="53"/>
-      <c r="T41" s="53"/>
-      <c r="U41" s="53"/>
-      <c r="V41" s="53"/>
-      <c r="W41" s="53"/>
-      <c r="X41" s="53"/>
-      <c r="Y41" s="53"/>
-      <c r="Z41" s="53"/>
-      <c r="AA41" s="53"/>
-      <c r="AB41" s="43"/>
-      <c r="AC41" s="43"/>
-      <c r="AD41" s="43"/>
-      <c r="AE41" s="43"/>
-      <c r="AF41" s="43"/>
-      <c r="AG41" s="43"/>
-      <c r="AH41" s="43"/>
-      <c r="AI41" s="43"/>
-      <c r="AJ41" s="43"/>
-      <c r="AK41" s="43"/>
-      <c r="AL41" s="44"/>
+      <c r="E41" s="69"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="55"/>
+      <c r="I41" s="55"/>
+      <c r="J41" s="55"/>
+      <c r="K41" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="L41" s="58"/>
+      <c r="M41" s="58"/>
+      <c r="N41" s="58"/>
+      <c r="O41" s="58"/>
+      <c r="P41" s="58"/>
+      <c r="Q41" s="58"/>
+      <c r="R41" s="58"/>
+      <c r="S41" s="58"/>
+      <c r="T41" s="58"/>
+      <c r="U41" s="58"/>
+      <c r="V41" s="58"/>
+      <c r="W41" s="58"/>
+      <c r="X41" s="58"/>
+      <c r="Y41" s="58"/>
+      <c r="Z41" s="58"/>
+      <c r="AA41" s="58"/>
+      <c r="AB41" s="45"/>
+      <c r="AC41" s="45"/>
+      <c r="AD41" s="45"/>
+      <c r="AE41" s="45"/>
+      <c r="AF41" s="45"/>
+      <c r="AG41" s="45"/>
+      <c r="AH41" s="45"/>
+      <c r="AI41" s="45"/>
+      <c r="AJ41" s="45"/>
+      <c r="AK41" s="45"/>
+      <c r="AL41" s="46"/>
       <c r="AM41" s="39"/>
       <c r="AN41" s="39"/>
       <c r="AO41" s="39"/>
@@ -13143,14 +13114,16 @@
       <c r="B42" s="39"/>
       <c r="C42" s="39"/>
       <c r="D42" s="39"/>
-      <c r="E42" s="60"/>
+      <c r="E42" s="60" t="s">
+        <v>73</v>
+      </c>
       <c r="F42" s="63"/>
       <c r="G42" s="63"/>
       <c r="H42" s="63"/>
       <c r="I42" s="63"/>
       <c r="J42" s="59"/>
       <c r="K42" s="61" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="L42" s="62"/>
       <c r="M42" s="62"/>
@@ -13197,42 +13170,44 @@
       <c r="B43" s="39"/>
       <c r="C43" s="39"/>
       <c r="D43" s="39"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="55"/>
-      <c r="G43" s="55"/>
-      <c r="H43" s="55"/>
-      <c r="I43" s="55"/>
-      <c r="J43" s="56"/>
-      <c r="K43" s="57" t="s">
-        <v>77</v>
-      </c>
-      <c r="L43" s="58"/>
-      <c r="M43" s="58"/>
-      <c r="N43" s="58"/>
-      <c r="O43" s="58"/>
-      <c r="P43" s="58"/>
-      <c r="Q43" s="58"/>
-      <c r="R43" s="58"/>
-      <c r="S43" s="58"/>
-      <c r="T43" s="58"/>
-      <c r="U43" s="58"/>
-      <c r="V43" s="58"/>
-      <c r="W43" s="58"/>
-      <c r="X43" s="58"/>
-      <c r="Y43" s="58"/>
-      <c r="Z43" s="58"/>
-      <c r="AA43" s="58"/>
-      <c r="AB43" s="45"/>
-      <c r="AC43" s="45"/>
-      <c r="AD43" s="45"/>
-      <c r="AE43" s="45"/>
-      <c r="AF43" s="45"/>
-      <c r="AG43" s="45"/>
-      <c r="AH43" s="45"/>
-      <c r="AI43" s="45"/>
-      <c r="AJ43" s="45"/>
-      <c r="AK43" s="45"/>
-      <c r="AL43" s="46"/>
+      <c r="E43" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="49"/>
+      <c r="I43" s="49"/>
+      <c r="J43" s="50"/>
+      <c r="K43" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="L43" s="53"/>
+      <c r="M43" s="53"/>
+      <c r="N43" s="53"/>
+      <c r="O43" s="53"/>
+      <c r="P43" s="53"/>
+      <c r="Q43" s="53"/>
+      <c r="R43" s="53"/>
+      <c r="S43" s="53"/>
+      <c r="T43" s="53"/>
+      <c r="U43" s="53"/>
+      <c r="V43" s="53"/>
+      <c r="W43" s="53"/>
+      <c r="X43" s="53"/>
+      <c r="Y43" s="53"/>
+      <c r="Z43" s="53"/>
+      <c r="AA43" s="53"/>
+      <c r="AB43" s="43"/>
+      <c r="AC43" s="43"/>
+      <c r="AD43" s="43"/>
+      <c r="AE43" s="43"/>
+      <c r="AF43" s="43"/>
+      <c r="AG43" s="43"/>
+      <c r="AH43" s="43"/>
+      <c r="AI43" s="43"/>
+      <c r="AJ43" s="43"/>
+      <c r="AK43" s="43"/>
+      <c r="AL43" s="44"/>
       <c r="AM43" s="39"/>
       <c r="AN43" s="39"/>
       <c r="AO43" s="39"/>
@@ -13251,40 +13226,42 @@
       <c r="B44" s="39"/>
       <c r="C44" s="39"/>
       <c r="D44" s="39"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="39"/>
-      <c r="I44" s="39"/>
-      <c r="J44" s="39"/>
-      <c r="K44" s="39"/>
-      <c r="L44" s="39"/>
-      <c r="M44" s="39"/>
-      <c r="N44" s="39"/>
-      <c r="O44" s="39"/>
-      <c r="P44" s="39"/>
-      <c r="Q44" s="39"/>
-      <c r="R44" s="39"/>
-      <c r="S44" s="39"/>
-      <c r="T44" s="39"/>
-      <c r="U44" s="39"/>
-      <c r="V44" s="39"/>
-      <c r="W44" s="39"/>
-      <c r="X44" s="39"/>
-      <c r="Y44" s="39"/>
-      <c r="Z44" s="39"/>
-      <c r="AA44" s="39"/>
-      <c r="AB44" s="39"/>
-      <c r="AC44" s="39"/>
-      <c r="AD44" s="39"/>
-      <c r="AE44" s="39"/>
-      <c r="AF44" s="39"/>
-      <c r="AG44" s="39"/>
-      <c r="AH44" s="39"/>
-      <c r="AI44" s="39"/>
-      <c r="AJ44" s="39"/>
-      <c r="AK44" s="39"/>
-      <c r="AL44" s="39"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="63"/>
+      <c r="H44" s="63"/>
+      <c r="I44" s="63"/>
+      <c r="J44" s="59"/>
+      <c r="K44" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="L44" s="62"/>
+      <c r="M44" s="62"/>
+      <c r="N44" s="62"/>
+      <c r="O44" s="62"/>
+      <c r="P44" s="62"/>
+      <c r="Q44" s="62"/>
+      <c r="R44" s="62"/>
+      <c r="S44" s="62"/>
+      <c r="T44" s="62"/>
+      <c r="U44" s="62"/>
+      <c r="V44" s="62"/>
+      <c r="W44" s="62"/>
+      <c r="X44" s="62"/>
+      <c r="Y44" s="62"/>
+      <c r="Z44" s="62"/>
+      <c r="AA44" s="62"/>
+      <c r="AB44" s="35"/>
+      <c r="AC44" s="35"/>
+      <c r="AD44" s="35"/>
+      <c r="AE44" s="35"/>
+      <c r="AF44" s="35"/>
+      <c r="AG44" s="35"/>
+      <c r="AH44" s="35"/>
+      <c r="AI44" s="35"/>
+      <c r="AJ44" s="35"/>
+      <c r="AK44" s="35"/>
+      <c r="AL44" s="47"/>
       <c r="AM44" s="39"/>
       <c r="AN44" s="39"/>
       <c r="AO44" s="39"/>
@@ -13303,42 +13280,42 @@
       <c r="B45" s="39"/>
       <c r="C45" s="39"/>
       <c r="D45" s="39"/>
-      <c r="E45" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="F45" s="39"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="39"/>
-      <c r="K45" s="39"/>
-      <c r="L45" s="39"/>
-      <c r="M45" s="39"/>
-      <c r="N45" s="39"/>
-      <c r="O45" s="39"/>
-      <c r="P45" s="39"/>
-      <c r="Q45" s="39"/>
-      <c r="R45" s="39"/>
-      <c r="S45" s="39"/>
-      <c r="T45" s="39"/>
-      <c r="U45" s="39"/>
-      <c r="V45" s="39"/>
-      <c r="W45" s="39"/>
-      <c r="X45" s="39"/>
-      <c r="Y45" s="39"/>
-      <c r="Z45" s="39"/>
-      <c r="AA45" s="39"/>
-      <c r="AB45" s="39"/>
-      <c r="AC45" s="39"/>
-      <c r="AD45" s="39"/>
-      <c r="AE45" s="39"/>
-      <c r="AF45" s="39"/>
-      <c r="AG45" s="39"/>
-      <c r="AH45" s="39"/>
-      <c r="AI45" s="39"/>
-      <c r="AJ45" s="39"/>
-      <c r="AK45" s="39"/>
-      <c r="AL45" s="39"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="56"/>
+      <c r="K45" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="L45" s="58"/>
+      <c r="M45" s="58"/>
+      <c r="N45" s="58"/>
+      <c r="O45" s="58"/>
+      <c r="P45" s="58"/>
+      <c r="Q45" s="58"/>
+      <c r="R45" s="58"/>
+      <c r="S45" s="58"/>
+      <c r="T45" s="58"/>
+      <c r="U45" s="58"/>
+      <c r="V45" s="58"/>
+      <c r="W45" s="58"/>
+      <c r="X45" s="58"/>
+      <c r="Y45" s="58"/>
+      <c r="Z45" s="58"/>
+      <c r="AA45" s="58"/>
+      <c r="AB45" s="45"/>
+      <c r="AC45" s="45"/>
+      <c r="AD45" s="45"/>
+      <c r="AE45" s="45"/>
+      <c r="AF45" s="45"/>
+      <c r="AG45" s="45"/>
+      <c r="AH45" s="45"/>
+      <c r="AI45" s="45"/>
+      <c r="AJ45" s="45"/>
+      <c r="AK45" s="45"/>
+      <c r="AL45" s="46"/>
       <c r="AM45" s="39"/>
       <c r="AN45" s="39"/>
       <c r="AO45" s="39"/>
@@ -13410,7 +13387,7 @@
       <c r="C47" s="39"/>
       <c r="D47" s="39"/>
       <c r="E47" s="39" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="F47" s="39"/>
       <c r="G47" s="39"/>
@@ -13472,38 +13449,38 @@
       <c r="K48" s="39"/>
       <c r="L48" s="39"/>
       <c r="M48" s="39"/>
-      <c r="N48" s="65" t="s">
-        <v>83</v>
-      </c>
-      <c r="O48" s="43"/>
-      <c r="P48" s="43"/>
-      <c r="Q48" s="43"/>
-      <c r="R48" s="43"/>
-      <c r="S48" s="43"/>
-      <c r="T48" s="43"/>
-      <c r="U48" s="43"/>
-      <c r="V48" s="43"/>
-      <c r="W48" s="43"/>
-      <c r="X48" s="43"/>
-      <c r="Y48" s="43"/>
-      <c r="Z48" s="43"/>
-      <c r="AA48" s="43"/>
-      <c r="AB48" s="43"/>
-      <c r="AC48" s="43"/>
-      <c r="AD48" s="43"/>
-      <c r="AE48" s="43"/>
-      <c r="AF48" s="43"/>
-      <c r="AG48" s="43"/>
-      <c r="AH48" s="43"/>
-      <c r="AI48" s="43"/>
-      <c r="AJ48" s="43"/>
-      <c r="AK48" s="43"/>
-      <c r="AL48" s="43"/>
-      <c r="AM48" s="43"/>
-      <c r="AN48" s="43"/>
-      <c r="AO48" s="43"/>
-      <c r="AP48" s="43"/>
-      <c r="AQ48" s="44"/>
+      <c r="N48" s="39"/>
+      <c r="O48" s="39"/>
+      <c r="P48" s="39"/>
+      <c r="Q48" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="R48" s="39"/>
+      <c r="S48" s="39"/>
+      <c r="T48" s="39"/>
+      <c r="U48" s="39"/>
+      <c r="V48" s="39"/>
+      <c r="W48" s="39"/>
+      <c r="X48" s="39"/>
+      <c r="Y48" s="39"/>
+      <c r="Z48" s="39"/>
+      <c r="AA48" s="39"/>
+      <c r="AB48" s="39"/>
+      <c r="AC48" s="39"/>
+      <c r="AD48" s="39"/>
+      <c r="AE48" s="39"/>
+      <c r="AF48" s="39"/>
+      <c r="AG48" s="39"/>
+      <c r="AH48" s="39"/>
+      <c r="AI48" s="39"/>
+      <c r="AJ48" s="39"/>
+      <c r="AK48" s="39"/>
+      <c r="AL48" s="39"/>
+      <c r="AM48" s="39"/>
+      <c r="AN48" s="39"/>
+      <c r="AO48" s="39"/>
+      <c r="AP48" s="39"/>
+      <c r="AQ48" s="39"/>
       <c r="AR48" s="39"/>
       <c r="AS48" s="39"/>
       <c r="AT48" s="39"/>
@@ -13526,38 +13503,36 @@
       <c r="K49" s="39"/>
       <c r="L49" s="39"/>
       <c r="M49" s="39"/>
-      <c r="N49" s="68" t="s">
-        <v>84</v>
-      </c>
-      <c r="O49" s="35"/>
-      <c r="P49" s="35"/>
-      <c r="Q49" s="35"/>
-      <c r="R49" s="35"/>
-      <c r="S49" s="35"/>
-      <c r="T49" s="35"/>
-      <c r="U49" s="35"/>
-      <c r="V49" s="35"/>
-      <c r="W49" s="35"/>
-      <c r="X49" s="35"/>
-      <c r="Y49" s="35"/>
-      <c r="Z49" s="35"/>
-      <c r="AA49" s="35"/>
-      <c r="AB49" s="35"/>
-      <c r="AC49" s="35"/>
-      <c r="AD49" s="35"/>
-      <c r="AE49" s="35"/>
-      <c r="AF49" s="35"/>
-      <c r="AG49" s="35"/>
-      <c r="AH49" s="35"/>
-      <c r="AI49" s="35"/>
-      <c r="AJ49" s="35"/>
-      <c r="AK49" s="35"/>
-      <c r="AL49" s="35"/>
-      <c r="AM49" s="35"/>
-      <c r="AN49" s="35"/>
-      <c r="AO49" s="35"/>
-      <c r="AP49" s="35"/>
-      <c r="AQ49" s="47"/>
+      <c r="N49" s="39"/>
+      <c r="O49" s="39"/>
+      <c r="P49" s="39"/>
+      <c r="Q49" s="39"/>
+      <c r="R49" s="39"/>
+      <c r="S49" s="39"/>
+      <c r="T49" s="39"/>
+      <c r="U49" s="39"/>
+      <c r="V49" s="39"/>
+      <c r="W49" s="39"/>
+      <c r="X49" s="39"/>
+      <c r="Y49" s="39"/>
+      <c r="Z49" s="39"/>
+      <c r="AA49" s="39"/>
+      <c r="AB49" s="39"/>
+      <c r="AC49" s="39"/>
+      <c r="AD49" s="39"/>
+      <c r="AE49" s="39"/>
+      <c r="AF49" s="39"/>
+      <c r="AG49" s="39"/>
+      <c r="AH49" s="39"/>
+      <c r="AI49" s="39"/>
+      <c r="AJ49" s="39"/>
+      <c r="AK49" s="39"/>
+      <c r="AL49" s="39"/>
+      <c r="AM49" s="39"/>
+      <c r="AN49" s="39"/>
+      <c r="AO49" s="39"/>
+      <c r="AP49" s="39"/>
+      <c r="AQ49" s="39"/>
       <c r="AR49" s="39"/>
       <c r="AS49" s="39"/>
       <c r="AT49" s="39"/>
@@ -13571,7 +13546,9 @@
       <c r="B50" s="39"/>
       <c r="C50" s="39"/>
       <c r="D50" s="39"/>
-      <c r="E50" s="39"/>
+      <c r="E50" s="39" t="s">
+        <v>109</v>
+      </c>
       <c r="F50" s="39"/>
       <c r="G50" s="39"/>
       <c r="H50" s="39"/>
@@ -13580,38 +13557,36 @@
       <c r="K50" s="39"/>
       <c r="L50" s="39"/>
       <c r="M50" s="39"/>
-      <c r="N50" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="O50" s="45"/>
-      <c r="P50" s="45"/>
-      <c r="Q50" s="45"/>
-      <c r="R50" s="45"/>
-      <c r="S50" s="45"/>
-      <c r="T50" s="45"/>
-      <c r="U50" s="45"/>
-      <c r="V50" s="45"/>
-      <c r="W50" s="45"/>
-      <c r="X50" s="45"/>
-      <c r="Y50" s="45"/>
-      <c r="Z50" s="45"/>
-      <c r="AA50" s="45"/>
-      <c r="AB50" s="45"/>
-      <c r="AC50" s="45"/>
-      <c r="AD50" s="45"/>
-      <c r="AE50" s="45"/>
-      <c r="AF50" s="45"/>
-      <c r="AG50" s="45"/>
-      <c r="AH50" s="45"/>
-      <c r="AI50" s="45"/>
-      <c r="AJ50" s="45"/>
-      <c r="AK50" s="45"/>
-      <c r="AL50" s="45"/>
-      <c r="AM50" s="45"/>
-      <c r="AN50" s="45"/>
-      <c r="AO50" s="45"/>
-      <c r="AP50" s="45"/>
-      <c r="AQ50" s="46"/>
+      <c r="N50" s="39"/>
+      <c r="O50" s="39"/>
+      <c r="P50" s="39"/>
+      <c r="Q50" s="39"/>
+      <c r="R50" s="39"/>
+      <c r="S50" s="39"/>
+      <c r="T50" s="39"/>
+      <c r="U50" s="39"/>
+      <c r="V50" s="39"/>
+      <c r="W50" s="39"/>
+      <c r="X50" s="39"/>
+      <c r="Y50" s="39"/>
+      <c r="Z50" s="39"/>
+      <c r="AA50" s="39"/>
+      <c r="AB50" s="39"/>
+      <c r="AC50" s="39"/>
+      <c r="AD50" s="39"/>
+      <c r="AE50" s="39"/>
+      <c r="AF50" s="39"/>
+      <c r="AG50" s="39"/>
+      <c r="AH50" s="39"/>
+      <c r="AI50" s="39"/>
+      <c r="AJ50" s="39"/>
+      <c r="AK50" s="39"/>
+      <c r="AL50" s="39"/>
+      <c r="AM50" s="39"/>
+      <c r="AN50" s="39"/>
+      <c r="AO50" s="39"/>
+      <c r="AP50" s="39"/>
+      <c r="AQ50" s="39"/>
       <c r="AR50" s="39"/>
       <c r="AS50" s="39"/>
       <c r="AT50" s="39"/>
@@ -13634,36 +13609,38 @@
       <c r="K51" s="39"/>
       <c r="L51" s="39"/>
       <c r="M51" s="39"/>
-      <c r="N51" s="39"/>
-      <c r="O51" s="39"/>
-      <c r="P51" s="39"/>
-      <c r="Q51" s="39"/>
-      <c r="R51" s="39"/>
-      <c r="S51" s="39"/>
-      <c r="T51" s="39"/>
-      <c r="U51" s="39"/>
-      <c r="V51" s="39"/>
-      <c r="W51" s="39"/>
-      <c r="X51" s="39"/>
-      <c r="Y51" s="39"/>
-      <c r="Z51" s="39"/>
-      <c r="AA51" s="39"/>
-      <c r="AB51" s="39"/>
-      <c r="AC51" s="39"/>
-      <c r="AD51" s="39"/>
-      <c r="AE51" s="39"/>
-      <c r="AF51" s="39"/>
-      <c r="AG51" s="39"/>
-      <c r="AH51" s="39"/>
-      <c r="AI51" s="39"/>
-      <c r="AJ51" s="39"/>
-      <c r="AK51" s="39"/>
-      <c r="AL51" s="39"/>
-      <c r="AM51" s="39"/>
-      <c r="AN51" s="39"/>
-      <c r="AO51" s="39"/>
-      <c r="AP51" s="39"/>
-      <c r="AQ51" s="39"/>
+      <c r="N51" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="O51" s="43"/>
+      <c r="P51" s="43"/>
+      <c r="Q51" s="43"/>
+      <c r="R51" s="43"/>
+      <c r="S51" s="43"/>
+      <c r="T51" s="43"/>
+      <c r="U51" s="43"/>
+      <c r="V51" s="43"/>
+      <c r="W51" s="43"/>
+      <c r="X51" s="43"/>
+      <c r="Y51" s="43"/>
+      <c r="Z51" s="43"/>
+      <c r="AA51" s="43"/>
+      <c r="AB51" s="43"/>
+      <c r="AC51" s="43"/>
+      <c r="AD51" s="43"/>
+      <c r="AE51" s="43"/>
+      <c r="AF51" s="43"/>
+      <c r="AG51" s="43"/>
+      <c r="AH51" s="43"/>
+      <c r="AI51" s="43"/>
+      <c r="AJ51" s="43"/>
+      <c r="AK51" s="43"/>
+      <c r="AL51" s="43"/>
+      <c r="AM51" s="43"/>
+      <c r="AN51" s="43"/>
+      <c r="AO51" s="43"/>
+      <c r="AP51" s="43"/>
+      <c r="AQ51" s="44"/>
       <c r="AR51" s="39"/>
       <c r="AS51" s="39"/>
       <c r="AT51" s="39"/>
@@ -13676,9 +13653,7 @@
       <c r="A52" s="39"/>
       <c r="B52" s="39"/>
       <c r="C52" s="39"/>
-      <c r="D52" s="40" t="s">
-        <v>85</v>
-      </c>
+      <c r="D52" s="39"/>
       <c r="E52" s="39"/>
       <c r="F52" s="39"/>
       <c r="G52" s="39"/>
@@ -13688,36 +13663,38 @@
       <c r="K52" s="39"/>
       <c r="L52" s="39"/>
       <c r="M52" s="39"/>
-      <c r="N52" s="39"/>
-      <c r="O52" s="39"/>
-      <c r="P52" s="39"/>
-      <c r="Q52" s="39"/>
-      <c r="R52" s="39"/>
-      <c r="S52" s="39"/>
-      <c r="T52" s="39"/>
-      <c r="U52" s="39"/>
-      <c r="V52" s="39"/>
-      <c r="W52" s="39"/>
-      <c r="X52" s="39"/>
-      <c r="Y52" s="39"/>
-      <c r="Z52" s="39"/>
-      <c r="AA52" s="39"/>
-      <c r="AB52" s="39"/>
-      <c r="AC52" s="39"/>
-      <c r="AD52" s="39"/>
-      <c r="AE52" s="39"/>
-      <c r="AF52" s="39"/>
-      <c r="AG52" s="39"/>
-      <c r="AH52" s="39"/>
-      <c r="AI52" s="39"/>
-      <c r="AJ52" s="39"/>
-      <c r="AK52" s="39"/>
-      <c r="AL52" s="39"/>
-      <c r="AM52" s="39"/>
-      <c r="AN52" s="39"/>
-      <c r="AO52" s="39"/>
-      <c r="AP52" s="39"/>
-      <c r="AQ52" s="39"/>
+      <c r="N52" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="O52" s="35"/>
+      <c r="P52" s="35"/>
+      <c r="Q52" s="35"/>
+      <c r="R52" s="35"/>
+      <c r="S52" s="35"/>
+      <c r="T52" s="35"/>
+      <c r="U52" s="35"/>
+      <c r="V52" s="35"/>
+      <c r="W52" s="35"/>
+      <c r="X52" s="35"/>
+      <c r="Y52" s="35"/>
+      <c r="Z52" s="35"/>
+      <c r="AA52" s="35"/>
+      <c r="AB52" s="35"/>
+      <c r="AC52" s="35"/>
+      <c r="AD52" s="35"/>
+      <c r="AE52" s="35"/>
+      <c r="AF52" s="35"/>
+      <c r="AG52" s="35"/>
+      <c r="AH52" s="35"/>
+      <c r="AI52" s="35"/>
+      <c r="AJ52" s="35"/>
+      <c r="AK52" s="35"/>
+      <c r="AL52" s="35"/>
+      <c r="AM52" s="35"/>
+      <c r="AN52" s="35"/>
+      <c r="AO52" s="35"/>
+      <c r="AP52" s="35"/>
+      <c r="AQ52" s="47"/>
       <c r="AR52" s="39"/>
       <c r="AS52" s="39"/>
       <c r="AT52" s="39"/>
@@ -13731,9 +13708,7 @@
       <c r="B53" s="39"/>
       <c r="C53" s="39"/>
       <c r="D53" s="39"/>
-      <c r="E53" s="39" t="s">
-        <v>87</v>
-      </c>
+      <c r="E53" s="39"/>
       <c r="F53" s="39"/>
       <c r="G53" s="39"/>
       <c r="H53" s="39"/>
@@ -13742,36 +13717,38 @@
       <c r="K53" s="39"/>
       <c r="L53" s="39"/>
       <c r="M53" s="39"/>
-      <c r="N53" s="39"/>
-      <c r="O53" s="39"/>
-      <c r="P53" s="39"/>
-      <c r="Q53" s="39"/>
-      <c r="R53" s="39"/>
-      <c r="S53" s="39"/>
-      <c r="T53" s="39"/>
-      <c r="U53" s="39"/>
-      <c r="V53" s="39"/>
-      <c r="W53" s="39"/>
-      <c r="X53" s="39"/>
-      <c r="Y53" s="39"/>
-      <c r="Z53" s="39"/>
-      <c r="AA53" s="39"/>
-      <c r="AB53" s="39"/>
-      <c r="AC53" s="39"/>
-      <c r="AD53" s="39"/>
-      <c r="AE53" s="39"/>
-      <c r="AF53" s="39"/>
-      <c r="AG53" s="39"/>
-      <c r="AH53" s="39"/>
-      <c r="AI53" s="39"/>
-      <c r="AJ53" s="39"/>
-      <c r="AK53" s="39"/>
-      <c r="AL53" s="39"/>
-      <c r="AM53" s="39"/>
-      <c r="AN53" s="39"/>
-      <c r="AO53" s="39"/>
-      <c r="AP53" s="39"/>
-      <c r="AQ53" s="39"/>
+      <c r="N53" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="O53" s="45"/>
+      <c r="P53" s="45"/>
+      <c r="Q53" s="45"/>
+      <c r="R53" s="45"/>
+      <c r="S53" s="45"/>
+      <c r="T53" s="45"/>
+      <c r="U53" s="45"/>
+      <c r="V53" s="45"/>
+      <c r="W53" s="45"/>
+      <c r="X53" s="45"/>
+      <c r="Y53" s="45"/>
+      <c r="Z53" s="45"/>
+      <c r="AA53" s="45"/>
+      <c r="AB53" s="45"/>
+      <c r="AC53" s="45"/>
+      <c r="AD53" s="45"/>
+      <c r="AE53" s="45"/>
+      <c r="AF53" s="45"/>
+      <c r="AG53" s="45"/>
+      <c r="AH53" s="45"/>
+      <c r="AI53" s="45"/>
+      <c r="AJ53" s="45"/>
+      <c r="AK53" s="45"/>
+      <c r="AL53" s="45"/>
+      <c r="AM53" s="45"/>
+      <c r="AN53" s="45"/>
+      <c r="AO53" s="45"/>
+      <c r="AP53" s="45"/>
+      <c r="AQ53" s="46"/>
       <c r="AR53" s="39"/>
       <c r="AS53" s="39"/>
       <c r="AT53" s="39"/>
@@ -13836,7 +13813,9 @@
       <c r="A55" s="39"/>
       <c r="B55" s="39"/>
       <c r="C55" s="39"/>
-      <c r="D55" s="39"/>
+      <c r="D55" s="40" t="s">
+        <v>85</v>
+      </c>
       <c r="E55" s="39"/>
       <c r="F55" s="39"/>
       <c r="G55" s="39"/>
@@ -13889,7 +13868,9 @@
       <c r="B56" s="39"/>
       <c r="C56" s="39"/>
       <c r="D56" s="39"/>
-      <c r="E56" s="39"/>
+      <c r="E56" s="39" t="s">
+        <v>87</v>
+      </c>
       <c r="F56" s="39"/>
       <c r="G56" s="39"/>
       <c r="H56" s="39"/>
@@ -13936,7 +13917,7 @@
       <c r="AW56" s="39"/>
       <c r="AX56" s="39"/>
     </row>
-    <row r="57" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:50" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="39"/>
       <c r="B57" s="39"/>
       <c r="C57" s="39"/>
@@ -13960,35 +13941,35 @@
       <c r="U57" s="39"/>
       <c r="V57" s="39"/>
       <c r="W57" s="39"/>
-      <c r="X57" s="10"/>
-      <c r="Y57" s="10"/>
-      <c r="Z57" s="10"/>
-      <c r="AA57" s="10"/>
-      <c r="AB57" s="10"/>
-      <c r="AC57" s="10"/>
-      <c r="AD57" s="10"/>
-      <c r="AE57" s="10"/>
-      <c r="AF57" s="10"/>
-      <c r="AG57" s="10"/>
-      <c r="AH57" s="10"/>
-      <c r="AI57" s="10"/>
-      <c r="AJ57" s="10"/>
-      <c r="AK57" s="10"/>
-      <c r="AL57" s="10"/>
-      <c r="AM57" s="10"/>
-      <c r="AN57" s="10"/>
-      <c r="AO57" s="10"/>
-      <c r="AP57" s="10"/>
-      <c r="AQ57" s="10"/>
-      <c r="AR57" s="10"/>
-      <c r="AS57" s="10"/>
-      <c r="AT57" s="10"/>
-      <c r="AU57" s="10"/>
-      <c r="AV57" s="10"/>
-      <c r="AW57" s="10"/>
-      <c r="AX57" s="10"/>
-    </row>
-    <row r="58" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="X57" s="39"/>
+      <c r="Y57" s="39"/>
+      <c r="Z57" s="39"/>
+      <c r="AA57" s="39"/>
+      <c r="AB57" s="39"/>
+      <c r="AC57" s="39"/>
+      <c r="AD57" s="39"/>
+      <c r="AE57" s="39"/>
+      <c r="AF57" s="39"/>
+      <c r="AG57" s="39"/>
+      <c r="AH57" s="39"/>
+      <c r="AI57" s="39"/>
+      <c r="AJ57" s="39"/>
+      <c r="AK57" s="39"/>
+      <c r="AL57" s="39"/>
+      <c r="AM57" s="39"/>
+      <c r="AN57" s="39"/>
+      <c r="AO57" s="39"/>
+      <c r="AP57" s="39"/>
+      <c r="AQ57" s="39"/>
+      <c r="AR57" s="39"/>
+      <c r="AS57" s="39"/>
+      <c r="AT57" s="39"/>
+      <c r="AU57" s="39"/>
+      <c r="AV57" s="39"/>
+      <c r="AW57" s="39"/>
+      <c r="AX57" s="39"/>
+    </row>
+    <row r="58" spans="1:50" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="39"/>
       <c r="B58" s="39"/>
       <c r="C58" s="39"/>
@@ -14012,35 +13993,35 @@
       <c r="U58" s="39"/>
       <c r="V58" s="39"/>
       <c r="W58" s="39"/>
-      <c r="X58" s="10"/>
-      <c r="Y58" s="10"/>
-      <c r="Z58" s="10"/>
-      <c r="AA58" s="10"/>
-      <c r="AB58" s="10"/>
-      <c r="AC58" s="10"/>
-      <c r="AD58" s="10"/>
-      <c r="AE58" s="10"/>
-      <c r="AF58" s="10"/>
-      <c r="AG58" s="10"/>
-      <c r="AH58" s="10"/>
-      <c r="AI58" s="10"/>
-      <c r="AJ58" s="10"/>
-      <c r="AK58" s="10"/>
-      <c r="AL58" s="10"/>
-      <c r="AM58" s="10"/>
-      <c r="AN58" s="10"/>
-      <c r="AO58" s="10"/>
-      <c r="AP58" s="10"/>
-      <c r="AQ58" s="10"/>
-      <c r="AR58" s="10"/>
-      <c r="AS58" s="10"/>
-      <c r="AT58" s="10"/>
-      <c r="AU58" s="10"/>
-      <c r="AV58" s="10"/>
-      <c r="AW58" s="10"/>
-      <c r="AX58" s="10"/>
-    </row>
-    <row r="59" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="X58" s="39"/>
+      <c r="Y58" s="39"/>
+      <c r="Z58" s="39"/>
+      <c r="AA58" s="39"/>
+      <c r="AB58" s="39"/>
+      <c r="AC58" s="39"/>
+      <c r="AD58" s="39"/>
+      <c r="AE58" s="39"/>
+      <c r="AF58" s="39"/>
+      <c r="AG58" s="39"/>
+      <c r="AH58" s="39"/>
+      <c r="AI58" s="39"/>
+      <c r="AJ58" s="39"/>
+      <c r="AK58" s="39"/>
+      <c r="AL58" s="39"/>
+      <c r="AM58" s="39"/>
+      <c r="AN58" s="39"/>
+      <c r="AO58" s="39"/>
+      <c r="AP58" s="39"/>
+      <c r="AQ58" s="39"/>
+      <c r="AR58" s="39"/>
+      <c r="AS58" s="39"/>
+      <c r="AT58" s="39"/>
+      <c r="AU58" s="39"/>
+      <c r="AV58" s="39"/>
+      <c r="AW58" s="39"/>
+      <c r="AX58" s="39"/>
+    </row>
+    <row r="59" spans="1:50" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="39"/>
       <c r="B59" s="39"/>
       <c r="C59" s="39"/>
@@ -14064,6 +14045,33 @@
       <c r="U59" s="39"/>
       <c r="V59" s="39"/>
       <c r="W59" s="39"/>
+      <c r="X59" s="39"/>
+      <c r="Y59" s="39"/>
+      <c r="Z59" s="39"/>
+      <c r="AA59" s="39"/>
+      <c r="AB59" s="39"/>
+      <c r="AC59" s="39"/>
+      <c r="AD59" s="39"/>
+      <c r="AE59" s="39"/>
+      <c r="AF59" s="39"/>
+      <c r="AG59" s="39"/>
+      <c r="AH59" s="39"/>
+      <c r="AI59" s="39"/>
+      <c r="AJ59" s="39"/>
+      <c r="AK59" s="39"/>
+      <c r="AL59" s="39"/>
+      <c r="AM59" s="39"/>
+      <c r="AN59" s="39"/>
+      <c r="AO59" s="39"/>
+      <c r="AP59" s="39"/>
+      <c r="AQ59" s="39"/>
+      <c r="AR59" s="39"/>
+      <c r="AS59" s="39"/>
+      <c r="AT59" s="39"/>
+      <c r="AU59" s="39"/>
+      <c r="AV59" s="39"/>
+      <c r="AW59" s="39"/>
+      <c r="AX59" s="39"/>
     </row>
     <row r="60" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="39"/>
@@ -14089,6 +14097,33 @@
       <c r="U60" s="39"/>
       <c r="V60" s="39"/>
       <c r="W60" s="39"/>
+      <c r="X60" s="10"/>
+      <c r="Y60" s="10"/>
+      <c r="Z60" s="10"/>
+      <c r="AA60" s="10"/>
+      <c r="AB60" s="10"/>
+      <c r="AC60" s="10"/>
+      <c r="AD60" s="10"/>
+      <c r="AE60" s="10"/>
+      <c r="AF60" s="10"/>
+      <c r="AG60" s="10"/>
+      <c r="AH60" s="10"/>
+      <c r="AI60" s="10"/>
+      <c r="AJ60" s="10"/>
+      <c r="AK60" s="10"/>
+      <c r="AL60" s="10"/>
+      <c r="AM60" s="10"/>
+      <c r="AN60" s="10"/>
+      <c r="AO60" s="10"/>
+      <c r="AP60" s="10"/>
+      <c r="AQ60" s="10"/>
+      <c r="AR60" s="10"/>
+      <c r="AS60" s="10"/>
+      <c r="AT60" s="10"/>
+      <c r="AU60" s="10"/>
+      <c r="AV60" s="10"/>
+      <c r="AW60" s="10"/>
+      <c r="AX60" s="10"/>
     </row>
     <row r="61" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="39"/>
@@ -14114,6 +14149,33 @@
       <c r="U61" s="39"/>
       <c r="V61" s="39"/>
       <c r="W61" s="39"/>
+      <c r="X61" s="10"/>
+      <c r="Y61" s="10"/>
+      <c r="Z61" s="10"/>
+      <c r="AA61" s="10"/>
+      <c r="AB61" s="10"/>
+      <c r="AC61" s="10"/>
+      <c r="AD61" s="10"/>
+      <c r="AE61" s="10"/>
+      <c r="AF61" s="10"/>
+      <c r="AG61" s="10"/>
+      <c r="AH61" s="10"/>
+      <c r="AI61" s="10"/>
+      <c r="AJ61" s="10"/>
+      <c r="AK61" s="10"/>
+      <c r="AL61" s="10"/>
+      <c r="AM61" s="10"/>
+      <c r="AN61" s="10"/>
+      <c r="AO61" s="10"/>
+      <c r="AP61" s="10"/>
+      <c r="AQ61" s="10"/>
+      <c r="AR61" s="10"/>
+      <c r="AS61" s="10"/>
+      <c r="AT61" s="10"/>
+      <c r="AU61" s="10"/>
+      <c r="AV61" s="10"/>
+      <c r="AW61" s="10"/>
+      <c r="AX61" s="10"/>
     </row>
     <row r="62" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="39"/>
@@ -14216,57 +14278,149 @@
       <c r="W65" s="39"/>
     </row>
     <row r="66" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="10"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="10"/>
-      <c r="I66" s="10"/>
-      <c r="J66" s="10"/>
-      <c r="K66" s="10"/>
-      <c r="L66" s="10"/>
-      <c r="M66" s="10"/>
-      <c r="N66" s="10"/>
-      <c r="O66" s="10"/>
-      <c r="P66" s="10"/>
-      <c r="Q66" s="10"/>
-      <c r="R66" s="10"/>
-      <c r="S66" s="10"/>
-      <c r="T66" s="10"/>
-      <c r="U66" s="10"/>
-      <c r="V66" s="10"/>
-      <c r="W66" s="10"/>
+      <c r="A66" s="39"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="39"/>
+      <c r="G66" s="39"/>
+      <c r="H66" s="39"/>
+      <c r="I66" s="39"/>
+      <c r="J66" s="39"/>
+      <c r="K66" s="39"/>
+      <c r="L66" s="39"/>
+      <c r="M66" s="39"/>
+      <c r="N66" s="39"/>
+      <c r="O66" s="39"/>
+      <c r="P66" s="39"/>
+      <c r="Q66" s="39"/>
+      <c r="R66" s="39"/>
+      <c r="S66" s="39"/>
+      <c r="T66" s="39"/>
+      <c r="U66" s="39"/>
+      <c r="V66" s="39"/>
+      <c r="W66" s="39"/>
     </row>
     <row r="67" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="10"/>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="10"/>
-      <c r="I67" s="10"/>
-      <c r="J67" s="10"/>
-      <c r="K67" s="10"/>
-      <c r="L67" s="10"/>
-      <c r="M67" s="10"/>
-      <c r="N67" s="10"/>
-      <c r="O67" s="10"/>
-      <c r="P67" s="10"/>
-      <c r="Q67" s="10"/>
-      <c r="R67" s="10"/>
-      <c r="S67" s="10"/>
-      <c r="T67" s="10"/>
-      <c r="U67" s="10"/>
-      <c r="V67" s="10"/>
-      <c r="W67" s="10"/>
+      <c r="A67" s="39"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="39"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="39"/>
+      <c r="G67" s="39"/>
+      <c r="H67" s="39"/>
+      <c r="I67" s="39"/>
+      <c r="J67" s="39"/>
+      <c r="K67" s="39"/>
+      <c r="L67" s="39"/>
+      <c r="M67" s="39"/>
+      <c r="N67" s="39"/>
+      <c r="O67" s="39"/>
+      <c r="P67" s="39"/>
+      <c r="Q67" s="39"/>
+      <c r="R67" s="39"/>
+      <c r="S67" s="39"/>
+      <c r="T67" s="39"/>
+      <c r="U67" s="39"/>
+      <c r="V67" s="39"/>
+      <c r="W67" s="39"/>
+    </row>
+    <row r="68" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="39"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="39"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="39"/>
+      <c r="H68" s="39"/>
+      <c r="I68" s="39"/>
+      <c r="J68" s="39"/>
+      <c r="K68" s="39"/>
+      <c r="L68" s="39"/>
+      <c r="M68" s="39"/>
+      <c r="N68" s="39"/>
+      <c r="O68" s="39"/>
+      <c r="P68" s="39"/>
+      <c r="Q68" s="39"/>
+      <c r="R68" s="39"/>
+      <c r="S68" s="39"/>
+      <c r="T68" s="39"/>
+      <c r="U68" s="39"/>
+      <c r="V68" s="39"/>
+      <c r="W68" s="39"/>
+    </row>
+    <row r="69" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="10"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="10"/>
+      <c r="L69" s="10"/>
+      <c r="M69" s="10"/>
+      <c r="N69" s="10"/>
+      <c r="O69" s="10"/>
+      <c r="P69" s="10"/>
+      <c r="Q69" s="10"/>
+      <c r="R69" s="10"/>
+      <c r="S69" s="10"/>
+      <c r="T69" s="10"/>
+      <c r="U69" s="10"/>
+      <c r="V69" s="10"/>
+      <c r="W69" s="10"/>
+    </row>
+    <row r="70" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="10"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="10"/>
+      <c r="L70" s="10"/>
+      <c r="M70" s="10"/>
+      <c r="N70" s="10"/>
+      <c r="O70" s="10"/>
+      <c r="P70" s="10"/>
+      <c r="Q70" s="10"/>
+      <c r="R70" s="10"/>
+      <c r="S70" s="10"/>
+      <c r="T70" s="10"/>
+      <c r="U70" s="10"/>
+      <c r="V70" s="10"/>
+      <c r="W70" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="S1:AD1"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AI1:AN1"/>
     <mergeCell ref="AS1:AX1"/>
     <mergeCell ref="L2:R2"/>
     <mergeCell ref="S2:AD2"/>
@@ -14275,30 +14429,13 @@
     <mergeCell ref="AO2:AR2"/>
     <mergeCell ref="AS2:AX2"/>
     <mergeCell ref="AO1:AR1"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="S1:AD1"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AI1:AN1"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="I8:M8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="I9:M9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="I10:M10"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="27" max="49" man="1"/>
-    <brk id="56" max="49" man="1"/>
+    <brk id="29" max="49" man="1"/>
+    <brk id="59" max="49" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/2.詳細設計/2-1_詳細設計_ログイン画面.xlsx
+++ b/2.詳細設計/2-1_詳細設計_ログイン画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81806\Desktop\仕事\2回目課題\2.詳細設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52881719-CE87-4607-9C7C-E3294F14E8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B603AA-BDFF-4ADC-8899-CA26F69BF084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10710" yWindow="120" windowWidth="16875" windowHeight="15420" tabRatio="747" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10365" yWindow="675" windowWidth="16245" windowHeight="15420" tabRatio="747" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.表紙" sheetId="1" r:id="rId1"/>
@@ -727,34 +727,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>・会員情報登録ボタンを押下した時に、『会員情報登録画面』を表示する。</t>
-    <rPh sb="1" eb="5">
-      <t>カイインジョウホウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="19" eb="23">
-      <t>カイインジョウホウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>顧客情報マスタ - 苗字</t>
     <rPh sb="0" eb="2">
       <t>コキャク</t>
@@ -1009,6 +981,34 @@
     </rPh>
     <rPh sb="50" eb="52">
       <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・会員情報登録ボタン押下時、『会員情報登録画面』を表示する。</t>
+    <rPh sb="1" eb="5">
+      <t>カイインジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>カイインジョウホウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -2719,7 +2719,7 @@
   <dimension ref="A1:AA34"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3769,7 +3769,7 @@
   <dimension ref="A1:AX40"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9:T9"/>
+      <selection activeCell="U13" sqref="U13:AX13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4299,7 +4299,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="90"/>
-      <c r="C10" s="88"/>
+      <c r="C10" s="92"/>
       <c r="D10" s="88"/>
       <c r="E10" s="88"/>
       <c r="F10" s="88"/>
@@ -10878,7 +10878,7 @@
   <dimension ref="A1:AX70"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AO48" sqref="AO48"/>
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -11561,7 +11561,7 @@
     <row r="13" spans="1:50" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="36"/>
       <c r="B13" s="36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C13" s="36"/>
       <c r="D13" s="36"/>
@@ -11666,7 +11666,7 @@
     </row>
     <row r="15" spans="1:50" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
@@ -11721,7 +11721,7 @@
     <row r="16" spans="1:50" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="36"/>
       <c r="B16" s="36" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C16" s="36"/>
       <c r="D16" s="36"/>
@@ -12096,7 +12096,7 @@
       <c r="A23" s="39"/>
       <c r="B23" s="39"/>
       <c r="C23" s="39" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D23" s="39"/>
       <c r="E23" s="39"/>
@@ -12579,7 +12579,7 @@
       <c r="C32" s="39"/>
       <c r="D32" s="40"/>
       <c r="E32" s="39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F32" s="39"/>
       <c r="G32" s="39"/>
@@ -12685,7 +12685,7 @@
       <c r="C34" s="39"/>
       <c r="D34" s="40"/>
       <c r="E34" s="39" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F34" s="39"/>
       <c r="G34" s="39"/>
@@ -13013,7 +13013,7 @@
       <c r="I40" s="49"/>
       <c r="J40" s="49"/>
       <c r="K40" s="52" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L40" s="53"/>
       <c r="M40" s="53"/>
@@ -13067,7 +13067,7 @@
       <c r="I41" s="55"/>
       <c r="J41" s="55"/>
       <c r="K41" s="57" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L41" s="58"/>
       <c r="M41" s="58"/>
@@ -13387,7 +13387,7 @@
       <c r="C47" s="39"/>
       <c r="D47" s="39"/>
       <c r="E47" s="39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F47" s="39"/>
       <c r="G47" s="39"/>
@@ -13453,7 +13453,7 @@
       <c r="O48" s="39"/>
       <c r="P48" s="39"/>
       <c r="Q48" s="39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="R48" s="39"/>
       <c r="S48" s="39"/>
@@ -13547,7 +13547,7 @@
       <c r="C50" s="39"/>
       <c r="D50" s="39"/>
       <c r="E50" s="39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F50" s="39"/>
       <c r="G50" s="39"/>
